--- a/Files/Reporte_Stock_adm/900987412_3/Reporte_Stock_MAS LOGISTICA_1.xlsx
+++ b/Files/Reporte_Stock_adm/900987412_3/Reporte_Stock_MAS LOGISTICA_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="633">
   <si>
     <t>REPORTE STOCK CLIENTE MAS LOGISTICA
 SUC. IMPORTACIONES LANCH</t>
@@ -66,7 +66,7 @@
     <t>Estuche Spigen Liquid Air Apple iPhone iPhone SE 2020 / 8 / 7 - Negro</t>
   </si>
   <si>
-    <t>2A</t>
+    <t>1F</t>
   </si>
   <si>
     <t>565CS20828</t>
@@ -147,7 +147,7 @@
     <t>3C</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>SERT0002</t>
   </si>
   <si>
     <t>Estuche VRS Crystal Chrome Huawei Honor 8X Max - Claro</t>
@@ -310,9 +310,6 @@
   </si>
   <si>
     <t>Vidrio Flexible Ringke DualEasyFull Apple Iphone 11 Pro Max - (1+1)</t>
-  </si>
-  <si>
-    <t>1F</t>
   </si>
   <si>
     <t>ESSG0001</t>
@@ -2399,7 +2396,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2416,7 +2413,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2433,7 +2430,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2484,7 +2481,7 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2535,7 +2532,7 @@
         <v>32</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2552,7 +2549,7 @@
         <v>35</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2569,7 +2566,7 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2603,7 +2600,7 @@
         <v>42</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2637,7 +2634,7 @@
         <v>48</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2688,7 +2685,7 @@
         <v>56</v>
       </c>
       <c r="E21">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2705,7 +2702,7 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2756,7 +2753,7 @@
         <v>65</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2773,7 +2770,7 @@
         <v>68</v>
       </c>
       <c r="E26">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2841,7 +2838,7 @@
         <v>79</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2858,7 +2855,7 @@
         <v>82</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2875,7 +2872,7 @@
         <v>19</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2892,7 +2889,7 @@
         <v>87</v>
       </c>
       <c r="E33">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2957,7 +2954,7 @@
         <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>20</v>
@@ -2968,13 +2965,13 @@
         <v>8809628564169</v>
       </c>
       <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
         <v>99</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>100</v>
-      </c>
-      <c r="D38" t="s">
-        <v>101</v>
       </c>
       <c r="E38">
         <v>15</v>
@@ -2985,16 +2982,16 @@
         <v>8809628565333</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
         <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E39">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3002,16 +2999,16 @@
         <v>8809628566316</v>
       </c>
       <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
         <v>103</v>
       </c>
-      <c r="C40" t="s">
-        <v>104</v>
-      </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3019,16 +3016,16 @@
         <v>8809628566590</v>
       </c>
       <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
         <v>105</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
       </c>
       <c r="D41" t="s">
         <v>90</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3036,10 +3033,10 @@
         <v>8809628566927</v>
       </c>
       <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
         <v>107</v>
-      </c>
-      <c r="C42" t="s">
-        <v>108</v>
       </c>
       <c r="D42" t="s">
         <v>82</v>
@@ -3053,16 +3050,16 @@
         <v>8809628567122</v>
       </c>
       <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
         <v>109</v>
-      </c>
-      <c r="C43" t="s">
-        <v>110</v>
       </c>
       <c r="D43" t="s">
         <v>71</v>
       </c>
       <c r="E43">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3070,16 +3067,16 @@
         <v>8809628567207</v>
       </c>
       <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
         <v>111</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>112</v>
       </c>
-      <c r="D44" t="s">
-        <v>113</v>
-      </c>
       <c r="E44">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3087,16 +3084,16 @@
         <v>8809628567276</v>
       </c>
       <c r="B45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" t="s">
         <v>114</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>115</v>
       </c>
-      <c r="D45" t="s">
-        <v>116</v>
-      </c>
       <c r="E45">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3104,16 +3101,16 @@
         <v>8809628567290</v>
       </c>
       <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
         <v>117</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>118</v>
       </c>
-      <c r="D46" t="s">
-        <v>119</v>
-      </c>
       <c r="E46">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3121,10 +3118,10 @@
         <v>8809628567375</v>
       </c>
       <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
         <v>120</v>
-      </c>
-      <c r="C47" t="s">
-        <v>121</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -3138,13 +3135,13 @@
         <v>8809628567450</v>
       </c>
       <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
         <v>122</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>123</v>
-      </c>
-      <c r="D48" t="s">
-        <v>124</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -3155,13 +3152,13 @@
         <v>8809628567474</v>
       </c>
       <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
         <v>125</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>126</v>
-      </c>
-      <c r="D49" t="s">
-        <v>127</v>
       </c>
       <c r="E49">
         <v>25</v>
@@ -3172,13 +3169,13 @@
         <v>8809628567498</v>
       </c>
       <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
         <v>128</v>
       </c>
-      <c r="C50" t="s">
-        <v>129</v>
-      </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E50">
         <v>22</v>
@@ -3189,10 +3186,10 @@
         <v>8809628568648</v>
       </c>
       <c r="B51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" t="s">
         <v>130</v>
-      </c>
-      <c r="C51" t="s">
-        <v>131</v>
       </c>
       <c r="D51" t="s">
         <v>87</v>
@@ -3206,16 +3203,16 @@
         <v>8809628568730</v>
       </c>
       <c r="B52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" t="s">
         <v>132</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>133</v>
       </c>
-      <c r="D52" t="s">
-        <v>134</v>
-      </c>
       <c r="E52">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3223,16 +3220,16 @@
         <v>8809628568853</v>
       </c>
       <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s">
         <v>135</v>
-      </c>
-      <c r="C53" t="s">
-        <v>136</v>
       </c>
       <c r="D53" t="s">
         <v>82</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3240,16 +3237,16 @@
         <v>8809628568877</v>
       </c>
       <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" t="s">
         <v>137</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>138</v>
       </c>
-      <c r="D54" t="s">
-        <v>139</v>
-      </c>
       <c r="E54">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3257,13 +3254,13 @@
         <v>8809628568969</v>
       </c>
       <c r="B55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" t="s">
         <v>140</v>
       </c>
-      <c r="C55" t="s">
-        <v>141</v>
-      </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E55">
         <v>44</v>
@@ -3274,13 +3271,13 @@
         <v>8809628569089</v>
       </c>
       <c r="B56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" t="s">
         <v>142</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>143</v>
-      </c>
-      <c r="D56" t="s">
-        <v>144</v>
       </c>
       <c r="E56">
         <v>22</v>
@@ -3291,13 +3288,13 @@
         <v>8809628569102</v>
       </c>
       <c r="B57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" t="s">
         <v>145</v>
       </c>
-      <c r="C57" t="s">
-        <v>146</v>
-      </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E57">
         <v>25</v>
@@ -3308,13 +3305,13 @@
         <v>8809628569195</v>
       </c>
       <c r="B58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" t="s">
         <v>147</v>
       </c>
-      <c r="C58" t="s">
-        <v>148</v>
-      </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E58">
         <v>20</v>
@@ -3325,16 +3322,16 @@
         <v>8809628569928</v>
       </c>
       <c r="B59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" t="s">
         <v>149</v>
-      </c>
-      <c r="C59" t="s">
-        <v>150</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="E59">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3342,10 +3339,10 @@
         <v>8809628569959</v>
       </c>
       <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" t="s">
         <v>151</v>
-      </c>
-      <c r="C60" t="s">
-        <v>152</v>
       </c>
       <c r="D60" t="s">
         <v>32</v>
@@ -3359,10 +3356,10 @@
         <v>8809640250392</v>
       </c>
       <c r="B61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" t="s">
         <v>153</v>
-      </c>
-      <c r="C61" t="s">
-        <v>154</v>
       </c>
       <c r="D61" t="s">
         <v>35</v>
@@ -3376,13 +3373,13 @@
         <v>8809640251320</v>
       </c>
       <c r="B62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" t="s">
         <v>155</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>156</v>
-      </c>
-      <c r="D62" t="s">
-        <v>157</v>
       </c>
       <c r="E62">
         <v>30</v>
@@ -3393,10 +3390,10 @@
         <v>8809640252266</v>
       </c>
       <c r="B63" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" t="s">
         <v>158</v>
-      </c>
-      <c r="C63" t="s">
-        <v>159</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
@@ -3410,13 +3407,13 @@
         <v>8809640258718</v>
       </c>
       <c r="B64" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" t="s">
         <v>160</v>
       </c>
-      <c r="C64" t="s">
-        <v>161</v>
-      </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E64">
         <v>19</v>
@@ -3427,13 +3424,13 @@
         <v>8809640259739</v>
       </c>
       <c r="B65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" t="s">
         <v>162</v>
       </c>
-      <c r="C65" t="s">
-        <v>163</v>
-      </c>
       <c r="D65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E65">
         <v>10</v>
@@ -3444,16 +3441,16 @@
         <v>8809640259784</v>
       </c>
       <c r="B66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" t="s">
         <v>164</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>165</v>
       </c>
-      <c r="D66" t="s">
-        <v>166</v>
-      </c>
       <c r="E66">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3461,16 +3458,16 @@
         <v>8809659042018</v>
       </c>
       <c r="B67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" t="s">
         <v>167</v>
-      </c>
-      <c r="C67" t="s">
-        <v>168</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
       </c>
       <c r="E67">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3478,16 +3475,16 @@
         <v>8809659042049</v>
       </c>
       <c r="B68" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" t="s">
         <v>169</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>170</v>
       </c>
-      <c r="D68" t="s">
-        <v>171</v>
-      </c>
       <c r="E68">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3495,16 +3492,16 @@
         <v>8809659042070</v>
       </c>
       <c r="B69" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" t="s">
         <v>172</v>
-      </c>
-      <c r="C69" t="s">
-        <v>173</v>
       </c>
       <c r="D69" t="s">
         <v>71</v>
       </c>
       <c r="E69">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3512,10 +3509,10 @@
         <v>8809659042131</v>
       </c>
       <c r="B70" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" t="s">
         <v>174</v>
-      </c>
-      <c r="C70" t="s">
-        <v>175</v>
       </c>
       <c r="D70" t="s">
         <v>95</v>
@@ -3529,16 +3526,16 @@
         <v>8809659042162</v>
       </c>
       <c r="B71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" t="s">
         <v>176</v>
-      </c>
-      <c r="C71" t="s">
-        <v>177</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
       </c>
       <c r="E71">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3546,16 +3543,16 @@
         <v>8809659042636</v>
       </c>
       <c r="B72" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" t="s">
         <v>178</v>
-      </c>
-      <c r="C72" t="s">
-        <v>179</v>
       </c>
       <c r="D72" t="s">
         <v>42</v>
       </c>
       <c r="E72">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3563,10 +3560,10 @@
         <v>8809659042728</v>
       </c>
       <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" t="s">
         <v>180</v>
-      </c>
-      <c r="C73" t="s">
-        <v>181</v>
       </c>
       <c r="D73" t="s">
         <v>87</v>
@@ -3580,16 +3577,16 @@
         <v>8809659043152</v>
       </c>
       <c r="B74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" t="s">
         <v>182</v>
-      </c>
-      <c r="C74" t="s">
-        <v>183</v>
       </c>
       <c r="D74" t="s">
         <v>35</v>
       </c>
       <c r="E74">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3597,16 +3594,16 @@
         <v>8809659044012</v>
       </c>
       <c r="B75" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" t="s">
         <v>184</v>
       </c>
-      <c r="C75" t="s">
-        <v>185</v>
-      </c>
       <c r="D75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E75">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3614,16 +3611,16 @@
         <v>8809659044043</v>
       </c>
       <c r="B76" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" t="s">
         <v>186</v>
       </c>
-      <c r="C76" t="s">
-        <v>187</v>
-      </c>
       <c r="D76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3631,13 +3628,13 @@
         <v>8809659044098</v>
       </c>
       <c r="B77" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" t="s">
         <v>188</v>
       </c>
-      <c r="C77" t="s">
-        <v>189</v>
-      </c>
       <c r="D77" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E77">
         <v>17</v>
@@ -3648,13 +3645,13 @@
         <v>8809659044128</v>
       </c>
       <c r="B78" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" t="s">
         <v>190</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>191</v>
-      </c>
-      <c r="D78" t="s">
-        <v>192</v>
       </c>
       <c r="E78">
         <v>25</v>
@@ -3665,13 +3662,13 @@
         <v>8809659044159</v>
       </c>
       <c r="B79" t="s">
+        <v>192</v>
+      </c>
+      <c r="C79" t="s">
         <v>193</v>
       </c>
-      <c r="C79" t="s">
-        <v>194</v>
-      </c>
       <c r="D79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E79">
         <v>17</v>
@@ -3682,16 +3679,16 @@
         <v>8809659044258</v>
       </c>
       <c r="B80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" t="s">
         <v>195</v>
       </c>
-      <c r="C80" t="s">
-        <v>196</v>
-      </c>
       <c r="D80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3699,16 +3696,16 @@
         <v>8809659044418</v>
       </c>
       <c r="B81" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" t="s">
         <v>197</v>
       </c>
-      <c r="C81" t="s">
-        <v>198</v>
-      </c>
       <c r="D81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3716,13 +3713,13 @@
         <v>8809659045507</v>
       </c>
       <c r="B82" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" t="s">
         <v>199</v>
       </c>
-      <c r="C82" t="s">
-        <v>200</v>
-      </c>
       <c r="D82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E82">
         <v>13</v>
@@ -3733,13 +3730,13 @@
         <v>8809659045538</v>
       </c>
       <c r="B83" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" t="s">
         <v>201</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>202</v>
-      </c>
-      <c r="D83" t="s">
-        <v>203</v>
       </c>
       <c r="E83">
         <v>29</v>
@@ -3750,16 +3747,16 @@
         <v>8809659045668</v>
       </c>
       <c r="B84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" t="s">
         <v>204</v>
-      </c>
-      <c r="C84" t="s">
-        <v>205</v>
       </c>
       <c r="D84" t="s">
         <v>29</v>
       </c>
       <c r="E84">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3767,16 +3764,16 @@
         <v>8809659045828</v>
       </c>
       <c r="B85" t="s">
+        <v>205</v>
+      </c>
+      <c r="C85" t="s">
         <v>206</v>
       </c>
-      <c r="C85" t="s">
-        <v>207</v>
-      </c>
       <c r="D85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E85">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3784,16 +3781,16 @@
         <v>8809659045859</v>
       </c>
       <c r="B86" t="s">
+        <v>207</v>
+      </c>
+      <c r="C86" t="s">
         <v>208</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>209</v>
       </c>
-      <c r="D86" t="s">
-        <v>210</v>
-      </c>
       <c r="E86">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3801,16 +3798,16 @@
         <v>8809659045880</v>
       </c>
       <c r="B87" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" t="s">
         <v>211</v>
-      </c>
-      <c r="C87" t="s">
-        <v>212</v>
       </c>
       <c r="D87" t="s">
         <v>56</v>
       </c>
       <c r="E87">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3818,13 +3815,13 @@
         <v>8809659046139</v>
       </c>
       <c r="B88" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88" t="s">
         <v>213</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>214</v>
-      </c>
-      <c r="D88" t="s">
-        <v>215</v>
       </c>
       <c r="E88">
         <v>30</v>
@@ -3835,16 +3832,16 @@
         <v>8809659047228</v>
       </c>
       <c r="B89" t="s">
+        <v>215</v>
+      </c>
+      <c r="C89" t="s">
         <v>216</v>
       </c>
-      <c r="C89" t="s">
-        <v>217</v>
-      </c>
       <c r="D89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3852,13 +3849,13 @@
         <v>8809659047488</v>
       </c>
       <c r="B90" t="s">
+        <v>217</v>
+      </c>
+      <c r="C90" t="s">
         <v>218</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>219</v>
-      </c>
-      <c r="D90" t="s">
-        <v>220</v>
       </c>
       <c r="E90">
         <v>20</v>
@@ -3869,13 +3866,13 @@
         <v>8809659047549</v>
       </c>
       <c r="B91" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" t="s">
         <v>221</v>
       </c>
-      <c r="C91" t="s">
-        <v>222</v>
-      </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E91">
         <v>50</v>
@@ -3886,10 +3883,10 @@
         <v>8809659047600</v>
       </c>
       <c r="B92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" t="s">
         <v>223</v>
-      </c>
-      <c r="C92" t="s">
-        <v>224</v>
       </c>
       <c r="D92" t="s">
         <v>45</v>
@@ -3903,10 +3900,10 @@
         <v>8809659047631</v>
       </c>
       <c r="B93" t="s">
+        <v>224</v>
+      </c>
+      <c r="C93" t="s">
         <v>225</v>
-      </c>
-      <c r="C93" t="s">
-        <v>226</v>
       </c>
       <c r="D93" t="s">
         <v>42</v>
@@ -3920,13 +3917,13 @@
         <v>8809659047662</v>
       </c>
       <c r="B94" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" t="s">
         <v>227</v>
       </c>
-      <c r="C94" t="s">
-        <v>228</v>
-      </c>
       <c r="D94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E94">
         <v>30</v>
@@ -3937,16 +3934,16 @@
         <v>8809659047747</v>
       </c>
       <c r="B95" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" t="s">
         <v>229</v>
-      </c>
-      <c r="C95" t="s">
-        <v>230</v>
       </c>
       <c r="D95" t="s">
         <v>53</v>
       </c>
       <c r="E95">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3954,16 +3951,16 @@
         <v>8809659047778</v>
       </c>
       <c r="B96" t="s">
+        <v>230</v>
+      </c>
+      <c r="C96" t="s">
         <v>231</v>
-      </c>
-      <c r="C96" t="s">
-        <v>232</v>
       </c>
       <c r="D96" t="s">
         <v>32</v>
       </c>
       <c r="E96">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3971,10 +3968,10 @@
         <v>8809659047884</v>
       </c>
       <c r="B97" t="s">
+        <v>232</v>
+      </c>
+      <c r="C97" t="s">
         <v>233</v>
-      </c>
-      <c r="C97" t="s">
-        <v>234</v>
       </c>
       <c r="D97" t="s">
         <v>45</v>
@@ -3988,16 +3985,16 @@
         <v>8809659048027</v>
       </c>
       <c r="B98" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" t="s">
         <v>235</v>
-      </c>
-      <c r="C98" t="s">
-        <v>236</v>
       </c>
       <c r="D98" t="s">
         <v>42</v>
       </c>
       <c r="E98">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4005,13 +4002,13 @@
         <v>8809659048263</v>
       </c>
       <c r="B99" t="s">
+        <v>236</v>
+      </c>
+      <c r="C99" t="s">
         <v>237</v>
       </c>
-      <c r="C99" t="s">
-        <v>238</v>
-      </c>
       <c r="D99" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E99">
         <v>19</v>
@@ -4022,13 +4019,13 @@
         <v>8809659048348</v>
       </c>
       <c r="B100" t="s">
+        <v>238</v>
+      </c>
+      <c r="C100" t="s">
         <v>239</v>
       </c>
-      <c r="C100" t="s">
-        <v>240</v>
-      </c>
       <c r="D100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E100">
         <v>44</v>
@@ -4039,13 +4036,13 @@
         <v>8809659048379</v>
       </c>
       <c r="B101" t="s">
+        <v>240</v>
+      </c>
+      <c r="C101" t="s">
         <v>241</v>
       </c>
-      <c r="C101" t="s">
-        <v>242</v>
-      </c>
       <c r="D101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E101">
         <v>35</v>
@@ -4056,16 +4053,16 @@
         <v>8809659048409</v>
       </c>
       <c r="B102" t="s">
+        <v>242</v>
+      </c>
+      <c r="C102" t="s">
         <v>243</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>244</v>
       </c>
-      <c r="D102" t="s">
-        <v>245</v>
-      </c>
       <c r="E102">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4073,13 +4070,13 @@
         <v>8809659048553</v>
       </c>
       <c r="B103" t="s">
+        <v>245</v>
+      </c>
+      <c r="C103" t="s">
         <v>246</v>
       </c>
-      <c r="C103" t="s">
-        <v>247</v>
-      </c>
       <c r="D103" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E103">
         <v>25</v>
@@ -4090,16 +4087,16 @@
         <v>8809659048591</v>
       </c>
       <c r="B104" t="s">
+        <v>247</v>
+      </c>
+      <c r="C104" t="s">
         <v>248</v>
-      </c>
-      <c r="C104" t="s">
-        <v>249</v>
       </c>
       <c r="D104" t="s">
         <v>71</v>
       </c>
       <c r="E104">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4107,10 +4104,10 @@
         <v>8809659048607</v>
       </c>
       <c r="B105" t="s">
+        <v>249</v>
+      </c>
+      <c r="C105" t="s">
         <v>250</v>
-      </c>
-      <c r="C105" t="s">
-        <v>251</v>
       </c>
       <c r="D105" t="s">
         <v>29</v>
@@ -4124,10 +4121,10 @@
         <v>8809659048614</v>
       </c>
       <c r="B106" t="s">
+        <v>251</v>
+      </c>
+      <c r="C106" t="s">
         <v>252</v>
-      </c>
-      <c r="C106" t="s">
-        <v>253</v>
       </c>
       <c r="D106" t="s">
         <v>48</v>
@@ -4141,10 +4138,10 @@
         <v>8809659048621</v>
       </c>
       <c r="B107" t="s">
+        <v>253</v>
+      </c>
+      <c r="C107" t="s">
         <v>254</v>
-      </c>
-      <c r="C107" t="s">
-        <v>255</v>
       </c>
       <c r="D107" t="s">
         <v>71</v>
@@ -4158,16 +4155,16 @@
         <v>8809659048638</v>
       </c>
       <c r="B108" t="s">
+        <v>255</v>
+      </c>
+      <c r="C108" t="s">
         <v>256</v>
       </c>
-      <c r="C108" t="s">
-        <v>257</v>
-      </c>
       <c r="D108" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E108">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4175,13 +4172,13 @@
         <v>8809659048652</v>
       </c>
       <c r="B109" t="s">
+        <v>257</v>
+      </c>
+      <c r="C109" t="s">
         <v>258</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>259</v>
-      </c>
-      <c r="D109" t="s">
-        <v>260</v>
       </c>
       <c r="E109">
         <v>16</v>
@@ -4192,10 +4189,10 @@
         <v>8809659048669</v>
       </c>
       <c r="B110" t="s">
+        <v>260</v>
+      </c>
+      <c r="C110" t="s">
         <v>261</v>
-      </c>
-      <c r="C110" t="s">
-        <v>262</v>
       </c>
       <c r="D110" t="s">
         <v>40</v>
@@ -4209,16 +4206,16 @@
         <v>8809659049901</v>
       </c>
       <c r="B111" t="s">
+        <v>262</v>
+      </c>
+      <c r="C111" t="s">
         <v>263</v>
       </c>
-      <c r="C111" t="s">
-        <v>264</v>
-      </c>
       <c r="D111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E111">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4226,10 +4223,10 @@
         <v>8809659049987</v>
       </c>
       <c r="B112" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" t="s">
         <v>265</v>
-      </c>
-      <c r="C112" t="s">
-        <v>266</v>
       </c>
       <c r="D112" t="s">
         <v>53</v>
@@ -4243,10 +4240,10 @@
         <v>8809671010248</v>
       </c>
       <c r="B113" t="s">
+        <v>266</v>
+      </c>
+      <c r="C113" t="s">
         <v>267</v>
-      </c>
-      <c r="C113" t="s">
-        <v>268</v>
       </c>
       <c r="D113" t="s">
         <v>65</v>
@@ -4260,13 +4257,13 @@
         <v>8809671010293</v>
       </c>
       <c r="B114" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114" t="s">
         <v>269</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>270</v>
-      </c>
-      <c r="D114" t="s">
-        <v>271</v>
       </c>
       <c r="E114">
         <v>10</v>
@@ -4277,10 +4274,10 @@
         <v>8809685620754</v>
       </c>
       <c r="B115" t="s">
+        <v>271</v>
+      </c>
+      <c r="C115" t="s">
         <v>272</v>
-      </c>
-      <c r="C115" t="s">
-        <v>273</v>
       </c>
       <c r="D115" t="s">
         <v>65</v>
@@ -4294,16 +4291,16 @@
         <v>8809685622932</v>
       </c>
       <c r="B116" t="s">
+        <v>273</v>
+      </c>
+      <c r="C116" t="s">
         <v>274</v>
       </c>
-      <c r="C116" t="s">
-        <v>275</v>
-      </c>
       <c r="D116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E116">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4311,16 +4308,16 @@
         <v>8809685623991</v>
       </c>
       <c r="B117" t="s">
+        <v>275</v>
+      </c>
+      <c r="C117" t="s">
         <v>276</v>
       </c>
-      <c r="C117" t="s">
-        <v>277</v>
-      </c>
       <c r="D117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E117">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4328,13 +4325,13 @@
         <v>8809685624028</v>
       </c>
       <c r="B118" t="s">
+        <v>277</v>
+      </c>
+      <c r="C118" t="s">
         <v>278</v>
       </c>
-      <c r="C118" t="s">
-        <v>279</v>
-      </c>
       <c r="D118" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E118">
         <v>50</v>
@@ -4345,13 +4342,13 @@
         <v>8809685624035</v>
       </c>
       <c r="B119" t="s">
+        <v>279</v>
+      </c>
+      <c r="C119" t="s">
         <v>280</v>
       </c>
-      <c r="C119" t="s">
-        <v>281</v>
-      </c>
       <c r="D119" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E119">
         <v>18</v>
@@ -4362,13 +4359,13 @@
         <v>8809685624042</v>
       </c>
       <c r="B120" t="s">
+        <v>281</v>
+      </c>
+      <c r="C120" t="s">
         <v>282</v>
       </c>
-      <c r="C120" t="s">
-        <v>283</v>
-      </c>
       <c r="D120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E120">
         <v>16</v>
@@ -4379,13 +4376,13 @@
         <v>8809685624660</v>
       </c>
       <c r="B121" t="s">
+        <v>283</v>
+      </c>
+      <c r="C121" t="s">
         <v>284</v>
       </c>
-      <c r="C121" t="s">
-        <v>285</v>
-      </c>
       <c r="D121" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E121">
         <v>42</v>
@@ -4396,10 +4393,10 @@
         <v>8809685624721</v>
       </c>
       <c r="B122" t="s">
+        <v>285</v>
+      </c>
+      <c r="C122" t="s">
         <v>286</v>
-      </c>
-      <c r="C122" t="s">
-        <v>287</v>
       </c>
       <c r="D122" t="s">
         <v>65</v>
@@ -4413,16 +4410,16 @@
         <v>8809685624745</v>
       </c>
       <c r="B123" t="s">
+        <v>287</v>
+      </c>
+      <c r="C123" t="s">
         <v>288</v>
       </c>
-      <c r="C123" t="s">
-        <v>289</v>
-      </c>
       <c r="D123" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E123">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4430,10 +4427,10 @@
         <v>8809685625001</v>
       </c>
       <c r="B124" t="s">
+        <v>289</v>
+      </c>
+      <c r="C124" t="s">
         <v>290</v>
-      </c>
-      <c r="C124" t="s">
-        <v>291</v>
       </c>
       <c r="D124" t="s">
         <v>32</v>
@@ -4447,10 +4444,10 @@
         <v>8809685625469</v>
       </c>
       <c r="B125" t="s">
+        <v>291</v>
+      </c>
+      <c r="C125" t="s">
         <v>292</v>
-      </c>
-      <c r="C125" t="s">
-        <v>293</v>
       </c>
       <c r="D125" t="s">
         <v>40</v>
@@ -4464,13 +4461,13 @@
         <v>8809685625759</v>
       </c>
       <c r="B126" t="s">
+        <v>293</v>
+      </c>
+      <c r="C126" t="s">
         <v>294</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>295</v>
-      </c>
-      <c r="D126" t="s">
-        <v>296</v>
       </c>
       <c r="E126">
         <v>30</v>
@@ -4481,13 +4478,13 @@
         <v>8809685626176</v>
       </c>
       <c r="B127" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" t="s">
         <v>297</v>
       </c>
-      <c r="C127" t="s">
-        <v>298</v>
-      </c>
       <c r="D127" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E127">
         <v>37</v>
@@ -4498,16 +4495,16 @@
         <v>8809685626558</v>
       </c>
       <c r="B128" t="s">
+        <v>298</v>
+      </c>
+      <c r="C128" t="s">
         <v>299</v>
-      </c>
-      <c r="C128" t="s">
-        <v>300</v>
       </c>
       <c r="D128" t="s">
         <v>35</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4515,16 +4512,16 @@
         <v>8809685627067</v>
       </c>
       <c r="B129" t="s">
+        <v>300</v>
+      </c>
+      <c r="C129" t="s">
         <v>301</v>
       </c>
-      <c r="C129" t="s">
-        <v>302</v>
-      </c>
       <c r="D129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E129">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4532,16 +4529,16 @@
         <v>8809685627081</v>
       </c>
       <c r="B130" t="s">
+        <v>302</v>
+      </c>
+      <c r="C130" t="s">
         <v>303</v>
       </c>
-      <c r="C130" t="s">
-        <v>304</v>
-      </c>
       <c r="D130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E130">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4549,16 +4546,16 @@
         <v>8809685629344</v>
       </c>
       <c r="B131" t="s">
+        <v>304</v>
+      </c>
+      <c r="C131" t="s">
         <v>305</v>
-      </c>
-      <c r="C131" t="s">
-        <v>306</v>
       </c>
       <c r="D131" t="s">
         <v>24</v>
       </c>
       <c r="E131">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4566,13 +4563,13 @@
         <v>8809688890093</v>
       </c>
       <c r="B132" t="s">
+        <v>306</v>
+      </c>
+      <c r="C132" t="s">
         <v>307</v>
       </c>
-      <c r="C132" t="s">
-        <v>308</v>
-      </c>
       <c r="D132" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E132">
         <v>39</v>
@@ -4583,16 +4580,16 @@
         <v>8809688890123</v>
       </c>
       <c r="B133" t="s">
+        <v>308</v>
+      </c>
+      <c r="C133" t="s">
         <v>309</v>
       </c>
-      <c r="C133" t="s">
-        <v>310</v>
-      </c>
       <c r="D133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E133">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4600,16 +4597,16 @@
         <v>8809688891106</v>
       </c>
       <c r="B134" t="s">
+        <v>310</v>
+      </c>
+      <c r="C134" t="s">
         <v>311</v>
       </c>
-      <c r="C134" t="s">
-        <v>312</v>
-      </c>
       <c r="D134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E134">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4617,13 +4614,13 @@
         <v>8809688891137</v>
       </c>
       <c r="B135" t="s">
+        <v>312</v>
+      </c>
+      <c r="C135" t="s">
         <v>313</v>
       </c>
-      <c r="C135" t="s">
-        <v>314</v>
-      </c>
       <c r="D135" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E135">
         <v>44</v>
@@ -4634,10 +4631,10 @@
         <v>8809688891229</v>
       </c>
       <c r="B136" t="s">
+        <v>314</v>
+      </c>
+      <c r="C136" t="s">
         <v>315</v>
-      </c>
-      <c r="C136" t="s">
-        <v>316</v>
       </c>
       <c r="D136" t="s">
         <v>53</v>
@@ -4651,16 +4648,16 @@
         <v>8809688891557</v>
       </c>
       <c r="B137" t="s">
+        <v>316</v>
+      </c>
+      <c r="C137" t="s">
         <v>317</v>
       </c>
-      <c r="C137" t="s">
-        <v>318</v>
-      </c>
       <c r="D137" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E137">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4668,16 +4665,16 @@
         <v>8809688891977</v>
       </c>
       <c r="B138" t="s">
+        <v>318</v>
+      </c>
+      <c r="C138" t="s">
         <v>319</v>
-      </c>
-      <c r="C138" t="s">
-        <v>320</v>
       </c>
       <c r="D138" t="s">
         <v>32</v>
       </c>
       <c r="E138">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4685,13 +4682,13 @@
         <v>8809688892066</v>
       </c>
       <c r="B139" t="s">
+        <v>320</v>
+      </c>
+      <c r="C139" t="s">
         <v>321</v>
       </c>
-      <c r="C139" t="s">
-        <v>322</v>
-      </c>
       <c r="D139" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E139">
         <v>20</v>
@@ -4702,16 +4699,16 @@
         <v>8809688892295</v>
       </c>
       <c r="B140" t="s">
+        <v>322</v>
+      </c>
+      <c r="C140" t="s">
         <v>323</v>
       </c>
-      <c r="C140" t="s">
-        <v>324</v>
-      </c>
       <c r="D140" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E140">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4719,13 +4716,13 @@
         <v>8809688893018</v>
       </c>
       <c r="B141" t="s">
+        <v>324</v>
+      </c>
+      <c r="C141" t="s">
         <v>325</v>
       </c>
-      <c r="C141" t="s">
-        <v>326</v>
-      </c>
       <c r="D141" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E141">
         <v>15</v>
@@ -4736,16 +4733,16 @@
         <v>8809688893049</v>
       </c>
       <c r="B142" t="s">
+        <v>326</v>
+      </c>
+      <c r="C142" t="s">
         <v>327</v>
       </c>
-      <c r="C142" t="s">
-        <v>328</v>
-      </c>
       <c r="D142" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E142">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4753,13 +4750,13 @@
         <v>8809688893070</v>
       </c>
       <c r="B143" t="s">
+        <v>328</v>
+      </c>
+      <c r="C143" t="s">
         <v>329</v>
       </c>
-      <c r="C143" t="s">
-        <v>330</v>
-      </c>
       <c r="D143" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E143">
         <v>42</v>
@@ -4770,13 +4767,13 @@
         <v>8809688893100</v>
       </c>
       <c r="B144" t="s">
+        <v>330</v>
+      </c>
+      <c r="C144" t="s">
         <v>331</v>
       </c>
-      <c r="C144" t="s">
-        <v>332</v>
-      </c>
       <c r="D144" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E144">
         <v>20</v>
@@ -4787,13 +4784,13 @@
         <v>8809688893131</v>
       </c>
       <c r="B145" t="s">
+        <v>332</v>
+      </c>
+      <c r="C145" t="s">
         <v>333</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>334</v>
-      </c>
-      <c r="D145" t="s">
-        <v>335</v>
       </c>
       <c r="E145">
         <v>20</v>
@@ -4804,10 +4801,10 @@
         <v>8809688893162</v>
       </c>
       <c r="B146" t="s">
+        <v>335</v>
+      </c>
+      <c r="C146" t="s">
         <v>336</v>
-      </c>
-      <c r="C146" t="s">
-        <v>337</v>
       </c>
       <c r="D146" t="s">
         <v>45</v>
@@ -4821,10 +4818,10 @@
         <v>8809688893193</v>
       </c>
       <c r="B147" t="s">
+        <v>337</v>
+      </c>
+      <c r="C147" t="s">
         <v>338</v>
-      </c>
-      <c r="C147" t="s">
-        <v>339</v>
       </c>
       <c r="D147" t="s">
         <v>95</v>
@@ -4838,16 +4835,16 @@
         <v>8809688893513</v>
       </c>
       <c r="B148" t="s">
+        <v>339</v>
+      </c>
+      <c r="C148" t="s">
         <v>340</v>
       </c>
-      <c r="C148" t="s">
-        <v>341</v>
-      </c>
       <c r="D148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E148">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4855,16 +4852,16 @@
         <v>8809688893568</v>
       </c>
       <c r="B149" t="s">
+        <v>341</v>
+      </c>
+      <c r="C149" t="s">
         <v>342</v>
       </c>
-      <c r="C149" t="s">
-        <v>343</v>
-      </c>
       <c r="D149" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4872,16 +4869,16 @@
         <v>8809688893698</v>
       </c>
       <c r="B150" t="s">
+        <v>343</v>
+      </c>
+      <c r="C150" t="s">
         <v>344</v>
-      </c>
-      <c r="C150" t="s">
-        <v>345</v>
       </c>
       <c r="D150" t="s">
         <v>42</v>
       </c>
       <c r="E150">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4889,16 +4886,16 @@
         <v>8809688893728</v>
       </c>
       <c r="B151" t="s">
+        <v>345</v>
+      </c>
+      <c r="C151" t="s">
         <v>346</v>
       </c>
-      <c r="C151" t="s">
-        <v>347</v>
-      </c>
       <c r="D151" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E151">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4906,16 +4903,16 @@
         <v>8809688893759</v>
       </c>
       <c r="B152" t="s">
+        <v>347</v>
+      </c>
+      <c r="C152" t="s">
         <v>348</v>
       </c>
-      <c r="C152" t="s">
-        <v>349</v>
-      </c>
       <c r="D152" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E152">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4923,13 +4920,13 @@
         <v>8809688893780</v>
       </c>
       <c r="B153" t="s">
+        <v>349</v>
+      </c>
+      <c r="C153" t="s">
         <v>350</v>
       </c>
-      <c r="C153" t="s">
-        <v>351</v>
-      </c>
       <c r="D153" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E153">
         <v>30</v>
@@ -4940,13 +4937,13 @@
         <v>8809688894046</v>
       </c>
       <c r="B154" t="s">
+        <v>351</v>
+      </c>
+      <c r="C154" t="s">
         <v>352</v>
       </c>
-      <c r="C154" t="s">
-        <v>353</v>
-      </c>
       <c r="D154" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E154">
         <v>21</v>
@@ -4957,13 +4954,13 @@
         <v>8809688894077</v>
       </c>
       <c r="B155" t="s">
+        <v>353</v>
+      </c>
+      <c r="C155" t="s">
         <v>354</v>
       </c>
-      <c r="C155" t="s">
-        <v>355</v>
-      </c>
       <c r="D155" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -4974,13 +4971,13 @@
         <v>8809688894107</v>
       </c>
       <c r="B156" t="s">
+        <v>355</v>
+      </c>
+      <c r="C156" t="s">
         <v>356</v>
       </c>
-      <c r="C156" t="s">
-        <v>357</v>
-      </c>
       <c r="D156" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E156">
         <v>20</v>
@@ -4991,16 +4988,16 @@
         <v>8809688894138</v>
       </c>
       <c r="B157" t="s">
+        <v>357</v>
+      </c>
+      <c r="C157" t="s">
         <v>358</v>
       </c>
-      <c r="C157" t="s">
-        <v>359</v>
-      </c>
       <c r="D157" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E157">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5008,10 +5005,10 @@
         <v>8809688894152</v>
       </c>
       <c r="B158" t="s">
+        <v>359</v>
+      </c>
+      <c r="C158" t="s">
         <v>360</v>
-      </c>
-      <c r="C158" t="s">
-        <v>361</v>
       </c>
       <c r="D158" t="s">
         <v>68</v>
@@ -5025,13 +5022,13 @@
         <v>8809688894183</v>
       </c>
       <c r="B159" t="s">
+        <v>361</v>
+      </c>
+      <c r="C159" t="s">
         <v>362</v>
       </c>
-      <c r="C159" t="s">
-        <v>363</v>
-      </c>
       <c r="D159" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E159">
         <v>19</v>
@@ -5042,10 +5039,10 @@
         <v>8809688894213</v>
       </c>
       <c r="B160" t="s">
+        <v>363</v>
+      </c>
+      <c r="C160" t="s">
         <v>364</v>
-      </c>
-      <c r="C160" t="s">
-        <v>365</v>
       </c>
       <c r="D160" t="s">
         <v>29</v>
@@ -5059,10 +5056,10 @@
         <v>8809688894244</v>
       </c>
       <c r="B161" t="s">
+        <v>365</v>
+      </c>
+      <c r="C161" t="s">
         <v>366</v>
-      </c>
-      <c r="C161" t="s">
-        <v>367</v>
       </c>
       <c r="D161" t="s">
         <v>24</v>
@@ -5076,13 +5073,13 @@
         <v>8809688894466</v>
       </c>
       <c r="B162" t="s">
+        <v>367</v>
+      </c>
+      <c r="C162" t="s">
         <v>368</v>
       </c>
-      <c r="C162" t="s">
-        <v>369</v>
-      </c>
       <c r="D162" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E162">
         <v>11</v>
@@ -5093,13 +5090,13 @@
         <v>8809688894558</v>
       </c>
       <c r="B163" t="s">
+        <v>369</v>
+      </c>
+      <c r="C163" t="s">
         <v>370</v>
       </c>
-      <c r="C163" t="s">
-        <v>371</v>
-      </c>
       <c r="D163" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E163">
         <v>18</v>
@@ -5110,16 +5107,16 @@
         <v>8809688894640</v>
       </c>
       <c r="B164" t="s">
+        <v>371</v>
+      </c>
+      <c r="C164" t="s">
         <v>372</v>
       </c>
-      <c r="C164" t="s">
-        <v>373</v>
-      </c>
       <c r="D164" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E164">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5127,16 +5124,16 @@
         <v>8809688895388</v>
       </c>
       <c r="B165" t="s">
+        <v>373</v>
+      </c>
+      <c r="C165" t="s">
         <v>374</v>
       </c>
-      <c r="C165" t="s">
-        <v>375</v>
-      </c>
       <c r="D165" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E165">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5144,13 +5141,13 @@
         <v>8809688896583</v>
       </c>
       <c r="B166" t="s">
+        <v>375</v>
+      </c>
+      <c r="C166" t="s">
         <v>376</v>
       </c>
-      <c r="C166" t="s">
-        <v>377</v>
-      </c>
       <c r="D166" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E166">
         <v>32</v>
@@ -5161,13 +5158,13 @@
         <v>8809688896590</v>
       </c>
       <c r="B167" t="s">
+        <v>377</v>
+      </c>
+      <c r="C167" t="s">
         <v>378</v>
       </c>
-      <c r="C167" t="s">
-        <v>379</v>
-      </c>
       <c r="D167" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E167">
         <v>15</v>
@@ -5178,10 +5175,10 @@
         <v>8809688896606</v>
       </c>
       <c r="B168" t="s">
+        <v>379</v>
+      </c>
+      <c r="C168" t="s">
         <v>380</v>
-      </c>
-      <c r="C168" t="s">
-        <v>381</v>
       </c>
       <c r="D168" t="s">
         <v>90</v>
@@ -5195,13 +5192,13 @@
         <v>8809688896613</v>
       </c>
       <c r="B169" t="s">
+        <v>381</v>
+      </c>
+      <c r="C169" t="s">
         <v>382</v>
       </c>
-      <c r="C169" t="s">
-        <v>383</v>
-      </c>
       <c r="D169" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E169">
         <v>13</v>
@@ -5212,10 +5209,10 @@
         <v>8809688896620</v>
       </c>
       <c r="B170" t="s">
+        <v>383</v>
+      </c>
+      <c r="C170" t="s">
         <v>384</v>
-      </c>
-      <c r="C170" t="s">
-        <v>385</v>
       </c>
       <c r="D170" t="s">
         <v>32</v>
@@ -5229,10 +5226,10 @@
         <v>8809688896637</v>
       </c>
       <c r="B171" t="s">
+        <v>385</v>
+      </c>
+      <c r="C171" t="s">
         <v>386</v>
-      </c>
-      <c r="C171" t="s">
-        <v>387</v>
       </c>
       <c r="D171" t="s">
         <v>48</v>
@@ -5246,13 +5243,13 @@
         <v>8809688896644</v>
       </c>
       <c r="B172" t="s">
+        <v>387</v>
+      </c>
+      <c r="C172" t="s">
         <v>388</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>389</v>
-      </c>
-      <c r="D172" t="s">
-        <v>390</v>
       </c>
       <c r="E172">
         <v>30</v>
@@ -5263,13 +5260,13 @@
         <v>8809688896675</v>
       </c>
       <c r="B173" t="s">
+        <v>390</v>
+      </c>
+      <c r="C173" t="s">
         <v>391</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>392</v>
-      </c>
-      <c r="D173" t="s">
-        <v>393</v>
       </c>
       <c r="E173">
         <v>15</v>
@@ -5280,13 +5277,13 @@
         <v>8809688896736</v>
       </c>
       <c r="B174" t="s">
+        <v>393</v>
+      </c>
+      <c r="C174" t="s">
         <v>394</v>
       </c>
-      <c r="C174" t="s">
-        <v>395</v>
-      </c>
       <c r="D174" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E174">
         <v>28</v>
@@ -5297,13 +5294,13 @@
         <v>8809688896804</v>
       </c>
       <c r="B175" t="s">
+        <v>395</v>
+      </c>
+      <c r="C175" t="s">
         <v>396</v>
       </c>
-      <c r="C175" t="s">
-        <v>397</v>
-      </c>
       <c r="D175" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E175">
         <v>50</v>
@@ -5314,16 +5311,16 @@
         <v>8809688896835</v>
       </c>
       <c r="B176" t="s">
+        <v>397</v>
+      </c>
+      <c r="C176" t="s">
         <v>398</v>
       </c>
-      <c r="C176" t="s">
-        <v>399</v>
-      </c>
       <c r="D176" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E176">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5331,13 +5328,13 @@
         <v>8809688896866</v>
       </c>
       <c r="B177" t="s">
+        <v>399</v>
+      </c>
+      <c r="C177" t="s">
         <v>400</v>
       </c>
-      <c r="C177" t="s">
-        <v>401</v>
-      </c>
       <c r="D177" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E177">
         <v>19</v>
@@ -5348,13 +5345,13 @@
         <v>8809688896897</v>
       </c>
       <c r="B178" t="s">
+        <v>401</v>
+      </c>
+      <c r="C178" t="s">
         <v>402</v>
       </c>
-      <c r="C178" t="s">
-        <v>403</v>
-      </c>
       <c r="D178" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E178">
         <v>20</v>
@@ -5365,13 +5362,13 @@
         <v>8809688896910</v>
       </c>
       <c r="B179" t="s">
+        <v>403</v>
+      </c>
+      <c r="C179" t="s">
         <v>404</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>405</v>
-      </c>
-      <c r="D179" t="s">
-        <v>406</v>
       </c>
       <c r="E179">
         <v>50</v>
@@ -5382,13 +5379,13 @@
         <v>8809688896941</v>
       </c>
       <c r="B180" t="s">
+        <v>406</v>
+      </c>
+      <c r="C180" t="s">
         <v>407</v>
       </c>
-      <c r="C180" t="s">
-        <v>408</v>
-      </c>
       <c r="D180" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E180">
         <v>16</v>
@@ -5399,10 +5396,10 @@
         <v>8809688896972</v>
       </c>
       <c r="B181" t="s">
+        <v>408</v>
+      </c>
+      <c r="C181" t="s">
         <v>409</v>
-      </c>
-      <c r="C181" t="s">
-        <v>410</v>
       </c>
       <c r="D181" t="s">
         <v>53</v>
@@ -5416,16 +5413,16 @@
         <v>8809688897009</v>
       </c>
       <c r="B182" t="s">
+        <v>410</v>
+      </c>
+      <c r="C182" t="s">
         <v>411</v>
-      </c>
-      <c r="C182" t="s">
-        <v>412</v>
       </c>
       <c r="D182" t="s">
         <v>68</v>
       </c>
       <c r="E182">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5433,10 +5430,10 @@
         <v>8809688897016</v>
       </c>
       <c r="B183" t="s">
+        <v>412</v>
+      </c>
+      <c r="C183" t="s">
         <v>413</v>
-      </c>
-      <c r="C183" t="s">
-        <v>414</v>
       </c>
       <c r="D183" t="s">
         <v>32</v>
@@ -5450,16 +5447,16 @@
         <v>8809688897344</v>
       </c>
       <c r="B184" t="s">
+        <v>414</v>
+      </c>
+      <c r="C184" t="s">
         <v>415</v>
       </c>
-      <c r="C184" t="s">
-        <v>416</v>
-      </c>
       <c r="D184" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E184">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5467,13 +5464,13 @@
         <v>8809688897368</v>
       </c>
       <c r="B185" t="s">
+        <v>416</v>
+      </c>
+      <c r="C185" t="s">
         <v>417</v>
       </c>
-      <c r="C185" t="s">
-        <v>418</v>
-      </c>
       <c r="D185" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E185">
         <v>15</v>
@@ -5484,16 +5481,16 @@
         <v>8809688897382</v>
       </c>
       <c r="B186" t="s">
+        <v>418</v>
+      </c>
+      <c r="C186" t="s">
         <v>419</v>
-      </c>
-      <c r="C186" t="s">
-        <v>420</v>
       </c>
       <c r="D186" t="s">
         <v>56</v>
       </c>
       <c r="E186">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5501,16 +5498,16 @@
         <v>8809688897412</v>
       </c>
       <c r="B187" t="s">
+        <v>420</v>
+      </c>
+      <c r="C187" t="s">
         <v>421</v>
       </c>
-      <c r="C187" t="s">
-        <v>422</v>
-      </c>
       <c r="D187" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E187">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5518,16 +5515,16 @@
         <v>8809688897504</v>
       </c>
       <c r="B188" t="s">
+        <v>422</v>
+      </c>
+      <c r="C188" t="s">
         <v>423</v>
       </c>
-      <c r="C188" t="s">
-        <v>424</v>
-      </c>
       <c r="D188" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5535,16 +5532,16 @@
         <v>8809688897535</v>
       </c>
       <c r="B189" t="s">
+        <v>424</v>
+      </c>
+      <c r="C189" t="s">
         <v>425</v>
       </c>
-      <c r="C189" t="s">
-        <v>426</v>
-      </c>
       <c r="D189" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E189">
-        <v>-2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5552,16 +5549,16 @@
         <v>8809688897566</v>
       </c>
       <c r="B190" t="s">
+        <v>426</v>
+      </c>
+      <c r="C190" t="s">
         <v>427</v>
       </c>
-      <c r="C190" t="s">
-        <v>428</v>
-      </c>
       <c r="D190" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E190">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5569,16 +5566,16 @@
         <v>8809688897658</v>
       </c>
       <c r="B191" t="s">
+        <v>428</v>
+      </c>
+      <c r="C191" t="s">
         <v>429</v>
       </c>
-      <c r="C191" t="s">
-        <v>430</v>
-      </c>
       <c r="D191" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E191">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5586,16 +5583,16 @@
         <v>8809688897733</v>
       </c>
       <c r="B192" t="s">
+        <v>430</v>
+      </c>
+      <c r="C192" t="s">
         <v>431</v>
       </c>
-      <c r="C192" t="s">
-        <v>432</v>
-      </c>
       <c r="D192" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E192">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5603,16 +5600,16 @@
         <v>8809688897764</v>
       </c>
       <c r="B193" t="s">
+        <v>432</v>
+      </c>
+      <c r="C193" t="s">
         <v>433</v>
       </c>
-      <c r="C193" t="s">
-        <v>434</v>
-      </c>
       <c r="D193" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E193">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5620,13 +5617,13 @@
         <v>8809688897795</v>
       </c>
       <c r="B194" t="s">
+        <v>434</v>
+      </c>
+      <c r="C194" t="s">
         <v>435</v>
       </c>
-      <c r="C194" t="s">
-        <v>436</v>
-      </c>
       <c r="D194" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E194">
         <v>16</v>
@@ -5637,13 +5634,13 @@
         <v>8809688897887</v>
       </c>
       <c r="B195" t="s">
+        <v>436</v>
+      </c>
+      <c r="C195" t="s">
         <v>437</v>
       </c>
-      <c r="C195" t="s">
-        <v>438</v>
-      </c>
       <c r="D195" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E195">
         <v>20</v>
@@ -5654,16 +5651,16 @@
         <v>8809688897962</v>
       </c>
       <c r="B196" t="s">
+        <v>438</v>
+      </c>
+      <c r="C196" t="s">
         <v>439</v>
       </c>
-      <c r="C196" t="s">
-        <v>440</v>
-      </c>
       <c r="D196" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E196">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5671,16 +5668,16 @@
         <v>8809688897993</v>
       </c>
       <c r="B197" t="s">
+        <v>440</v>
+      </c>
+      <c r="C197" t="s">
         <v>441</v>
-      </c>
-      <c r="C197" t="s">
-        <v>442</v>
       </c>
       <c r="D197" t="s">
         <v>24</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5688,10 +5685,10 @@
         <v>8809688898020</v>
       </c>
       <c r="B198" t="s">
+        <v>442</v>
+      </c>
+      <c r="C198" t="s">
         <v>443</v>
-      </c>
-      <c r="C198" t="s">
-        <v>444</v>
       </c>
       <c r="D198" t="s">
         <v>90</v>
@@ -5705,13 +5702,13 @@
         <v>8809688898112</v>
       </c>
       <c r="B199" t="s">
+        <v>444</v>
+      </c>
+      <c r="C199" t="s">
         <v>445</v>
       </c>
-      <c r="C199" t="s">
-        <v>446</v>
-      </c>
       <c r="D199" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E199">
         <v>50</v>
@@ -5722,13 +5719,13 @@
         <v>8809688898402</v>
       </c>
       <c r="B200" t="s">
+        <v>446</v>
+      </c>
+      <c r="C200" t="s">
         <v>447</v>
       </c>
-      <c r="C200" t="s">
-        <v>448</v>
-      </c>
       <c r="D200" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E200">
         <v>20</v>
@@ -5739,10 +5736,10 @@
         <v>8809688898433</v>
       </c>
       <c r="B201" t="s">
+        <v>448</v>
+      </c>
+      <c r="C201" t="s">
         <v>449</v>
-      </c>
-      <c r="C201" t="s">
-        <v>450</v>
       </c>
       <c r="D201" t="s">
         <v>74</v>
@@ -5756,10 +5753,10 @@
         <v>8809688898464</v>
       </c>
       <c r="B202" t="s">
+        <v>450</v>
+      </c>
+      <c r="C202" t="s">
         <v>451</v>
-      </c>
-      <c r="C202" t="s">
-        <v>452</v>
       </c>
       <c r="D202" t="s">
         <v>82</v>
@@ -5773,13 +5770,13 @@
         <v>8809688898495</v>
       </c>
       <c r="B203" t="s">
+        <v>452</v>
+      </c>
+      <c r="C203" t="s">
         <v>453</v>
       </c>
-      <c r="C203" t="s">
-        <v>454</v>
-      </c>
       <c r="D203" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E203">
         <v>30</v>
@@ -5790,16 +5787,16 @@
         <v>8809688898525</v>
       </c>
       <c r="B204" t="s">
+        <v>454</v>
+      </c>
+      <c r="C204" t="s">
         <v>455</v>
       </c>
-      <c r="C204" t="s">
-        <v>456</v>
-      </c>
       <c r="D204" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E204">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5807,10 +5804,10 @@
         <v>8809688899430</v>
       </c>
       <c r="B205" t="s">
+        <v>456</v>
+      </c>
+      <c r="C205" t="s">
         <v>457</v>
-      </c>
-      <c r="C205" t="s">
-        <v>458</v>
       </c>
       <c r="D205" t="s">
         <v>82</v>
@@ -5824,16 +5821,16 @@
         <v>8809688899461</v>
       </c>
       <c r="B206" t="s">
+        <v>458</v>
+      </c>
+      <c r="C206" t="s">
         <v>459</v>
       </c>
-      <c r="C206" t="s">
-        <v>460</v>
-      </c>
       <c r="D206" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E206">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5841,13 +5838,13 @@
         <v>8809688899492</v>
       </c>
       <c r="B207" t="s">
+        <v>460</v>
+      </c>
+      <c r="C207" t="s">
         <v>461</v>
       </c>
-      <c r="C207" t="s">
-        <v>462</v>
-      </c>
       <c r="D207" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E207">
         <v>37</v>
@@ -5858,16 +5855,16 @@
         <v>8809688899522</v>
       </c>
       <c r="B208" t="s">
+        <v>462</v>
+      </c>
+      <c r="C208" t="s">
         <v>463</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>464</v>
       </c>
-      <c r="D208" t="s">
-        <v>465</v>
-      </c>
       <c r="E208">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5875,16 +5872,16 @@
         <v>8809688899553</v>
       </c>
       <c r="B209" t="s">
+        <v>465</v>
+      </c>
+      <c r="C209" t="s">
         <v>466</v>
       </c>
-      <c r="C209" t="s">
-        <v>467</v>
-      </c>
       <c r="D209" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E209">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5892,16 +5889,16 @@
         <v>8809688899584</v>
       </c>
       <c r="B210" t="s">
+        <v>467</v>
+      </c>
+      <c r="C210" t="s">
         <v>468</v>
       </c>
-      <c r="C210" t="s">
-        <v>469</v>
-      </c>
       <c r="D210" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E210">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5909,10 +5906,10 @@
         <v>8809688899669</v>
       </c>
       <c r="B211" t="s">
+        <v>469</v>
+      </c>
+      <c r="C211" t="s">
         <v>470</v>
-      </c>
-      <c r="C211" t="s">
-        <v>471</v>
       </c>
       <c r="D211" t="s">
         <v>87</v>
@@ -5926,16 +5923,16 @@
         <v>8809688899690</v>
       </c>
       <c r="B212" t="s">
+        <v>471</v>
+      </c>
+      <c r="C212" t="s">
         <v>472</v>
-      </c>
-      <c r="C212" t="s">
-        <v>473</v>
       </c>
       <c r="D212" t="s">
         <v>87</v>
       </c>
       <c r="E212">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5943,16 +5940,16 @@
         <v>8809710751002</v>
       </c>
       <c r="B213" t="s">
+        <v>473</v>
+      </c>
+      <c r="C213" t="s">
         <v>474</v>
       </c>
-      <c r="C213" t="s">
-        <v>475</v>
-      </c>
       <c r="D213" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E213">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5960,13 +5957,13 @@
         <v>8809716070022</v>
       </c>
       <c r="B214" t="s">
+        <v>475</v>
+      </c>
+      <c r="C214" t="s">
         <v>476</v>
       </c>
-      <c r="C214" t="s">
-        <v>477</v>
-      </c>
       <c r="D214" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E214">
         <v>25</v>
@@ -5977,13 +5974,13 @@
         <v>8809716070039</v>
       </c>
       <c r="B215" t="s">
+        <v>477</v>
+      </c>
+      <c r="C215" t="s">
         <v>478</v>
       </c>
-      <c r="C215" t="s">
-        <v>479</v>
-      </c>
       <c r="D215" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E215">
         <v>10</v>
@@ -5994,10 +5991,10 @@
         <v>8809716070046</v>
       </c>
       <c r="B216" t="s">
+        <v>479</v>
+      </c>
+      <c r="C216" t="s">
         <v>480</v>
-      </c>
-      <c r="C216" t="s">
-        <v>481</v>
       </c>
       <c r="D216" t="s">
         <v>53</v>
@@ -6011,16 +6008,16 @@
         <v>8809716070053</v>
       </c>
       <c r="B217" t="s">
+        <v>481</v>
+      </c>
+      <c r="C217" t="s">
         <v>482</v>
       </c>
-      <c r="C217" t="s">
-        <v>483</v>
-      </c>
       <c r="D217" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E217">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6028,13 +6025,13 @@
         <v>8809716070060</v>
       </c>
       <c r="B218" t="s">
+        <v>483</v>
+      </c>
+      <c r="C218" t="s">
         <v>484</v>
       </c>
-      <c r="C218" t="s">
-        <v>485</v>
-      </c>
       <c r="D218" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E218">
         <v>25</v>
@@ -6045,10 +6042,10 @@
         <v>8809716070503</v>
       </c>
       <c r="B219" t="s">
+        <v>485</v>
+      </c>
+      <c r="C219" t="s">
         <v>486</v>
-      </c>
-      <c r="C219" t="s">
-        <v>487</v>
       </c>
       <c r="D219" t="s">
         <v>29</v>
@@ -6062,10 +6059,10 @@
         <v>8809716070527</v>
       </c>
       <c r="B220" t="s">
+        <v>487</v>
+      </c>
+      <c r="C220" t="s">
         <v>488</v>
-      </c>
-      <c r="C220" t="s">
-        <v>489</v>
       </c>
       <c r="D220" t="s">
         <v>87</v>
@@ -6079,16 +6076,16 @@
         <v>8809716070541</v>
       </c>
       <c r="B221" t="s">
+        <v>489</v>
+      </c>
+      <c r="C221" t="s">
         <v>490</v>
       </c>
-      <c r="C221" t="s">
-        <v>491</v>
-      </c>
       <c r="D221" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E221">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6096,16 +6093,16 @@
         <v>8809716070565</v>
       </c>
       <c r="B222" t="s">
+        <v>491</v>
+      </c>
+      <c r="C222" t="s">
         <v>492</v>
       </c>
-      <c r="C222" t="s">
-        <v>493</v>
-      </c>
       <c r="D222" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E222">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6113,10 +6110,10 @@
         <v>8809716070657</v>
       </c>
       <c r="B223" t="s">
+        <v>493</v>
+      </c>
+      <c r="C223" t="s">
         <v>494</v>
-      </c>
-      <c r="C223" t="s">
-        <v>495</v>
       </c>
       <c r="D223" t="s">
         <v>42</v>
@@ -6130,13 +6127,13 @@
         <v>8809716070671</v>
       </c>
       <c r="B224" t="s">
+        <v>495</v>
+      </c>
+      <c r="C224" t="s">
         <v>496</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>497</v>
-      </c>
-      <c r="D224" t="s">
-        <v>498</v>
       </c>
       <c r="E224">
         <v>19</v>
@@ -6147,10 +6144,10 @@
         <v>8809716070909</v>
       </c>
       <c r="B225" t="s">
+        <v>498</v>
+      </c>
+      <c r="C225" t="s">
         <v>499</v>
-      </c>
-      <c r="C225" t="s">
-        <v>500</v>
       </c>
       <c r="D225" t="s">
         <v>74</v>
@@ -6164,10 +6161,10 @@
         <v>8809716070930</v>
       </c>
       <c r="B226" t="s">
+        <v>500</v>
+      </c>
+      <c r="C226" t="s">
         <v>501</v>
-      </c>
-      <c r="C226" t="s">
-        <v>502</v>
       </c>
       <c r="D226" t="s">
         <v>56</v>
@@ -6181,13 +6178,13 @@
         <v>8809716070961</v>
       </c>
       <c r="B227" t="s">
+        <v>502</v>
+      </c>
+      <c r="C227" t="s">
         <v>503</v>
       </c>
-      <c r="C227" t="s">
-        <v>504</v>
-      </c>
       <c r="D227" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E227">
         <v>30</v>
@@ -6198,16 +6195,16 @@
         <v>8809716071067</v>
       </c>
       <c r="B228" t="s">
+        <v>504</v>
+      </c>
+      <c r="C228" t="s">
         <v>505</v>
       </c>
-      <c r="C228" t="s">
-        <v>506</v>
-      </c>
       <c r="D228" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E228">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6215,16 +6212,16 @@
         <v>8809716071098</v>
       </c>
       <c r="B229" t="s">
+        <v>506</v>
+      </c>
+      <c r="C229" t="s">
         <v>507</v>
       </c>
-      <c r="C229" t="s">
-        <v>508</v>
-      </c>
       <c r="D229" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E229">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6232,16 +6229,16 @@
         <v>8809716071128</v>
       </c>
       <c r="B230" t="s">
+        <v>508</v>
+      </c>
+      <c r="C230" t="s">
         <v>509</v>
-      </c>
-      <c r="C230" t="s">
-        <v>510</v>
       </c>
       <c r="D230" t="s">
         <v>95</v>
       </c>
       <c r="E230">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6249,16 +6246,16 @@
         <v>8809716071159</v>
       </c>
       <c r="B231" t="s">
+        <v>510</v>
+      </c>
+      <c r="C231" t="s">
         <v>511</v>
-      </c>
-      <c r="C231" t="s">
-        <v>512</v>
       </c>
       <c r="D231" t="s">
         <v>56</v>
       </c>
       <c r="E231">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6266,13 +6263,13 @@
         <v>8809716071289</v>
       </c>
       <c r="B232" t="s">
+        <v>512</v>
+      </c>
+      <c r="C232" t="s">
         <v>513</v>
       </c>
-      <c r="C232" t="s">
-        <v>514</v>
-      </c>
       <c r="D232" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E232">
         <v>20</v>
@@ -6283,10 +6280,10 @@
         <v>8809716071319</v>
       </c>
       <c r="B233" t="s">
+        <v>514</v>
+      </c>
+      <c r="C233" t="s">
         <v>515</v>
-      </c>
-      <c r="C233" t="s">
-        <v>516</v>
       </c>
       <c r="D233" t="s">
         <v>87</v>
@@ -6300,13 +6297,13 @@
         <v>8809716071340</v>
       </c>
       <c r="B234" t="s">
+        <v>516</v>
+      </c>
+      <c r="C234" t="s">
         <v>517</v>
       </c>
-      <c r="C234" t="s">
-        <v>518</v>
-      </c>
       <c r="D234" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E234">
         <v>40</v>
@@ -6317,13 +6314,13 @@
         <v>8809716071371</v>
       </c>
       <c r="B235" t="s">
+        <v>518</v>
+      </c>
+      <c r="C235" t="s">
         <v>519</v>
       </c>
-      <c r="C235" t="s">
-        <v>520</v>
-      </c>
       <c r="D235" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E235">
         <v>50</v>
@@ -6334,10 +6331,10 @@
         <v>8809716071913</v>
       </c>
       <c r="B236" t="s">
+        <v>520</v>
+      </c>
+      <c r="C236" t="s">
         <v>521</v>
-      </c>
-      <c r="C236" t="s">
-        <v>522</v>
       </c>
       <c r="D236" t="s">
         <v>19</v>
@@ -6351,10 +6348,10 @@
         <v>8809716071937</v>
       </c>
       <c r="B237" t="s">
+        <v>522</v>
+      </c>
+      <c r="C237" t="s">
         <v>523</v>
-      </c>
-      <c r="C237" t="s">
-        <v>524</v>
       </c>
       <c r="D237" t="s">
         <v>45</v>
@@ -6368,13 +6365,13 @@
         <v>8809716071951</v>
       </c>
       <c r="B238" t="s">
+        <v>524</v>
+      </c>
+      <c r="C238" t="s">
         <v>525</v>
       </c>
-      <c r="C238" t="s">
-        <v>526</v>
-      </c>
       <c r="D238" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E238">
         <v>20</v>
@@ -6385,16 +6382,16 @@
         <v>8809716072422</v>
       </c>
       <c r="B239" t="s">
+        <v>526</v>
+      </c>
+      <c r="C239" t="s">
         <v>527</v>
-      </c>
-      <c r="C239" t="s">
-        <v>528</v>
       </c>
       <c r="D239" t="s">
         <v>95</v>
       </c>
       <c r="E239">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6402,16 +6399,16 @@
         <v>8809716072446</v>
       </c>
       <c r="B240" t="s">
+        <v>528</v>
+      </c>
+      <c r="C240" t="s">
         <v>529</v>
-      </c>
-      <c r="C240" t="s">
-        <v>530</v>
       </c>
       <c r="D240" t="s">
         <v>56</v>
       </c>
       <c r="E240">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6419,16 +6416,16 @@
         <v>8809716072477</v>
       </c>
       <c r="B241" t="s">
+        <v>530</v>
+      </c>
+      <c r="C241" t="s">
         <v>531</v>
       </c>
-      <c r="C241" t="s">
-        <v>532</v>
-      </c>
       <c r="D241" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E241">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6436,13 +6433,13 @@
         <v>8809716072507</v>
       </c>
       <c r="B242" t="s">
+        <v>532</v>
+      </c>
+      <c r="C242" t="s">
         <v>533</v>
       </c>
-      <c r="C242" t="s">
-        <v>534</v>
-      </c>
       <c r="D242" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E242">
         <v>10</v>
@@ -6453,16 +6450,16 @@
         <v>8809716072538</v>
       </c>
       <c r="B243" t="s">
+        <v>534</v>
+      </c>
+      <c r="C243" t="s">
         <v>535</v>
-      </c>
-      <c r="C243" t="s">
-        <v>536</v>
       </c>
       <c r="D243" t="s">
         <v>95</v>
       </c>
       <c r="E243">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6470,10 +6467,10 @@
         <v>8809716072613</v>
       </c>
       <c r="B244" t="s">
+        <v>536</v>
+      </c>
+      <c r="C244" t="s">
         <v>537</v>
-      </c>
-      <c r="C244" t="s">
-        <v>538</v>
       </c>
       <c r="D244" t="s">
         <v>11</v>
@@ -6487,10 +6484,10 @@
         <v>8809716072637</v>
       </c>
       <c r="B245" t="s">
+        <v>538</v>
+      </c>
+      <c r="C245" t="s">
         <v>539</v>
-      </c>
-      <c r="C245" t="s">
-        <v>540</v>
       </c>
       <c r="D245" t="s">
         <v>32</v>
@@ -6504,10 +6501,10 @@
         <v>8809716072651</v>
       </c>
       <c r="B246" t="s">
+        <v>540</v>
+      </c>
+      <c r="C246" t="s">
         <v>541</v>
-      </c>
-      <c r="C246" t="s">
-        <v>542</v>
       </c>
       <c r="D246" t="s">
         <v>87</v>
@@ -6521,13 +6518,13 @@
         <v>8809716072743</v>
       </c>
       <c r="B247" t="s">
+        <v>542</v>
+      </c>
+      <c r="C247" t="s">
         <v>543</v>
       </c>
-      <c r="C247" t="s">
-        <v>544</v>
-      </c>
       <c r="D247" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E247">
         <v>37</v>
@@ -6538,16 +6535,16 @@
         <v>8809716072835</v>
       </c>
       <c r="B248" t="s">
+        <v>544</v>
+      </c>
+      <c r="C248" t="s">
         <v>545</v>
-      </c>
-      <c r="C248" t="s">
-        <v>546</v>
       </c>
       <c r="D248" t="s">
         <v>90</v>
       </c>
       <c r="E248">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6555,10 +6552,10 @@
         <v>8809716072958</v>
       </c>
       <c r="B249" t="s">
+        <v>546</v>
+      </c>
+      <c r="C249" t="s">
         <v>547</v>
-      </c>
-      <c r="C249" t="s">
-        <v>548</v>
       </c>
       <c r="D249" t="s">
         <v>11</v>
@@ -6572,13 +6569,13 @@
         <v>8809716072989</v>
       </c>
       <c r="B250" t="s">
+        <v>548</v>
+      </c>
+      <c r="C250" t="s">
         <v>549</v>
       </c>
-      <c r="C250" t="s">
-        <v>550</v>
-      </c>
       <c r="D250" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E250">
         <v>40</v>
@@ -6589,16 +6586,16 @@
         <v>8809716073016</v>
       </c>
       <c r="B251" t="s">
+        <v>550</v>
+      </c>
+      <c r="C251" t="s">
         <v>551</v>
       </c>
-      <c r="C251" t="s">
-        <v>552</v>
-      </c>
       <c r="D251" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E251">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6606,16 +6603,16 @@
         <v>8809716073047</v>
       </c>
       <c r="B252" t="s">
+        <v>552</v>
+      </c>
+      <c r="C252" t="s">
         <v>553</v>
       </c>
-      <c r="C252" t="s">
-        <v>554</v>
-      </c>
       <c r="D252" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E252">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6623,16 +6620,16 @@
         <v>8809716073078</v>
       </c>
       <c r="B253" t="s">
+        <v>554</v>
+      </c>
+      <c r="C253" t="s">
         <v>555</v>
-      </c>
-      <c r="C253" t="s">
-        <v>556</v>
       </c>
       <c r="D253" t="s">
         <v>87</v>
       </c>
       <c r="E253">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6640,10 +6637,10 @@
         <v>8809716073542</v>
       </c>
       <c r="B254" t="s">
+        <v>556</v>
+      </c>
+      <c r="C254" t="s">
         <v>557</v>
-      </c>
-      <c r="C254" t="s">
-        <v>558</v>
       </c>
       <c r="D254" t="s">
         <v>42</v>
@@ -6657,10 +6654,10 @@
         <v>8809716075003</v>
       </c>
       <c r="B255" t="s">
+        <v>558</v>
+      </c>
+      <c r="C255" t="s">
         <v>559</v>
-      </c>
-      <c r="C255" t="s">
-        <v>560</v>
       </c>
       <c r="D255" t="s">
         <v>87</v>
@@ -6674,13 +6671,13 @@
         <v>8809716075034</v>
       </c>
       <c r="B256" t="s">
+        <v>560</v>
+      </c>
+      <c r="C256" t="s">
         <v>561</v>
       </c>
-      <c r="C256" t="s">
-        <v>562</v>
-      </c>
       <c r="D256" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E256">
         <v>10</v>
@@ -6691,13 +6688,13 @@
         <v>8809716075065</v>
       </c>
       <c r="B257" t="s">
+        <v>562</v>
+      </c>
+      <c r="C257" t="s">
         <v>563</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>564</v>
-      </c>
-      <c r="D257" t="s">
-        <v>565</v>
       </c>
       <c r="E257">
         <v>30</v>
@@ -6708,16 +6705,16 @@
         <v>8809716075096</v>
       </c>
       <c r="B258" t="s">
+        <v>565</v>
+      </c>
+      <c r="C258" t="s">
         <v>566</v>
       </c>
-      <c r="C258" t="s">
-        <v>567</v>
-      </c>
       <c r="D258" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E258">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6725,13 +6722,13 @@
         <v>8809716075577</v>
       </c>
       <c r="B259" t="s">
+        <v>567</v>
+      </c>
+      <c r="C259" t="s">
         <v>568</v>
       </c>
-      <c r="C259" t="s">
-        <v>569</v>
-      </c>
       <c r="D259" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E259">
         <v>30</v>
@@ -6742,10 +6739,10 @@
         <v>8809716075591</v>
       </c>
       <c r="B260" t="s">
+        <v>569</v>
+      </c>
+      <c r="C260" t="s">
         <v>570</v>
-      </c>
-      <c r="C260" t="s">
-        <v>571</v>
       </c>
       <c r="D260" t="s">
         <v>82</v>
@@ -6759,16 +6756,16 @@
         <v>8809716075669</v>
       </c>
       <c r="B261" t="s">
+        <v>571</v>
+      </c>
+      <c r="C261" t="s">
         <v>572</v>
-      </c>
-      <c r="C261" t="s">
-        <v>573</v>
       </c>
       <c r="D261" t="s">
         <v>48</v>
       </c>
       <c r="E261">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6776,16 +6773,16 @@
         <v>8809716075690</v>
       </c>
       <c r="B262" t="s">
+        <v>573</v>
+      </c>
+      <c r="C262" t="s">
         <v>574</v>
-      </c>
-      <c r="C262" t="s">
-        <v>575</v>
       </c>
       <c r="D262" t="s">
         <v>68</v>
       </c>
       <c r="E262">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6793,16 +6790,16 @@
         <v>8809716075720</v>
       </c>
       <c r="B263" t="s">
+        <v>575</v>
+      </c>
+      <c r="C263" t="s">
         <v>576</v>
-      </c>
-      <c r="C263" t="s">
-        <v>577</v>
       </c>
       <c r="D263" t="s">
         <v>8</v>
       </c>
       <c r="E263">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6810,10 +6807,10 @@
         <v>8809716075751</v>
       </c>
       <c r="B264" t="s">
+        <v>577</v>
+      </c>
+      <c r="C264" t="s">
         <v>578</v>
-      </c>
-      <c r="C264" t="s">
-        <v>579</v>
       </c>
       <c r="D264" t="s">
         <v>35</v>
@@ -6827,10 +6824,10 @@
         <v>887276344379</v>
       </c>
       <c r="B265" t="s">
+        <v>579</v>
+      </c>
+      <c r="C265" t="s">
         <v>580</v>
-      </c>
-      <c r="C265" t="s">
-        <v>581</v>
       </c>
       <c r="D265" t="s">
         <v>53</v>
@@ -6844,10 +6841,10 @@
         <v>887276360331</v>
       </c>
       <c r="B266" t="s">
+        <v>581</v>
+      </c>
+      <c r="C266" t="s">
         <v>582</v>
-      </c>
-      <c r="C266" t="s">
-        <v>583</v>
       </c>
       <c r="D266" t="s">
         <v>40</v>
@@ -6861,10 +6858,10 @@
         <v>887276360409</v>
       </c>
       <c r="B267" t="s">
+        <v>583</v>
+      </c>
+      <c r="C267" t="s">
         <v>584</v>
-      </c>
-      <c r="C267" t="s">
-        <v>585</v>
       </c>
       <c r="D267" t="s">
         <v>90</v>
@@ -6878,10 +6875,10 @@
         <v>887276361574</v>
       </c>
       <c r="B268" t="s">
+        <v>585</v>
+      </c>
+      <c r="C268" t="s">
         <v>586</v>
-      </c>
-      <c r="C268" t="s">
-        <v>587</v>
       </c>
       <c r="D268" t="s">
         <v>40</v>
@@ -6895,10 +6892,10 @@
         <v>887276363875</v>
       </c>
       <c r="B269" t="s">
+        <v>587</v>
+      </c>
+      <c r="C269" t="s">
         <v>588</v>
-      </c>
-      <c r="C269" t="s">
-        <v>589</v>
       </c>
       <c r="D269" t="s">
         <v>42</v>
@@ -6912,13 +6909,13 @@
         <v>887276363882</v>
       </c>
       <c r="B270" t="s">
+        <v>589</v>
+      </c>
+      <c r="C270" t="s">
         <v>590</v>
       </c>
-      <c r="C270" t="s">
-        <v>591</v>
-      </c>
       <c r="D270" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E270">
         <v>10</v>
@@ -6929,16 +6926,16 @@
         <v>887276373492</v>
       </c>
       <c r="B271" t="s">
+        <v>591</v>
+      </c>
+      <c r="C271" t="s">
         <v>592</v>
       </c>
-      <c r="C271" t="s">
-        <v>593</v>
-      </c>
       <c r="D271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E271">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6946,13 +6943,13 @@
         <v>887276391830</v>
       </c>
       <c r="B272" t="s">
+        <v>593</v>
+      </c>
+      <c r="C272" t="s">
         <v>594</v>
       </c>
-      <c r="C272" t="s">
-        <v>595</v>
-      </c>
       <c r="D272" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E272">
         <v>17</v>
@@ -6963,13 +6960,13 @@
         <v>887276391861</v>
       </c>
       <c r="B273" t="s">
+        <v>595</v>
+      </c>
+      <c r="C273" t="s">
         <v>596</v>
       </c>
-      <c r="C273" t="s">
-        <v>597</v>
-      </c>
       <c r="D273" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E273">
         <v>11</v>
@@ -6980,16 +6977,16 @@
         <v>887276391915</v>
       </c>
       <c r="B274" t="s">
+        <v>597</v>
+      </c>
+      <c r="C274" t="s">
         <v>598</v>
       </c>
-      <c r="C274" t="s">
-        <v>599</v>
-      </c>
       <c r="D274" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E274">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6997,13 +6994,13 @@
         <v>887276392479</v>
       </c>
       <c r="B275" t="s">
+        <v>599</v>
+      </c>
+      <c r="C275" t="s">
         <v>600</v>
       </c>
-      <c r="C275" t="s">
-        <v>601</v>
-      </c>
       <c r="D275" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E275">
         <v>38</v>
@@ -7014,13 +7011,13 @@
         <v>887276392516</v>
       </c>
       <c r="B276" t="s">
+        <v>601</v>
+      </c>
+      <c r="C276" t="s">
         <v>602</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>603</v>
-      </c>
-      <c r="D276" t="s">
-        <v>604</v>
       </c>
       <c r="E276">
         <v>21</v>
@@ -7031,13 +7028,13 @@
         <v>887276392561</v>
       </c>
       <c r="B277" t="s">
+        <v>604</v>
+      </c>
+      <c r="C277" t="s">
         <v>605</v>
       </c>
-      <c r="C277" t="s">
-        <v>606</v>
-      </c>
       <c r="D277" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E277">
         <v>20</v>
@@ -7048,16 +7045,16 @@
         <v>887276435336</v>
       </c>
       <c r="B278" t="s">
+        <v>606</v>
+      </c>
+      <c r="C278" t="s">
         <v>607</v>
       </c>
-      <c r="C278" t="s">
-        <v>608</v>
-      </c>
       <c r="D278" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E278">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7065,30 +7062,30 @@
         <v>887276435558</v>
       </c>
       <c r="B279" t="s">
+        <v>608</v>
+      </c>
+      <c r="C279" t="s">
         <v>609</v>
       </c>
-      <c r="C279" t="s">
+      <c r="D279" t="s">
         <v>610</v>
       </c>
-      <c r="D279" t="s">
-        <v>611</v>
-      </c>
       <c r="E279">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B280" t="s">
+        <v>611</v>
+      </c>
+      <c r="C280" t="s">
         <v>612</v>
       </c>
-      <c r="B280" t="s">
-        <v>612</v>
-      </c>
-      <c r="C280" t="s">
-        <v>613</v>
-      </c>
       <c r="D280" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E280">
         <v>25</v>
@@ -7096,33 +7093,33 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B281" t="s">
+        <v>613</v>
+      </c>
+      <c r="C281" t="s">
         <v>614</v>
-      </c>
-      <c r="B281" t="s">
-        <v>614</v>
-      </c>
-      <c r="C281" t="s">
-        <v>615</v>
       </c>
       <c r="D281" t="s">
         <v>8</v>
       </c>
       <c r="E281">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B282" t="s">
+        <v>615</v>
+      </c>
+      <c r="C282" t="s">
         <v>616</v>
       </c>
-      <c r="B282" t="s">
-        <v>616</v>
-      </c>
-      <c r="C282" t="s">
-        <v>617</v>
-      </c>
       <c r="D282" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E282">
         <v>16</v>
@@ -7130,33 +7127,33 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B283" t="s">
+        <v>617</v>
+      </c>
+      <c r="C283" t="s">
         <v>618</v>
-      </c>
-      <c r="B283" t="s">
-        <v>618</v>
-      </c>
-      <c r="C283" t="s">
-        <v>619</v>
       </c>
       <c r="D283" t="s">
         <v>8</v>
       </c>
       <c r="E283">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B284" t="s">
+        <v>619</v>
+      </c>
+      <c r="C284" t="s">
         <v>620</v>
       </c>
-      <c r="B284" t="s">
-        <v>620</v>
-      </c>
-      <c r="C284" t="s">
-        <v>621</v>
-      </c>
       <c r="D284" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E284">
         <v>40</v>
@@ -7164,64 +7161,64 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B285" t="s">
+        <v>621</v>
+      </c>
+      <c r="C285" t="s">
         <v>622</v>
       </c>
-      <c r="B285" t="s">
-        <v>622</v>
-      </c>
-      <c r="C285" t="s">
-        <v>623</v>
-      </c>
       <c r="D285" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E285">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B286" t="s">
+        <v>623</v>
+      </c>
+      <c r="C286" t="s">
         <v>624</v>
       </c>
-      <c r="B286" t="s">
-        <v>624</v>
-      </c>
-      <c r="C286" t="s">
-        <v>625</v>
-      </c>
       <c r="D286" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E286">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B287" t="s">
+        <v>625</v>
+      </c>
+      <c r="C287" t="s">
         <v>626</v>
       </c>
-      <c r="B287" t="s">
-        <v>626</v>
-      </c>
-      <c r="C287" t="s">
-        <v>627</v>
-      </c>
       <c r="D287" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E287">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B288" t="s">
+        <v>627</v>
+      </c>
+      <c r="C288" t="s">
         <v>628</v>
-      </c>
-      <c r="B288" t="s">
-        <v>628</v>
-      </c>
-      <c r="C288" t="s">
-        <v>629</v>
       </c>
       <c r="D288" t="s">
         <v>42</v>
@@ -7232,13 +7229,13 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B289" t="s">
+        <v>629</v>
+      </c>
+      <c r="C289" t="s">
         <v>630</v>
-      </c>
-      <c r="B289" t="s">
-        <v>630</v>
-      </c>
-      <c r="C289" t="s">
-        <v>631</v>
       </c>
       <c r="D289" t="s">
         <v>29</v>
@@ -7249,16 +7246,16 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B290" t="s">
+        <v>631</v>
+      </c>
+      <c r="C290" t="s">
         <v>632</v>
       </c>
-      <c r="B290" t="s">
-        <v>632</v>
-      </c>
-      <c r="C290" t="s">
-        <v>633</v>
-      </c>
       <c r="D290" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E290">
         <v>50</v>

--- a/Files/Reporte_Stock_adm/900987412_3/Reporte_Stock_MAS LOGISTICA_1.xlsx
+++ b/Files/Reporte_Stock_adm/900987412_3/Reporte_Stock_MAS LOGISTICA_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="634">
   <si>
     <t>REPORTE STOCK CLIENTE MAS LOGISTICA
 SUC. IMPORTACIONES LANCH</t>
@@ -66,250 +66,253 @@
     <t>Estuche Spigen Liquid Air Apple iPhone iPhone SE 2020 / 8 / 7 - Negro</t>
   </si>
   <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>565CS20828</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Crystal Shell Samsung Galaxy S8 - Claro</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>571CS21119</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Crystal Shell Samsung Galaxy S8 Plus</t>
+  </si>
+  <si>
+    <t>565CS21631</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Ultra Hybrid Samsung Galaxy S8 - Claro</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>571CS21683</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Ultra Hybrid Samsung Galaxy S8 Plus - Claro</t>
+  </si>
+  <si>
+    <t>000GL21813</t>
+  </si>
+  <si>
+    <t>Vidrio Líquido Universal Spigen Glas. tR Nano Liquid</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>ACWC0001</t>
+  </si>
+  <si>
+    <t>Cargador Inalámbrico Ringke Carga Rápida 10W</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>057CS22123</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Liquid Air Apple iPhone XS / X - Negro</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>054CS22203</t>
+  </si>
+  <si>
+    <t>Estuche Forro Original Spigen Liquid Crystal iPhone SE 2020 / 8 / 7 - Claro</t>
+  </si>
+  <si>
+    <t>057GL22586</t>
+  </si>
+  <si>
+    <t>Vidrio Templado Spigen Glas. tR Slim Apple iPhone 11 Pro / XS / X</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>Estuche VRS Crystal Chrome Huawei Mate 20 Pro - Claro</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Estuche VRS Crystal Chrome Huawei Honor 8X Max - Claro</t>
+  </si>
+  <si>
+    <t>8E</t>
+  </si>
+  <si>
+    <t>FSSG0031</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion Samsung Galaxy A8 2018 - Claro</t>
+  </si>
+  <si>
+    <t>7E</t>
+  </si>
+  <si>
+    <t>ACFI0008</t>
+  </si>
+  <si>
+    <t>Cable Ringke Smart Black Fish iPhone USB A Lightning 1,2m - Negro</t>
+  </si>
+  <si>
+    <t>ACFI0007</t>
+  </si>
+  <si>
+    <t>Cable de datos Ringke Smartfish USB C a USB A - Negro</t>
+  </si>
+  <si>
+    <t>8G</t>
+  </si>
+  <si>
+    <t>FXHW0002</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Huawei P20 Pro - Negro</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>FUAP0001</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Apple Iphone 7/8 - Negro</t>
+  </si>
+  <si>
+    <t>FUSG0001</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Samsung Galaxy S9 Plus - Negro</t>
+  </si>
+  <si>
+    <t>FUSG0003</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Samsung Galaxy Note 9 - Negro</t>
+  </si>
+  <si>
+    <t>062CS24469</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Rugged Armor Apple Watch 5 4 44mm - Negro</t>
+  </si>
+  <si>
+    <t>7D</t>
+  </si>
+  <si>
+    <t>062CS24470</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Rugged Armor Apple Watch 5 4 44mm - Rose Gold</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>064GL24527</t>
+  </si>
+  <si>
+    <t>Vidrio Templado Spigen Glass. tR SLIM HD Apple iPhone 11 / XR</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>065GL24540</t>
+  </si>
+  <si>
+    <t>Vidrio Templado Spigen Glass. tR SLIM HD Apple iPhone 11 Pro Max / XS Max</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>064CS24872</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Liquid Air Apple iPhone XR - Negro</t>
+  </si>
+  <si>
+    <t>065CS25126</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Liquid Air Apple iPhone iPhone XS Max - Negro</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>062CS25324</t>
+  </si>
+  <si>
+    <t>Pulso Estuche Spigen Rugged Armor Pro Apple Watch 5 4 44mm - Negro</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>FUAP0005</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Apple Iphone X/Xs - Negro</t>
+  </si>
+  <si>
+    <t>FUAP0006</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Apple Iphone Xs Max - Negro</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>FUAP0007</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Apple iPhone XR - Negro</t>
+  </si>
+  <si>
+    <t>8F</t>
+  </si>
+  <si>
+    <t>ESAP0002</t>
+  </si>
+  <si>
+    <t>Vidrio Flexible Ringke DualEasyFull Apple Iphone Xr/11 - (1+1)</t>
+  </si>
+  <si>
+    <t>ESAP0004</t>
+  </si>
+  <si>
+    <t>Vidrio Flexible Ringke DualEasyFull Apple Iphone X/Xs/11 Pro - (1+1)</t>
+  </si>
+  <si>
+    <t>2G</t>
+  </si>
+  <si>
+    <t>ESAP0003</t>
+  </si>
+  <si>
+    <t>Vidrio Flexible Ringke DualEasyFull Apple Iphone 11 Pro Max - (1+1)</t>
+  </si>
+  <si>
     <t>1F</t>
-  </si>
-  <si>
-    <t>565CS20828</t>
-  </si>
-  <si>
-    <t>Estuche Spigen Crystal Shell Samsung Galaxy S8 - Claro</t>
-  </si>
-  <si>
-    <t>8C</t>
-  </si>
-  <si>
-    <t>571CS21119</t>
-  </si>
-  <si>
-    <t>Estuche Spigen Crystal Shell Samsung Galaxy S8 Plus</t>
-  </si>
-  <si>
-    <t>565CS21631</t>
-  </si>
-  <si>
-    <t>Estuche Spigen Ultra Hybrid Samsung Galaxy S8 - Claro</t>
-  </si>
-  <si>
-    <t>5C</t>
-  </si>
-  <si>
-    <t>571CS21683</t>
-  </si>
-  <si>
-    <t>Estuche Spigen Ultra Hybrid Samsung Galaxy S8 Plus - Claro</t>
-  </si>
-  <si>
-    <t>000GL21813</t>
-  </si>
-  <si>
-    <t>Vidrio Líquido Universal Spigen Glas. tR Nano Liquid</t>
-  </si>
-  <si>
-    <t>4C</t>
-  </si>
-  <si>
-    <t>ACWC0001</t>
-  </si>
-  <si>
-    <t>Cargador Inalámbrico Ringke Carga Rápida 10W</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>057CS22123</t>
-  </si>
-  <si>
-    <t>Estuche Spigen Liquid Air Apple iPhone XS / X - Negro</t>
-  </si>
-  <si>
-    <t>5B</t>
-  </si>
-  <si>
-    <t>054CS22203</t>
-  </si>
-  <si>
-    <t>Estuche Forro Original Spigen Liquid Crystal iPhone SE 2020 / 8 / 7 - Claro</t>
-  </si>
-  <si>
-    <t>057GL22586</t>
-  </si>
-  <si>
-    <t>Vidrio Templado Spigen Glas. tR Slim Apple iPhone 11 Pro / XS / X</t>
-  </si>
-  <si>
-    <t>7C</t>
-  </si>
-  <si>
-    <t>Estuche VRS Crystal Chrome Huawei Mate 20 Pro - Claro</t>
-  </si>
-  <si>
-    <t>3C</t>
-  </si>
-  <si>
-    <t>SERT0002</t>
-  </si>
-  <si>
-    <t>Estuche VRS Crystal Chrome Huawei Honor 8X Max - Claro</t>
-  </si>
-  <si>
-    <t>8E</t>
-  </si>
-  <si>
-    <t>FSSG0031</t>
-  </si>
-  <si>
-    <t>Estuche Ringke Fusion Samsung Galaxy A8 2018 - Claro</t>
-  </si>
-  <si>
-    <t>7E</t>
-  </si>
-  <si>
-    <t>ACFI0008</t>
-  </si>
-  <si>
-    <t>Cable Ringke Smart Black Fish iPhone USB A Lightning 1,2m - Negro</t>
-  </si>
-  <si>
-    <t>ACFI0007</t>
-  </si>
-  <si>
-    <t>Cable de datos Ringke Smartfish USB C a USB A - Negro</t>
-  </si>
-  <si>
-    <t>8G</t>
-  </si>
-  <si>
-    <t>FXHW0002</t>
-  </si>
-  <si>
-    <t>Estuche Ringke Fusion X Huawei P20 Pro - Negro</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>FUAP0001</t>
-  </si>
-  <si>
-    <t>Estuche Ringke Fusion X Apple Iphone 7/8 - Negro</t>
-  </si>
-  <si>
-    <t>FUSG0001</t>
-  </si>
-  <si>
-    <t>Estuche Ringke Fusion X Samsung Galaxy S9 Plus - Negro</t>
-  </si>
-  <si>
-    <t>FUSG0003</t>
-  </si>
-  <si>
-    <t>Estuche Ringke Fusion X Samsung Galaxy Note 9 - Negro</t>
-  </si>
-  <si>
-    <t>062CS24469</t>
-  </si>
-  <si>
-    <t>Estuche Spigen Rugged Armor Apple Watch 5 4 44mm - Negro</t>
-  </si>
-  <si>
-    <t>7D</t>
-  </si>
-  <si>
-    <t>062CS24470</t>
-  </si>
-  <si>
-    <t>Estuche Spigen Rugged Armor Apple Watch 5 4 44mm - Rose Gold</t>
-  </si>
-  <si>
-    <t>4E</t>
-  </si>
-  <si>
-    <t>064GL24527</t>
-  </si>
-  <si>
-    <t>Vidrio Templado Spigen Glass. tR SLIM HD Apple iPhone 11 / XR</t>
-  </si>
-  <si>
-    <t>4B</t>
-  </si>
-  <si>
-    <t>065GL24540</t>
-  </si>
-  <si>
-    <t>Vidrio Templado Spigen Glass. tR SLIM HD Apple iPhone 11 Pro Max / XS Max</t>
-  </si>
-  <si>
-    <t>8B</t>
-  </si>
-  <si>
-    <t>064CS24872</t>
-  </si>
-  <si>
-    <t>Estuche Spigen Liquid Air Apple iPhone XR - Negro</t>
-  </si>
-  <si>
-    <t>065CS25126</t>
-  </si>
-  <si>
-    <t>Estuche Spigen Liquid Air Apple iPhone iPhone XS Max - Negro</t>
-  </si>
-  <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>062CS25324</t>
-  </si>
-  <si>
-    <t>Pulso Estuche Spigen Rugged Armor Pro Apple Watch 5 4 44mm - Negro</t>
-  </si>
-  <si>
-    <t>3F</t>
-  </si>
-  <si>
-    <t>FUAP0005</t>
-  </si>
-  <si>
-    <t>Estuche Ringke Fusion X Apple Iphone X/Xs - Negro</t>
-  </si>
-  <si>
-    <t>FUAP0006</t>
-  </si>
-  <si>
-    <t>Estuche Ringke Fusion X Apple Iphone Xs Max - Negro</t>
-  </si>
-  <si>
-    <t>2E</t>
-  </si>
-  <si>
-    <t>FUAP0007</t>
-  </si>
-  <si>
-    <t>Estuche Ringke Fusion X Apple iPhone XR - Negro</t>
-  </si>
-  <si>
-    <t>8F</t>
-  </si>
-  <si>
-    <t>ESAP0002</t>
-  </si>
-  <si>
-    <t>Vidrio Flexible Ringke DualEasyFull Apple Iphone Xr/11 - (1+1)</t>
-  </si>
-  <si>
-    <t>ESAP0004</t>
-  </si>
-  <si>
-    <t>Vidrio Flexible Ringke DualEasyFull Apple Iphone X/Xs/11 Pro - (1+1)</t>
-  </si>
-  <si>
-    <t>2G</t>
-  </si>
-  <si>
-    <t>ESAP0003</t>
-  </si>
-  <si>
-    <t>Vidrio Flexible Ringke DualEasyFull Apple Iphone 11 Pro Max - (1+1)</t>
   </si>
   <si>
     <t>ESSG0001</t>
@@ -2004,11 +2007,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1047750</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1238250" cy="571500"/>
+    <xdr:ext cx="2057400" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Logo" descr="Logo"/>
@@ -2396,7 +2399,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2413,7 +2416,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2430,7 +2433,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2481,7 +2484,7 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2532,7 +2535,7 @@
         <v>32</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2549,7 +2552,7 @@
         <v>35</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2566,7 +2569,7 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2600,7 +2603,7 @@
         <v>42</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2634,7 +2637,7 @@
         <v>48</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2685,7 +2688,7 @@
         <v>56</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2702,7 +2705,7 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2753,7 +2756,7 @@
         <v>65</v>
       </c>
       <c r="E25">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2770,7 +2773,7 @@
         <v>68</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2838,7 +2841,7 @@
         <v>79</v>
       </c>
       <c r="E30">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2855,7 +2858,7 @@
         <v>82</v>
       </c>
       <c r="E31">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2872,7 +2875,7 @@
         <v>19</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2889,7 +2892,7 @@
         <v>87</v>
       </c>
       <c r="E33">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2954,7 +2957,7 @@
         <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E37">
         <v>20</v>
@@ -2965,13 +2968,13 @@
         <v>8809628564169</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E38">
         <v>15</v>
@@ -2982,16 +2985,16 @@
         <v>8809628565333</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
         <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2999,16 +3002,16 @@
         <v>8809628566316</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E40">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3016,16 +3019,16 @@
         <v>8809628566590</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
         <v>90</v>
       </c>
       <c r="E41">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3033,10 +3036,10 @@
         <v>8809628566927</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
         <v>82</v>
@@ -3050,16 +3053,16 @@
         <v>8809628567122</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
         <v>71</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3067,16 +3070,16 @@
         <v>8809628567207</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E44">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3084,16 +3087,16 @@
         <v>8809628567276</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E45">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3101,16 +3104,16 @@
         <v>8809628567290</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E46">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3118,10 +3121,10 @@
         <v>8809628567375</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -3135,13 +3138,13 @@
         <v>8809628567450</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -3152,13 +3155,13 @@
         <v>8809628567474</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E49">
         <v>25</v>
@@ -3169,13 +3172,13 @@
         <v>8809628567498</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E50">
         <v>22</v>
@@ -3186,10 +3189,10 @@
         <v>8809628568648</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D51" t="s">
         <v>87</v>
@@ -3203,16 +3206,16 @@
         <v>8809628568730</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E52">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3220,16 +3223,16 @@
         <v>8809628568853</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
         <v>82</v>
       </c>
       <c r="E53">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3237,16 +3240,16 @@
         <v>8809628568877</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E54">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3254,13 +3257,13 @@
         <v>8809628568969</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E55">
         <v>44</v>
@@ -3271,13 +3274,13 @@
         <v>8809628569089</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E56">
         <v>22</v>
@@ -3288,13 +3291,13 @@
         <v>8809628569102</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E57">
         <v>25</v>
@@ -3305,13 +3308,13 @@
         <v>8809628569195</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E58">
         <v>20</v>
@@ -3322,16 +3325,16 @@
         <v>8809628569928</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="E59">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3339,10 +3342,10 @@
         <v>8809628569959</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D60" t="s">
         <v>32</v>
@@ -3356,10 +3359,10 @@
         <v>8809640250392</v>
       </c>
       <c r="B61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
         <v>35</v>
@@ -3373,13 +3376,13 @@
         <v>8809640251320</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E62">
         <v>30</v>
@@ -3390,10 +3393,10 @@
         <v>8809640252266</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
@@ -3407,13 +3410,13 @@
         <v>8809640258718</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E64">
         <v>19</v>
@@ -3424,13 +3427,13 @@
         <v>8809640259739</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E65">
         <v>10</v>
@@ -3441,16 +3444,16 @@
         <v>8809640259784</v>
       </c>
       <c r="B66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E66">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3458,16 +3461,16 @@
         <v>8809659042018</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
       </c>
       <c r="E67">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3475,16 +3478,16 @@
         <v>8809659042049</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E68">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3492,16 +3495,16 @@
         <v>8809659042070</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D69" t="s">
         <v>71</v>
       </c>
       <c r="E69">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3509,10 +3512,10 @@
         <v>8809659042131</v>
       </c>
       <c r="B70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D70" t="s">
         <v>95</v>
@@ -3526,16 +3529,16 @@
         <v>8809659042162</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
       </c>
       <c r="E71">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3543,16 +3546,16 @@
         <v>8809659042636</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D72" t="s">
         <v>42</v>
       </c>
       <c r="E72">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3560,10 +3563,10 @@
         <v>8809659042728</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D73" t="s">
         <v>87</v>
@@ -3577,16 +3580,16 @@
         <v>8809659043152</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D74" t="s">
         <v>35</v>
       </c>
       <c r="E74">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3594,16 +3597,16 @@
         <v>8809659044012</v>
       </c>
       <c r="B75" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D75" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E75">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3611,16 +3614,16 @@
         <v>8809659044043</v>
       </c>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E76">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3628,13 +3631,13 @@
         <v>8809659044098</v>
       </c>
       <c r="B77" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E77">
         <v>17</v>
@@ -3645,13 +3648,13 @@
         <v>8809659044128</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E78">
         <v>25</v>
@@ -3662,13 +3665,13 @@
         <v>8809659044159</v>
       </c>
       <c r="B79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C79" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>17</v>
@@ -3679,16 +3682,16 @@
         <v>8809659044258</v>
       </c>
       <c r="B80" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D80" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E80">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3696,16 +3699,16 @@
         <v>8809659044418</v>
       </c>
       <c r="B81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D81" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E81">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3713,13 +3716,13 @@
         <v>8809659045507</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C82" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>13</v>
@@ -3730,13 +3733,13 @@
         <v>8809659045538</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E83">
         <v>29</v>
@@ -3747,16 +3750,16 @@
         <v>8809659045668</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D84" t="s">
         <v>29</v>
       </c>
       <c r="E84">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3764,16 +3767,16 @@
         <v>8809659045828</v>
       </c>
       <c r="B85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E85">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3781,16 +3784,16 @@
         <v>8809659045859</v>
       </c>
       <c r="B86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E86">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3798,16 +3801,16 @@
         <v>8809659045880</v>
       </c>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D87" t="s">
         <v>56</v>
       </c>
       <c r="E87">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3815,13 +3818,13 @@
         <v>8809659046139</v>
       </c>
       <c r="B88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C88" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E88">
         <v>30</v>
@@ -3832,16 +3835,16 @@
         <v>8809659047228</v>
       </c>
       <c r="B89" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D89" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E89">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3849,13 +3852,13 @@
         <v>8809659047488</v>
       </c>
       <c r="B90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E90">
         <v>20</v>
@@ -3866,13 +3869,13 @@
         <v>8809659047549</v>
       </c>
       <c r="B91" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D91" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E91">
         <v>50</v>
@@ -3883,10 +3886,10 @@
         <v>8809659047600</v>
       </c>
       <c r="B92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D92" t="s">
         <v>45</v>
@@ -3900,10 +3903,10 @@
         <v>8809659047631</v>
       </c>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D93" t="s">
         <v>42</v>
@@ -3917,13 +3920,13 @@
         <v>8809659047662</v>
       </c>
       <c r="B94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C94" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E94">
         <v>30</v>
@@ -3934,16 +3937,16 @@
         <v>8809659047747</v>
       </c>
       <c r="B95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D95" t="s">
         <v>53</v>
       </c>
       <c r="E95">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3951,16 +3954,16 @@
         <v>8809659047778</v>
       </c>
       <c r="B96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C96" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D96" t="s">
         <v>32</v>
       </c>
       <c r="E96">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3968,10 +3971,10 @@
         <v>8809659047884</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C97" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D97" t="s">
         <v>45</v>
@@ -3985,16 +3988,16 @@
         <v>8809659048027</v>
       </c>
       <c r="B98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D98" t="s">
         <v>42</v>
       </c>
       <c r="E98">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4002,13 +4005,13 @@
         <v>8809659048263</v>
       </c>
       <c r="B99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C99" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E99">
         <v>19</v>
@@ -4019,13 +4022,13 @@
         <v>8809659048348</v>
       </c>
       <c r="B100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D100" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E100">
         <v>44</v>
@@ -4036,13 +4039,13 @@
         <v>8809659048379</v>
       </c>
       <c r="B101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D101" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E101">
         <v>35</v>
@@ -4053,16 +4056,16 @@
         <v>8809659048409</v>
       </c>
       <c r="B102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C102" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E102">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4070,13 +4073,13 @@
         <v>8809659048553</v>
       </c>
       <c r="B103" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D103" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E103">
         <v>25</v>
@@ -4087,16 +4090,16 @@
         <v>8809659048591</v>
       </c>
       <c r="B104" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C104" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D104" t="s">
         <v>71</v>
       </c>
       <c r="E104">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4104,10 +4107,10 @@
         <v>8809659048607</v>
       </c>
       <c r="B105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D105" t="s">
         <v>29</v>
@@ -4121,10 +4124,10 @@
         <v>8809659048614</v>
       </c>
       <c r="B106" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C106" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D106" t="s">
         <v>48</v>
@@ -4138,10 +4141,10 @@
         <v>8809659048621</v>
       </c>
       <c r="B107" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C107" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D107" t="s">
         <v>71</v>
@@ -4155,16 +4158,16 @@
         <v>8809659048638</v>
       </c>
       <c r="B108" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C108" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E108">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4172,13 +4175,13 @@
         <v>8809659048652</v>
       </c>
       <c r="B109" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C109" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D109" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E109">
         <v>16</v>
@@ -4189,10 +4192,10 @@
         <v>8809659048669</v>
       </c>
       <c r="B110" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D110" t="s">
         <v>40</v>
@@ -4206,16 +4209,16 @@
         <v>8809659049901</v>
       </c>
       <c r="B111" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D111" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E111">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4223,10 +4226,10 @@
         <v>8809659049987</v>
       </c>
       <c r="B112" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C112" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D112" t="s">
         <v>53</v>
@@ -4240,10 +4243,10 @@
         <v>8809671010248</v>
       </c>
       <c r="B113" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D113" t="s">
         <v>65</v>
@@ -4257,13 +4260,13 @@
         <v>8809671010293</v>
       </c>
       <c r="B114" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D114" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E114">
         <v>10</v>
@@ -4274,10 +4277,10 @@
         <v>8809685620754</v>
       </c>
       <c r="B115" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C115" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D115" t="s">
         <v>65</v>
@@ -4291,16 +4294,16 @@
         <v>8809685622932</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C116" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D116" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E116">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4308,16 +4311,16 @@
         <v>8809685623991</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C117" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D117" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E117">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4325,13 +4328,13 @@
         <v>8809685624028</v>
       </c>
       <c r="B118" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C118" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D118" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E118">
         <v>50</v>
@@ -4342,13 +4345,13 @@
         <v>8809685624035</v>
       </c>
       <c r="B119" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C119" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D119" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E119">
         <v>18</v>
@@ -4359,13 +4362,13 @@
         <v>8809685624042</v>
       </c>
       <c r="B120" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C120" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D120" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E120">
         <v>16</v>
@@ -4376,13 +4379,13 @@
         <v>8809685624660</v>
       </c>
       <c r="B121" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C121" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D121" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E121">
         <v>42</v>
@@ -4393,10 +4396,10 @@
         <v>8809685624721</v>
       </c>
       <c r="B122" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C122" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D122" t="s">
         <v>65</v>
@@ -4410,16 +4413,16 @@
         <v>8809685624745</v>
       </c>
       <c r="B123" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C123" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D123" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E123">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4427,10 +4430,10 @@
         <v>8809685625001</v>
       </c>
       <c r="B124" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C124" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D124" t="s">
         <v>32</v>
@@ -4444,10 +4447,10 @@
         <v>8809685625469</v>
       </c>
       <c r="B125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C125" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D125" t="s">
         <v>40</v>
@@ -4461,13 +4464,13 @@
         <v>8809685625759</v>
       </c>
       <c r="B126" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C126" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D126" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E126">
         <v>30</v>
@@ -4478,13 +4481,13 @@
         <v>8809685626176</v>
       </c>
       <c r="B127" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C127" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D127" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E127">
         <v>37</v>
@@ -4495,16 +4498,16 @@
         <v>8809685626558</v>
       </c>
       <c r="B128" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C128" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D128" t="s">
         <v>35</v>
       </c>
       <c r="E128">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4512,16 +4515,16 @@
         <v>8809685627067</v>
       </c>
       <c r="B129" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C129" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D129" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E129">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4529,16 +4532,16 @@
         <v>8809685627081</v>
       </c>
       <c r="B130" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C130" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D130" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E130">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4546,16 +4549,16 @@
         <v>8809685629344</v>
       </c>
       <c r="B131" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C131" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D131" t="s">
         <v>24</v>
       </c>
       <c r="E131">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4563,13 +4566,13 @@
         <v>8809688890093</v>
       </c>
       <c r="B132" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C132" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D132" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E132">
         <v>39</v>
@@ -4580,16 +4583,16 @@
         <v>8809688890123</v>
       </c>
       <c r="B133" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C133" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D133" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E133">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4597,16 +4600,16 @@
         <v>8809688891106</v>
       </c>
       <c r="B134" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C134" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D134" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E134">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4614,13 +4617,13 @@
         <v>8809688891137</v>
       </c>
       <c r="B135" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C135" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D135" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E135">
         <v>44</v>
@@ -4631,10 +4634,10 @@
         <v>8809688891229</v>
       </c>
       <c r="B136" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C136" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D136" t="s">
         <v>53</v>
@@ -4648,16 +4651,16 @@
         <v>8809688891557</v>
       </c>
       <c r="B137" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C137" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D137" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E137">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4665,16 +4668,16 @@
         <v>8809688891977</v>
       </c>
       <c r="B138" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C138" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D138" t="s">
         <v>32</v>
       </c>
       <c r="E138">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4682,13 +4685,13 @@
         <v>8809688892066</v>
       </c>
       <c r="B139" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C139" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D139" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E139">
         <v>20</v>
@@ -4699,16 +4702,16 @@
         <v>8809688892295</v>
       </c>
       <c r="B140" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C140" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D140" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E140">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4716,13 +4719,13 @@
         <v>8809688893018</v>
       </c>
       <c r="B141" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C141" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D141" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E141">
         <v>15</v>
@@ -4733,16 +4736,16 @@
         <v>8809688893049</v>
       </c>
       <c r="B142" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C142" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D142" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E142">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4750,13 +4753,13 @@
         <v>8809688893070</v>
       </c>
       <c r="B143" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C143" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D143" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E143">
         <v>42</v>
@@ -4767,13 +4770,13 @@
         <v>8809688893100</v>
       </c>
       <c r="B144" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C144" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D144" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E144">
         <v>20</v>
@@ -4784,13 +4787,13 @@
         <v>8809688893131</v>
       </c>
       <c r="B145" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C145" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D145" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E145">
         <v>20</v>
@@ -4801,10 +4804,10 @@
         <v>8809688893162</v>
       </c>
       <c r="B146" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C146" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D146" t="s">
         <v>45</v>
@@ -4818,10 +4821,10 @@
         <v>8809688893193</v>
       </c>
       <c r="B147" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C147" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D147" t="s">
         <v>95</v>
@@ -4835,16 +4838,16 @@
         <v>8809688893513</v>
       </c>
       <c r="B148" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C148" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D148" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E148">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4852,16 +4855,16 @@
         <v>8809688893568</v>
       </c>
       <c r="B149" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C149" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D149" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E149">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4869,16 +4872,16 @@
         <v>8809688893698</v>
       </c>
       <c r="B150" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C150" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D150" t="s">
         <v>42</v>
       </c>
       <c r="E150">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4886,16 +4889,16 @@
         <v>8809688893728</v>
       </c>
       <c r="B151" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C151" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D151" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E151">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4903,16 +4906,16 @@
         <v>8809688893759</v>
       </c>
       <c r="B152" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C152" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D152" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E152">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4920,13 +4923,13 @@
         <v>8809688893780</v>
       </c>
       <c r="B153" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C153" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D153" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E153">
         <v>30</v>
@@ -4937,13 +4940,13 @@
         <v>8809688894046</v>
       </c>
       <c r="B154" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C154" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D154" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E154">
         <v>21</v>
@@ -4954,13 +4957,13 @@
         <v>8809688894077</v>
       </c>
       <c r="B155" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C155" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -4971,13 +4974,13 @@
         <v>8809688894107</v>
       </c>
       <c r="B156" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C156" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D156" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E156">
         <v>20</v>
@@ -4988,16 +4991,16 @@
         <v>8809688894138</v>
       </c>
       <c r="B157" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C157" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D157" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E157">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5005,10 +5008,10 @@
         <v>8809688894152</v>
       </c>
       <c r="B158" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C158" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D158" t="s">
         <v>68</v>
@@ -5022,13 +5025,13 @@
         <v>8809688894183</v>
       </c>
       <c r="B159" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C159" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D159" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E159">
         <v>19</v>
@@ -5039,10 +5042,10 @@
         <v>8809688894213</v>
       </c>
       <c r="B160" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C160" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D160" t="s">
         <v>29</v>
@@ -5056,10 +5059,10 @@
         <v>8809688894244</v>
       </c>
       <c r="B161" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C161" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D161" t="s">
         <v>24</v>
@@ -5073,13 +5076,13 @@
         <v>8809688894466</v>
       </c>
       <c r="B162" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C162" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D162" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E162">
         <v>11</v>
@@ -5090,13 +5093,13 @@
         <v>8809688894558</v>
       </c>
       <c r="B163" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C163" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D163" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E163">
         <v>18</v>
@@ -5107,16 +5110,16 @@
         <v>8809688894640</v>
       </c>
       <c r="B164" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C164" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D164" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E164">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5124,16 +5127,16 @@
         <v>8809688895388</v>
       </c>
       <c r="B165" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C165" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D165" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E165">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5141,13 +5144,13 @@
         <v>8809688896583</v>
       </c>
       <c r="B166" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C166" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D166" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E166">
         <v>32</v>
@@ -5158,13 +5161,13 @@
         <v>8809688896590</v>
       </c>
       <c r="B167" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C167" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D167" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E167">
         <v>15</v>
@@ -5175,10 +5178,10 @@
         <v>8809688896606</v>
       </c>
       <c r="B168" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C168" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D168" t="s">
         <v>90</v>
@@ -5192,13 +5195,13 @@
         <v>8809688896613</v>
       </c>
       <c r="B169" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C169" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D169" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E169">
         <v>13</v>
@@ -5209,10 +5212,10 @@
         <v>8809688896620</v>
       </c>
       <c r="B170" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C170" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D170" t="s">
         <v>32</v>
@@ -5226,10 +5229,10 @@
         <v>8809688896637</v>
       </c>
       <c r="B171" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C171" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D171" t="s">
         <v>48</v>
@@ -5243,13 +5246,13 @@
         <v>8809688896644</v>
       </c>
       <c r="B172" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C172" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D172" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E172">
         <v>30</v>
@@ -5260,13 +5263,13 @@
         <v>8809688896675</v>
       </c>
       <c r="B173" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C173" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D173" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E173">
         <v>15</v>
@@ -5277,13 +5280,13 @@
         <v>8809688896736</v>
       </c>
       <c r="B174" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C174" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D174" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E174">
         <v>28</v>
@@ -5294,13 +5297,13 @@
         <v>8809688896804</v>
       </c>
       <c r="B175" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C175" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D175" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E175">
         <v>50</v>
@@ -5311,16 +5314,16 @@
         <v>8809688896835</v>
       </c>
       <c r="B176" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C176" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D176" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E176">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5328,13 +5331,13 @@
         <v>8809688896866</v>
       </c>
       <c r="B177" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C177" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D177" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E177">
         <v>19</v>
@@ -5345,13 +5348,13 @@
         <v>8809688896897</v>
       </c>
       <c r="B178" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C178" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D178" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E178">
         <v>20</v>
@@ -5362,13 +5365,13 @@
         <v>8809688896910</v>
       </c>
       <c r="B179" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C179" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D179" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E179">
         <v>50</v>
@@ -5379,13 +5382,13 @@
         <v>8809688896941</v>
       </c>
       <c r="B180" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C180" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D180" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E180">
         <v>16</v>
@@ -5396,10 +5399,10 @@
         <v>8809688896972</v>
       </c>
       <c r="B181" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C181" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D181" t="s">
         <v>53</v>
@@ -5413,16 +5416,16 @@
         <v>8809688897009</v>
       </c>
       <c r="B182" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C182" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D182" t="s">
         <v>68</v>
       </c>
       <c r="E182">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5430,10 +5433,10 @@
         <v>8809688897016</v>
       </c>
       <c r="B183" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C183" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D183" t="s">
         <v>32</v>
@@ -5447,16 +5450,16 @@
         <v>8809688897344</v>
       </c>
       <c r="B184" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C184" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D184" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E184">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5464,13 +5467,13 @@
         <v>8809688897368</v>
       </c>
       <c r="B185" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C185" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D185" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E185">
         <v>15</v>
@@ -5481,16 +5484,16 @@
         <v>8809688897382</v>
       </c>
       <c r="B186" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C186" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D186" t="s">
         <v>56</v>
       </c>
       <c r="E186">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5498,16 +5501,16 @@
         <v>8809688897412</v>
       </c>
       <c r="B187" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C187" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D187" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E187">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5515,16 +5518,16 @@
         <v>8809688897504</v>
       </c>
       <c r="B188" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C188" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D188" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E188">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5532,16 +5535,16 @@
         <v>8809688897535</v>
       </c>
       <c r="B189" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C189" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D189" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E189">
-        <v>30</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5549,16 +5552,16 @@
         <v>8809688897566</v>
       </c>
       <c r="B190" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C190" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D190" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E190">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5566,16 +5569,16 @@
         <v>8809688897658</v>
       </c>
       <c r="B191" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C191" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D191" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E191">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5583,16 +5586,16 @@
         <v>8809688897733</v>
       </c>
       <c r="B192" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C192" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D192" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E192">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5600,16 +5603,16 @@
         <v>8809688897764</v>
       </c>
       <c r="B193" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C193" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D193" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E193">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5617,13 +5620,13 @@
         <v>8809688897795</v>
       </c>
       <c r="B194" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C194" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D194" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E194">
         <v>16</v>
@@ -5634,13 +5637,13 @@
         <v>8809688897887</v>
       </c>
       <c r="B195" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C195" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D195" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E195">
         <v>20</v>
@@ -5651,16 +5654,16 @@
         <v>8809688897962</v>
       </c>
       <c r="B196" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C196" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D196" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E196">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5668,16 +5671,16 @@
         <v>8809688897993</v>
       </c>
       <c r="B197" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C197" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D197" t="s">
         <v>24</v>
       </c>
       <c r="E197">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5685,10 +5688,10 @@
         <v>8809688898020</v>
       </c>
       <c r="B198" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C198" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D198" t="s">
         <v>90</v>
@@ -5702,13 +5705,13 @@
         <v>8809688898112</v>
       </c>
       <c r="B199" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C199" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D199" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E199">
         <v>50</v>
@@ -5719,13 +5722,13 @@
         <v>8809688898402</v>
       </c>
       <c r="B200" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C200" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D200" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E200">
         <v>20</v>
@@ -5736,10 +5739,10 @@
         <v>8809688898433</v>
       </c>
       <c r="B201" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C201" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D201" t="s">
         <v>74</v>
@@ -5753,10 +5756,10 @@
         <v>8809688898464</v>
       </c>
       <c r="B202" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C202" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D202" t="s">
         <v>82</v>
@@ -5770,13 +5773,13 @@
         <v>8809688898495</v>
       </c>
       <c r="B203" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C203" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D203" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E203">
         <v>30</v>
@@ -5787,16 +5790,16 @@
         <v>8809688898525</v>
       </c>
       <c r="B204" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C204" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D204" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E204">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5804,10 +5807,10 @@
         <v>8809688899430</v>
       </c>
       <c r="B205" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C205" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D205" t="s">
         <v>82</v>
@@ -5821,16 +5824,16 @@
         <v>8809688899461</v>
       </c>
       <c r="B206" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C206" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D206" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E206">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5838,13 +5841,13 @@
         <v>8809688899492</v>
       </c>
       <c r="B207" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C207" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D207" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E207">
         <v>37</v>
@@ -5855,16 +5858,16 @@
         <v>8809688899522</v>
       </c>
       <c r="B208" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C208" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D208" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E208">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5872,16 +5875,16 @@
         <v>8809688899553</v>
       </c>
       <c r="B209" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C209" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D209" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E209">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5889,16 +5892,16 @@
         <v>8809688899584</v>
       </c>
       <c r="B210" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C210" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D210" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E210">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5906,10 +5909,10 @@
         <v>8809688899669</v>
       </c>
       <c r="B211" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C211" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D211" t="s">
         <v>87</v>
@@ -5923,16 +5926,16 @@
         <v>8809688899690</v>
       </c>
       <c r="B212" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C212" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D212" t="s">
         <v>87</v>
       </c>
       <c r="E212">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5940,16 +5943,16 @@
         <v>8809710751002</v>
       </c>
       <c r="B213" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C213" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D213" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E213">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5957,13 +5960,13 @@
         <v>8809716070022</v>
       </c>
       <c r="B214" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C214" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D214" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E214">
         <v>25</v>
@@ -5974,13 +5977,13 @@
         <v>8809716070039</v>
       </c>
       <c r="B215" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C215" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D215" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E215">
         <v>10</v>
@@ -5991,10 +5994,10 @@
         <v>8809716070046</v>
       </c>
       <c r="B216" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C216" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D216" t="s">
         <v>53</v>
@@ -6008,16 +6011,16 @@
         <v>8809716070053</v>
       </c>
       <c r="B217" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C217" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D217" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E217">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6025,13 +6028,13 @@
         <v>8809716070060</v>
       </c>
       <c r="B218" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C218" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D218" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E218">
         <v>25</v>
@@ -6042,10 +6045,10 @@
         <v>8809716070503</v>
       </c>
       <c r="B219" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C219" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D219" t="s">
         <v>29</v>
@@ -6059,10 +6062,10 @@
         <v>8809716070527</v>
       </c>
       <c r="B220" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C220" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D220" t="s">
         <v>87</v>
@@ -6076,16 +6079,16 @@
         <v>8809716070541</v>
       </c>
       <c r="B221" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C221" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D221" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E221">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6093,16 +6096,16 @@
         <v>8809716070565</v>
       </c>
       <c r="B222" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C222" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D222" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E222">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6110,10 +6113,10 @@
         <v>8809716070657</v>
       </c>
       <c r="B223" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C223" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D223" t="s">
         <v>42</v>
@@ -6127,13 +6130,13 @@
         <v>8809716070671</v>
       </c>
       <c r="B224" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C224" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D224" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E224">
         <v>19</v>
@@ -6144,10 +6147,10 @@
         <v>8809716070909</v>
       </c>
       <c r="B225" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C225" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D225" t="s">
         <v>74</v>
@@ -6161,10 +6164,10 @@
         <v>8809716070930</v>
       </c>
       <c r="B226" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C226" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D226" t="s">
         <v>56</v>
@@ -6178,13 +6181,13 @@
         <v>8809716070961</v>
       </c>
       <c r="B227" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C227" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D227" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E227">
         <v>30</v>
@@ -6195,16 +6198,16 @@
         <v>8809716071067</v>
       </c>
       <c r="B228" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C228" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D228" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E228">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6212,16 +6215,16 @@
         <v>8809716071098</v>
       </c>
       <c r="B229" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C229" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D229" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E229">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6229,16 +6232,16 @@
         <v>8809716071128</v>
       </c>
       <c r="B230" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C230" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D230" t="s">
         <v>95</v>
       </c>
       <c r="E230">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6246,16 +6249,16 @@
         <v>8809716071159</v>
       </c>
       <c r="B231" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C231" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D231" t="s">
         <v>56</v>
       </c>
       <c r="E231">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6263,13 +6266,13 @@
         <v>8809716071289</v>
       </c>
       <c r="B232" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C232" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D232" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E232">
         <v>20</v>
@@ -6280,10 +6283,10 @@
         <v>8809716071319</v>
       </c>
       <c r="B233" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C233" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D233" t="s">
         <v>87</v>
@@ -6297,13 +6300,13 @@
         <v>8809716071340</v>
       </c>
       <c r="B234" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C234" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D234" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E234">
         <v>40</v>
@@ -6314,13 +6317,13 @@
         <v>8809716071371</v>
       </c>
       <c r="B235" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C235" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D235" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E235">
         <v>50</v>
@@ -6331,10 +6334,10 @@
         <v>8809716071913</v>
       </c>
       <c r="B236" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C236" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D236" t="s">
         <v>19</v>
@@ -6348,10 +6351,10 @@
         <v>8809716071937</v>
       </c>
       <c r="B237" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C237" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D237" t="s">
         <v>45</v>
@@ -6365,13 +6368,13 @@
         <v>8809716071951</v>
       </c>
       <c r="B238" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C238" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D238" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E238">
         <v>20</v>
@@ -6382,16 +6385,16 @@
         <v>8809716072422</v>
       </c>
       <c r="B239" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C239" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D239" t="s">
         <v>95</v>
       </c>
       <c r="E239">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6399,16 +6402,16 @@
         <v>8809716072446</v>
       </c>
       <c r="B240" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C240" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D240" t="s">
         <v>56</v>
       </c>
       <c r="E240">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6416,16 +6419,16 @@
         <v>8809716072477</v>
       </c>
       <c r="B241" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C241" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D241" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E241">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6433,13 +6436,13 @@
         <v>8809716072507</v>
       </c>
       <c r="B242" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C242" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D242" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E242">
         <v>10</v>
@@ -6450,16 +6453,16 @@
         <v>8809716072538</v>
       </c>
       <c r="B243" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C243" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D243" t="s">
         <v>95</v>
       </c>
       <c r="E243">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6467,10 +6470,10 @@
         <v>8809716072613</v>
       </c>
       <c r="B244" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C244" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D244" t="s">
         <v>11</v>
@@ -6484,10 +6487,10 @@
         <v>8809716072637</v>
       </c>
       <c r="B245" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C245" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D245" t="s">
         <v>32</v>
@@ -6501,10 +6504,10 @@
         <v>8809716072651</v>
       </c>
       <c r="B246" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C246" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D246" t="s">
         <v>87</v>
@@ -6518,13 +6521,13 @@
         <v>8809716072743</v>
       </c>
       <c r="B247" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C247" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D247" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E247">
         <v>37</v>
@@ -6535,16 +6538,16 @@
         <v>8809716072835</v>
       </c>
       <c r="B248" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C248" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D248" t="s">
         <v>90</v>
       </c>
       <c r="E248">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6552,10 +6555,10 @@
         <v>8809716072958</v>
       </c>
       <c r="B249" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C249" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D249" t="s">
         <v>11</v>
@@ -6569,13 +6572,13 @@
         <v>8809716072989</v>
       </c>
       <c r="B250" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C250" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D250" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E250">
         <v>40</v>
@@ -6586,16 +6589,16 @@
         <v>8809716073016</v>
       </c>
       <c r="B251" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C251" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D251" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E251">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6603,16 +6606,16 @@
         <v>8809716073047</v>
       </c>
       <c r="B252" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C252" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D252" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E252">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6620,16 +6623,16 @@
         <v>8809716073078</v>
       </c>
       <c r="B253" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C253" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D253" t="s">
         <v>87</v>
       </c>
       <c r="E253">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6637,10 +6640,10 @@
         <v>8809716073542</v>
       </c>
       <c r="B254" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C254" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D254" t="s">
         <v>42</v>
@@ -6654,10 +6657,10 @@
         <v>8809716075003</v>
       </c>
       <c r="B255" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C255" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D255" t="s">
         <v>87</v>
@@ -6671,13 +6674,13 @@
         <v>8809716075034</v>
       </c>
       <c r="B256" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C256" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D256" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E256">
         <v>10</v>
@@ -6688,13 +6691,13 @@
         <v>8809716075065</v>
       </c>
       <c r="B257" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C257" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D257" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E257">
         <v>30</v>
@@ -6705,16 +6708,16 @@
         <v>8809716075096</v>
       </c>
       <c r="B258" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C258" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D258" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E258">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6722,13 +6725,13 @@
         <v>8809716075577</v>
       </c>
       <c r="B259" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C259" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D259" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E259">
         <v>30</v>
@@ -6739,10 +6742,10 @@
         <v>8809716075591</v>
       </c>
       <c r="B260" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C260" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D260" t="s">
         <v>82</v>
@@ -6756,16 +6759,16 @@
         <v>8809716075669</v>
       </c>
       <c r="B261" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C261" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D261" t="s">
         <v>48</v>
       </c>
       <c r="E261">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6773,16 +6776,16 @@
         <v>8809716075690</v>
       </c>
       <c r="B262" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C262" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D262" t="s">
         <v>68</v>
       </c>
       <c r="E262">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6790,16 +6793,16 @@
         <v>8809716075720</v>
       </c>
       <c r="B263" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C263" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D263" t="s">
         <v>8</v>
       </c>
       <c r="E263">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6807,10 +6810,10 @@
         <v>8809716075751</v>
       </c>
       <c r="B264" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C264" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D264" t="s">
         <v>35</v>
@@ -6824,10 +6827,10 @@
         <v>887276344379</v>
       </c>
       <c r="B265" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C265" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D265" t="s">
         <v>53</v>
@@ -6841,10 +6844,10 @@
         <v>887276360331</v>
       </c>
       <c r="B266" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C266" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D266" t="s">
         <v>40</v>
@@ -6858,10 +6861,10 @@
         <v>887276360409</v>
       </c>
       <c r="B267" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C267" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D267" t="s">
         <v>90</v>
@@ -6875,10 +6878,10 @@
         <v>887276361574</v>
       </c>
       <c r="B268" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C268" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D268" t="s">
         <v>40</v>
@@ -6892,10 +6895,10 @@
         <v>887276363875</v>
       </c>
       <c r="B269" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C269" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D269" t="s">
         <v>42</v>
@@ -6909,13 +6912,13 @@
         <v>887276363882</v>
       </c>
       <c r="B270" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C270" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D270" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E270">
         <v>10</v>
@@ -6926,16 +6929,16 @@
         <v>887276373492</v>
       </c>
       <c r="B271" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C271" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D271" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E271">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6943,13 +6946,13 @@
         <v>887276391830</v>
       </c>
       <c r="B272" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C272" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D272" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E272">
         <v>17</v>
@@ -6960,13 +6963,13 @@
         <v>887276391861</v>
       </c>
       <c r="B273" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C273" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D273" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E273">
         <v>11</v>
@@ -6977,16 +6980,16 @@
         <v>887276391915</v>
       </c>
       <c r="B274" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C274" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D274" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E274">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6994,13 +6997,13 @@
         <v>887276392479</v>
       </c>
       <c r="B275" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C275" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D275" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E275">
         <v>38</v>
@@ -7011,13 +7014,13 @@
         <v>887276392516</v>
       </c>
       <c r="B276" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C276" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D276" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E276">
         <v>21</v>
@@ -7028,13 +7031,13 @@
         <v>887276392561</v>
       </c>
       <c r="B277" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C277" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D277" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E277">
         <v>20</v>
@@ -7045,16 +7048,16 @@
         <v>887276435336</v>
       </c>
       <c r="B278" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C278" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D278" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E278">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7062,30 +7065,30 @@
         <v>887276435558</v>
       </c>
       <c r="B279" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C279" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D279" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E279">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B280" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C280" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D280" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E280">
         <v>25</v>
@@ -7093,33 +7096,33 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B281" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C281" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D281" t="s">
         <v>8</v>
       </c>
       <c r="E281">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B282" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C282" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D282" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E282">
         <v>16</v>
@@ -7127,33 +7130,33 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B283" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C283" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D283" t="s">
         <v>8</v>
       </c>
       <c r="E283">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B284" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C284" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D284" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E284">
         <v>40</v>
@@ -7161,64 +7164,64 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B285" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C285" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D285" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E285">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B286" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C286" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D286" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E286">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B287" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C287" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D287" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E287">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B288" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C288" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D288" t="s">
         <v>42</v>
@@ -7229,13 +7232,13 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B289" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C289" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D289" t="s">
         <v>29</v>
@@ -7246,16 +7249,16 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B290" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C290" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D290" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E290">
         <v>50</v>

--- a/Files/Reporte_Stock_adm/900987412_3/Reporte_Stock_MAS LOGISTICA_1.xlsx
+++ b/Files/Reporte_Stock_adm/900987412_3/Reporte_Stock_MAS LOGISTICA_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="633">
   <si>
     <t>REPORTE STOCK CLIENTE MAS LOGISTICA
 SUC. IMPORTACIONES LANCH</t>
@@ -66,7 +66,7 @@
     <t>Estuche Spigen Liquid Air Apple iPhone iPhone SE 2020 / 8 / 7 - Negro</t>
   </si>
   <si>
-    <t>2A</t>
+    <t>1F</t>
   </si>
   <si>
     <t>565CS20828</t>
@@ -147,7 +147,7 @@
     <t>3C</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>SERT0002</t>
   </si>
   <si>
     <t>Estuche VRS Crystal Chrome Huawei Honor 8X Max - Claro</t>
@@ -310,9 +310,6 @@
   </si>
   <si>
     <t>Vidrio Flexible Ringke DualEasyFull Apple Iphone 11 Pro Max - (1+1)</t>
-  </si>
-  <si>
-    <t>1F</t>
   </si>
   <si>
     <t>ESSG0001</t>
@@ -2007,7 +2004,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -2399,7 +2396,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2416,7 +2413,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2433,7 +2430,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2484,7 +2481,7 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2535,7 +2532,7 @@
         <v>32</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2552,7 +2549,7 @@
         <v>35</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2569,7 +2566,7 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2603,7 +2600,7 @@
         <v>42</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2637,7 +2634,7 @@
         <v>48</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2688,7 +2685,7 @@
         <v>56</v>
       </c>
       <c r="E21">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2705,7 +2702,7 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2756,7 +2753,7 @@
         <v>65</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2773,7 +2770,7 @@
         <v>68</v>
       </c>
       <c r="E26">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2841,7 +2838,7 @@
         <v>79</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2858,7 +2855,7 @@
         <v>82</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2875,7 +2872,7 @@
         <v>19</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2892,7 +2889,7 @@
         <v>87</v>
       </c>
       <c r="E33">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2957,7 +2954,7 @@
         <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>20</v>
@@ -2968,13 +2965,13 @@
         <v>8809628564169</v>
       </c>
       <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
         <v>99</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>100</v>
-      </c>
-      <c r="D38" t="s">
-        <v>101</v>
       </c>
       <c r="E38">
         <v>15</v>
@@ -2985,16 +2982,16 @@
         <v>8809628565333</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
         <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E39">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3002,16 +2999,16 @@
         <v>8809628566316</v>
       </c>
       <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
         <v>103</v>
       </c>
-      <c r="C40" t="s">
-        <v>104</v>
-      </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3019,16 +3016,16 @@
         <v>8809628566590</v>
       </c>
       <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
         <v>105</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
       </c>
       <c r="D41" t="s">
         <v>90</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3036,10 +3033,10 @@
         <v>8809628566927</v>
       </c>
       <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
         <v>107</v>
-      </c>
-      <c r="C42" t="s">
-        <v>108</v>
       </c>
       <c r="D42" t="s">
         <v>82</v>
@@ -3053,16 +3050,16 @@
         <v>8809628567122</v>
       </c>
       <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
         <v>109</v>
-      </c>
-      <c r="C43" t="s">
-        <v>110</v>
       </c>
       <c r="D43" t="s">
         <v>71</v>
       </c>
       <c r="E43">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3070,16 +3067,16 @@
         <v>8809628567207</v>
       </c>
       <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
         <v>111</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>112</v>
       </c>
-      <c r="D44" t="s">
-        <v>113</v>
-      </c>
       <c r="E44">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3087,16 +3084,16 @@
         <v>8809628567276</v>
       </c>
       <c r="B45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" t="s">
         <v>114</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>115</v>
       </c>
-      <c r="D45" t="s">
-        <v>116</v>
-      </c>
       <c r="E45">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3104,16 +3101,16 @@
         <v>8809628567290</v>
       </c>
       <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
         <v>117</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>118</v>
       </c>
-      <c r="D46" t="s">
-        <v>119</v>
-      </c>
       <c r="E46">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3121,10 +3118,10 @@
         <v>8809628567375</v>
       </c>
       <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
         <v>120</v>
-      </c>
-      <c r="C47" t="s">
-        <v>121</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -3138,13 +3135,13 @@
         <v>8809628567450</v>
       </c>
       <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
         <v>122</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>123</v>
-      </c>
-      <c r="D48" t="s">
-        <v>124</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -3155,13 +3152,13 @@
         <v>8809628567474</v>
       </c>
       <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
         <v>125</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>126</v>
-      </c>
-      <c r="D49" t="s">
-        <v>127</v>
       </c>
       <c r="E49">
         <v>25</v>
@@ -3172,13 +3169,13 @@
         <v>8809628567498</v>
       </c>
       <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
         <v>128</v>
       </c>
-      <c r="C50" t="s">
-        <v>129</v>
-      </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E50">
         <v>22</v>
@@ -3189,10 +3186,10 @@
         <v>8809628568648</v>
       </c>
       <c r="B51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" t="s">
         <v>130</v>
-      </c>
-      <c r="C51" t="s">
-        <v>131</v>
       </c>
       <c r="D51" t="s">
         <v>87</v>
@@ -3206,16 +3203,16 @@
         <v>8809628568730</v>
       </c>
       <c r="B52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" t="s">
         <v>132</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>133</v>
       </c>
-      <c r="D52" t="s">
-        <v>134</v>
-      </c>
       <c r="E52">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3223,16 +3220,16 @@
         <v>8809628568853</v>
       </c>
       <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s">
         <v>135</v>
-      </c>
-      <c r="C53" t="s">
-        <v>136</v>
       </c>
       <c r="D53" t="s">
         <v>82</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3240,16 +3237,16 @@
         <v>8809628568877</v>
       </c>
       <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" t="s">
         <v>137</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>138</v>
       </c>
-      <c r="D54" t="s">
-        <v>139</v>
-      </c>
       <c r="E54">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3257,13 +3254,13 @@
         <v>8809628568969</v>
       </c>
       <c r="B55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" t="s">
         <v>140</v>
       </c>
-      <c r="C55" t="s">
-        <v>141</v>
-      </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E55">
         <v>44</v>
@@ -3274,13 +3271,13 @@
         <v>8809628569089</v>
       </c>
       <c r="B56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" t="s">
         <v>142</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>143</v>
-      </c>
-      <c r="D56" t="s">
-        <v>144</v>
       </c>
       <c r="E56">
         <v>22</v>
@@ -3291,13 +3288,13 @@
         <v>8809628569102</v>
       </c>
       <c r="B57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" t="s">
         <v>145</v>
       </c>
-      <c r="C57" t="s">
-        <v>146</v>
-      </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E57">
         <v>25</v>
@@ -3308,13 +3305,13 @@
         <v>8809628569195</v>
       </c>
       <c r="B58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" t="s">
         <v>147</v>
       </c>
-      <c r="C58" t="s">
-        <v>148</v>
-      </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E58">
         <v>20</v>
@@ -3325,16 +3322,16 @@
         <v>8809628569928</v>
       </c>
       <c r="B59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" t="s">
         <v>149</v>
-      </c>
-      <c r="C59" t="s">
-        <v>150</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="E59">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3342,10 +3339,10 @@
         <v>8809628569959</v>
       </c>
       <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" t="s">
         <v>151</v>
-      </c>
-      <c r="C60" t="s">
-        <v>152</v>
       </c>
       <c r="D60" t="s">
         <v>32</v>
@@ -3359,10 +3356,10 @@
         <v>8809640250392</v>
       </c>
       <c r="B61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" t="s">
         <v>153</v>
-      </c>
-      <c r="C61" t="s">
-        <v>154</v>
       </c>
       <c r="D61" t="s">
         <v>35</v>
@@ -3376,13 +3373,13 @@
         <v>8809640251320</v>
       </c>
       <c r="B62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" t="s">
         <v>155</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>156</v>
-      </c>
-      <c r="D62" t="s">
-        <v>157</v>
       </c>
       <c r="E62">
         <v>30</v>
@@ -3393,10 +3390,10 @@
         <v>8809640252266</v>
       </c>
       <c r="B63" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" t="s">
         <v>158</v>
-      </c>
-      <c r="C63" t="s">
-        <v>159</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
@@ -3410,13 +3407,13 @@
         <v>8809640258718</v>
       </c>
       <c r="B64" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" t="s">
         <v>160</v>
       </c>
-      <c r="C64" t="s">
-        <v>161</v>
-      </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E64">
         <v>19</v>
@@ -3427,13 +3424,13 @@
         <v>8809640259739</v>
       </c>
       <c r="B65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" t="s">
         <v>162</v>
       </c>
-      <c r="C65" t="s">
-        <v>163</v>
-      </c>
       <c r="D65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E65">
         <v>10</v>
@@ -3444,16 +3441,16 @@
         <v>8809640259784</v>
       </c>
       <c r="B66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" t="s">
         <v>164</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>165</v>
       </c>
-      <c r="D66" t="s">
-        <v>166</v>
-      </c>
       <c r="E66">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3461,16 +3458,16 @@
         <v>8809659042018</v>
       </c>
       <c r="B67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" t="s">
         <v>167</v>
-      </c>
-      <c r="C67" t="s">
-        <v>168</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
       </c>
       <c r="E67">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3478,16 +3475,16 @@
         <v>8809659042049</v>
       </c>
       <c r="B68" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" t="s">
         <v>169</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>170</v>
       </c>
-      <c r="D68" t="s">
-        <v>171</v>
-      </c>
       <c r="E68">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3495,16 +3492,16 @@
         <v>8809659042070</v>
       </c>
       <c r="B69" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" t="s">
         <v>172</v>
-      </c>
-      <c r="C69" t="s">
-        <v>173</v>
       </c>
       <c r="D69" t="s">
         <v>71</v>
       </c>
       <c r="E69">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3512,10 +3509,10 @@
         <v>8809659042131</v>
       </c>
       <c r="B70" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" t="s">
         <v>174</v>
-      </c>
-      <c r="C70" t="s">
-        <v>175</v>
       </c>
       <c r="D70" t="s">
         <v>95</v>
@@ -3529,16 +3526,16 @@
         <v>8809659042162</v>
       </c>
       <c r="B71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" t="s">
         <v>176</v>
-      </c>
-      <c r="C71" t="s">
-        <v>177</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
       </c>
       <c r="E71">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3546,16 +3543,16 @@
         <v>8809659042636</v>
       </c>
       <c r="B72" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" t="s">
         <v>178</v>
-      </c>
-      <c r="C72" t="s">
-        <v>179</v>
       </c>
       <c r="D72" t="s">
         <v>42</v>
       </c>
       <c r="E72">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3563,10 +3560,10 @@
         <v>8809659042728</v>
       </c>
       <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" t="s">
         <v>180</v>
-      </c>
-      <c r="C73" t="s">
-        <v>181</v>
       </c>
       <c r="D73" t="s">
         <v>87</v>
@@ -3580,16 +3577,16 @@
         <v>8809659043152</v>
       </c>
       <c r="B74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" t="s">
         <v>182</v>
-      </c>
-      <c r="C74" t="s">
-        <v>183</v>
       </c>
       <c r="D74" t="s">
         <v>35</v>
       </c>
       <c r="E74">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3597,16 +3594,16 @@
         <v>8809659044012</v>
       </c>
       <c r="B75" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" t="s">
         <v>184</v>
       </c>
-      <c r="C75" t="s">
-        <v>185</v>
-      </c>
       <c r="D75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E75">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3614,16 +3611,16 @@
         <v>8809659044043</v>
       </c>
       <c r="B76" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" t="s">
         <v>186</v>
       </c>
-      <c r="C76" t="s">
-        <v>187</v>
-      </c>
       <c r="D76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3631,13 +3628,13 @@
         <v>8809659044098</v>
       </c>
       <c r="B77" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" t="s">
         <v>188</v>
       </c>
-      <c r="C77" t="s">
-        <v>189</v>
-      </c>
       <c r="D77" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E77">
         <v>17</v>
@@ -3648,13 +3645,13 @@
         <v>8809659044128</v>
       </c>
       <c r="B78" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" t="s">
         <v>190</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>191</v>
-      </c>
-      <c r="D78" t="s">
-        <v>192</v>
       </c>
       <c r="E78">
         <v>25</v>
@@ -3665,13 +3662,13 @@
         <v>8809659044159</v>
       </c>
       <c r="B79" t="s">
+        <v>192</v>
+      </c>
+      <c r="C79" t="s">
         <v>193</v>
       </c>
-      <c r="C79" t="s">
-        <v>194</v>
-      </c>
       <c r="D79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E79">
         <v>17</v>
@@ -3682,16 +3679,16 @@
         <v>8809659044258</v>
       </c>
       <c r="B80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" t="s">
         <v>195</v>
       </c>
-      <c r="C80" t="s">
-        <v>196</v>
-      </c>
       <c r="D80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3699,16 +3696,16 @@
         <v>8809659044418</v>
       </c>
       <c r="B81" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" t="s">
         <v>197</v>
       </c>
-      <c r="C81" t="s">
-        <v>198</v>
-      </c>
       <c r="D81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3716,13 +3713,13 @@
         <v>8809659045507</v>
       </c>
       <c r="B82" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" t="s">
         <v>199</v>
       </c>
-      <c r="C82" t="s">
-        <v>200</v>
-      </c>
       <c r="D82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E82">
         <v>13</v>
@@ -3733,13 +3730,13 @@
         <v>8809659045538</v>
       </c>
       <c r="B83" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" t="s">
         <v>201</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>202</v>
-      </c>
-      <c r="D83" t="s">
-        <v>203</v>
       </c>
       <c r="E83">
         <v>29</v>
@@ -3750,16 +3747,16 @@
         <v>8809659045668</v>
       </c>
       <c r="B84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" t="s">
         <v>204</v>
-      </c>
-      <c r="C84" t="s">
-        <v>205</v>
       </c>
       <c r="D84" t="s">
         <v>29</v>
       </c>
       <c r="E84">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3767,16 +3764,16 @@
         <v>8809659045828</v>
       </c>
       <c r="B85" t="s">
+        <v>205</v>
+      </c>
+      <c r="C85" t="s">
         <v>206</v>
       </c>
-      <c r="C85" t="s">
-        <v>207</v>
-      </c>
       <c r="D85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E85">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3784,16 +3781,16 @@
         <v>8809659045859</v>
       </c>
       <c r="B86" t="s">
+        <v>207</v>
+      </c>
+      <c r="C86" t="s">
         <v>208</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>209</v>
       </c>
-      <c r="D86" t="s">
-        <v>210</v>
-      </c>
       <c r="E86">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3801,16 +3798,16 @@
         <v>8809659045880</v>
       </c>
       <c r="B87" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" t="s">
         <v>211</v>
-      </c>
-      <c r="C87" t="s">
-        <v>212</v>
       </c>
       <c r="D87" t="s">
         <v>56</v>
       </c>
       <c r="E87">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3818,13 +3815,13 @@
         <v>8809659046139</v>
       </c>
       <c r="B88" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88" t="s">
         <v>213</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>214</v>
-      </c>
-      <c r="D88" t="s">
-        <v>215</v>
       </c>
       <c r="E88">
         <v>30</v>
@@ -3835,16 +3832,16 @@
         <v>8809659047228</v>
       </c>
       <c r="B89" t="s">
+        <v>215</v>
+      </c>
+      <c r="C89" t="s">
         <v>216</v>
       </c>
-      <c r="C89" t="s">
-        <v>217</v>
-      </c>
       <c r="D89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3852,13 +3849,13 @@
         <v>8809659047488</v>
       </c>
       <c r="B90" t="s">
+        <v>217</v>
+      </c>
+      <c r="C90" t="s">
         <v>218</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>219</v>
-      </c>
-      <c r="D90" t="s">
-        <v>220</v>
       </c>
       <c r="E90">
         <v>20</v>
@@ -3869,13 +3866,13 @@
         <v>8809659047549</v>
       </c>
       <c r="B91" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" t="s">
         <v>221</v>
       </c>
-      <c r="C91" t="s">
-        <v>222</v>
-      </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E91">
         <v>50</v>
@@ -3886,10 +3883,10 @@
         <v>8809659047600</v>
       </c>
       <c r="B92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" t="s">
         <v>223</v>
-      </c>
-      <c r="C92" t="s">
-        <v>224</v>
       </c>
       <c r="D92" t="s">
         <v>45</v>
@@ -3903,10 +3900,10 @@
         <v>8809659047631</v>
       </c>
       <c r="B93" t="s">
+        <v>224</v>
+      </c>
+      <c r="C93" t="s">
         <v>225</v>
-      </c>
-      <c r="C93" t="s">
-        <v>226</v>
       </c>
       <c r="D93" t="s">
         <v>42</v>
@@ -3920,13 +3917,13 @@
         <v>8809659047662</v>
       </c>
       <c r="B94" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" t="s">
         <v>227</v>
       </c>
-      <c r="C94" t="s">
-        <v>228</v>
-      </c>
       <c r="D94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E94">
         <v>30</v>
@@ -3937,16 +3934,16 @@
         <v>8809659047747</v>
       </c>
       <c r="B95" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" t="s">
         <v>229</v>
-      </c>
-      <c r="C95" t="s">
-        <v>230</v>
       </c>
       <c r="D95" t="s">
         <v>53</v>
       </c>
       <c r="E95">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3954,16 +3951,16 @@
         <v>8809659047778</v>
       </c>
       <c r="B96" t="s">
+        <v>230</v>
+      </c>
+      <c r="C96" t="s">
         <v>231</v>
-      </c>
-      <c r="C96" t="s">
-        <v>232</v>
       </c>
       <c r="D96" t="s">
         <v>32</v>
       </c>
       <c r="E96">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3971,10 +3968,10 @@
         <v>8809659047884</v>
       </c>
       <c r="B97" t="s">
+        <v>232</v>
+      </c>
+      <c r="C97" t="s">
         <v>233</v>
-      </c>
-      <c r="C97" t="s">
-        <v>234</v>
       </c>
       <c r="D97" t="s">
         <v>45</v>
@@ -3988,16 +3985,16 @@
         <v>8809659048027</v>
       </c>
       <c r="B98" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" t="s">
         <v>235</v>
-      </c>
-      <c r="C98" t="s">
-        <v>236</v>
       </c>
       <c r="D98" t="s">
         <v>42</v>
       </c>
       <c r="E98">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4005,13 +4002,13 @@
         <v>8809659048263</v>
       </c>
       <c r="B99" t="s">
+        <v>236</v>
+      </c>
+      <c r="C99" t="s">
         <v>237</v>
       </c>
-      <c r="C99" t="s">
-        <v>238</v>
-      </c>
       <c r="D99" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E99">
         <v>19</v>
@@ -4022,13 +4019,13 @@
         <v>8809659048348</v>
       </c>
       <c r="B100" t="s">
+        <v>238</v>
+      </c>
+      <c r="C100" t="s">
         <v>239</v>
       </c>
-      <c r="C100" t="s">
-        <v>240</v>
-      </c>
       <c r="D100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E100">
         <v>44</v>
@@ -4039,13 +4036,13 @@
         <v>8809659048379</v>
       </c>
       <c r="B101" t="s">
+        <v>240</v>
+      </c>
+      <c r="C101" t="s">
         <v>241</v>
       </c>
-      <c r="C101" t="s">
-        <v>242</v>
-      </c>
       <c r="D101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E101">
         <v>35</v>
@@ -4056,16 +4053,16 @@
         <v>8809659048409</v>
       </c>
       <c r="B102" t="s">
+        <v>242</v>
+      </c>
+      <c r="C102" t="s">
         <v>243</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>244</v>
       </c>
-      <c r="D102" t="s">
-        <v>245</v>
-      </c>
       <c r="E102">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4073,13 +4070,13 @@
         <v>8809659048553</v>
       </c>
       <c r="B103" t="s">
+        <v>245</v>
+      </c>
+      <c r="C103" t="s">
         <v>246</v>
       </c>
-      <c r="C103" t="s">
-        <v>247</v>
-      </c>
       <c r="D103" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E103">
         <v>25</v>
@@ -4090,16 +4087,16 @@
         <v>8809659048591</v>
       </c>
       <c r="B104" t="s">
+        <v>247</v>
+      </c>
+      <c r="C104" t="s">
         <v>248</v>
-      </c>
-      <c r="C104" t="s">
-        <v>249</v>
       </c>
       <c r="D104" t="s">
         <v>71</v>
       </c>
       <c r="E104">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4107,10 +4104,10 @@
         <v>8809659048607</v>
       </c>
       <c r="B105" t="s">
+        <v>249</v>
+      </c>
+      <c r="C105" t="s">
         <v>250</v>
-      </c>
-      <c r="C105" t="s">
-        <v>251</v>
       </c>
       <c r="D105" t="s">
         <v>29</v>
@@ -4124,10 +4121,10 @@
         <v>8809659048614</v>
       </c>
       <c r="B106" t="s">
+        <v>251</v>
+      </c>
+      <c r="C106" t="s">
         <v>252</v>
-      </c>
-      <c r="C106" t="s">
-        <v>253</v>
       </c>
       <c r="D106" t="s">
         <v>48</v>
@@ -4141,10 +4138,10 @@
         <v>8809659048621</v>
       </c>
       <c r="B107" t="s">
+        <v>253</v>
+      </c>
+      <c r="C107" t="s">
         <v>254</v>
-      </c>
-      <c r="C107" t="s">
-        <v>255</v>
       </c>
       <c r="D107" t="s">
         <v>71</v>
@@ -4158,16 +4155,16 @@
         <v>8809659048638</v>
       </c>
       <c r="B108" t="s">
+        <v>255</v>
+      </c>
+      <c r="C108" t="s">
         <v>256</v>
       </c>
-      <c r="C108" t="s">
-        <v>257</v>
-      </c>
       <c r="D108" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E108">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4175,13 +4172,13 @@
         <v>8809659048652</v>
       </c>
       <c r="B109" t="s">
+        <v>257</v>
+      </c>
+      <c r="C109" t="s">
         <v>258</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>259</v>
-      </c>
-      <c r="D109" t="s">
-        <v>260</v>
       </c>
       <c r="E109">
         <v>16</v>
@@ -4192,10 +4189,10 @@
         <v>8809659048669</v>
       </c>
       <c r="B110" t="s">
+        <v>260</v>
+      </c>
+      <c r="C110" t="s">
         <v>261</v>
-      </c>
-      <c r="C110" t="s">
-        <v>262</v>
       </c>
       <c r="D110" t="s">
         <v>40</v>
@@ -4209,16 +4206,16 @@
         <v>8809659049901</v>
       </c>
       <c r="B111" t="s">
+        <v>262</v>
+      </c>
+      <c r="C111" t="s">
         <v>263</v>
       </c>
-      <c r="C111" t="s">
-        <v>264</v>
-      </c>
       <c r="D111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E111">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4226,10 +4223,10 @@
         <v>8809659049987</v>
       </c>
       <c r="B112" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" t="s">
         <v>265</v>
-      </c>
-      <c r="C112" t="s">
-        <v>266</v>
       </c>
       <c r="D112" t="s">
         <v>53</v>
@@ -4243,10 +4240,10 @@
         <v>8809671010248</v>
       </c>
       <c r="B113" t="s">
+        <v>266</v>
+      </c>
+      <c r="C113" t="s">
         <v>267</v>
-      </c>
-      <c r="C113" t="s">
-        <v>268</v>
       </c>
       <c r="D113" t="s">
         <v>65</v>
@@ -4260,13 +4257,13 @@
         <v>8809671010293</v>
       </c>
       <c r="B114" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114" t="s">
         <v>269</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>270</v>
-      </c>
-      <c r="D114" t="s">
-        <v>271</v>
       </c>
       <c r="E114">
         <v>10</v>
@@ -4277,10 +4274,10 @@
         <v>8809685620754</v>
       </c>
       <c r="B115" t="s">
+        <v>271</v>
+      </c>
+      <c r="C115" t="s">
         <v>272</v>
-      </c>
-      <c r="C115" t="s">
-        <v>273</v>
       </c>
       <c r="D115" t="s">
         <v>65</v>
@@ -4294,16 +4291,16 @@
         <v>8809685622932</v>
       </c>
       <c r="B116" t="s">
+        <v>273</v>
+      </c>
+      <c r="C116" t="s">
         <v>274</v>
       </c>
-      <c r="C116" t="s">
-        <v>275</v>
-      </c>
       <c r="D116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E116">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4311,16 +4308,16 @@
         <v>8809685623991</v>
       </c>
       <c r="B117" t="s">
+        <v>275</v>
+      </c>
+      <c r="C117" t="s">
         <v>276</v>
       </c>
-      <c r="C117" t="s">
-        <v>277</v>
-      </c>
       <c r="D117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E117">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4328,13 +4325,13 @@
         <v>8809685624028</v>
       </c>
       <c r="B118" t="s">
+        <v>277</v>
+      </c>
+      <c r="C118" t="s">
         <v>278</v>
       </c>
-      <c r="C118" t="s">
-        <v>279</v>
-      </c>
       <c r="D118" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E118">
         <v>50</v>
@@ -4345,13 +4342,13 @@
         <v>8809685624035</v>
       </c>
       <c r="B119" t="s">
+        <v>279</v>
+      </c>
+      <c r="C119" t="s">
         <v>280</v>
       </c>
-      <c r="C119" t="s">
-        <v>281</v>
-      </c>
       <c r="D119" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E119">
         <v>18</v>
@@ -4362,13 +4359,13 @@
         <v>8809685624042</v>
       </c>
       <c r="B120" t="s">
+        <v>281</v>
+      </c>
+      <c r="C120" t="s">
         <v>282</v>
       </c>
-      <c r="C120" t="s">
-        <v>283</v>
-      </c>
       <c r="D120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E120">
         <v>16</v>
@@ -4379,13 +4376,13 @@
         <v>8809685624660</v>
       </c>
       <c r="B121" t="s">
+        <v>283</v>
+      </c>
+      <c r="C121" t="s">
         <v>284</v>
       </c>
-      <c r="C121" t="s">
-        <v>285</v>
-      </c>
       <c r="D121" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E121">
         <v>42</v>
@@ -4396,10 +4393,10 @@
         <v>8809685624721</v>
       </c>
       <c r="B122" t="s">
+        <v>285</v>
+      </c>
+      <c r="C122" t="s">
         <v>286</v>
-      </c>
-      <c r="C122" t="s">
-        <v>287</v>
       </c>
       <c r="D122" t="s">
         <v>65</v>
@@ -4413,16 +4410,16 @@
         <v>8809685624745</v>
       </c>
       <c r="B123" t="s">
+        <v>287</v>
+      </c>
+      <c r="C123" t="s">
         <v>288</v>
       </c>
-      <c r="C123" t="s">
-        <v>289</v>
-      </c>
       <c r="D123" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E123">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4430,10 +4427,10 @@
         <v>8809685625001</v>
       </c>
       <c r="B124" t="s">
+        <v>289</v>
+      </c>
+      <c r="C124" t="s">
         <v>290</v>
-      </c>
-      <c r="C124" t="s">
-        <v>291</v>
       </c>
       <c r="D124" t="s">
         <v>32</v>
@@ -4447,10 +4444,10 @@
         <v>8809685625469</v>
       </c>
       <c r="B125" t="s">
+        <v>291</v>
+      </c>
+      <c r="C125" t="s">
         <v>292</v>
-      </c>
-      <c r="C125" t="s">
-        <v>293</v>
       </c>
       <c r="D125" t="s">
         <v>40</v>
@@ -4464,13 +4461,13 @@
         <v>8809685625759</v>
       </c>
       <c r="B126" t="s">
+        <v>293</v>
+      </c>
+      <c r="C126" t="s">
         <v>294</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>295</v>
-      </c>
-      <c r="D126" t="s">
-        <v>296</v>
       </c>
       <c r="E126">
         <v>30</v>
@@ -4481,13 +4478,13 @@
         <v>8809685626176</v>
       </c>
       <c r="B127" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" t="s">
         <v>297</v>
       </c>
-      <c r="C127" t="s">
-        <v>298</v>
-      </c>
       <c r="D127" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E127">
         <v>37</v>
@@ -4498,16 +4495,16 @@
         <v>8809685626558</v>
       </c>
       <c r="B128" t="s">
+        <v>298</v>
+      </c>
+      <c r="C128" t="s">
         <v>299</v>
-      </c>
-      <c r="C128" t="s">
-        <v>300</v>
       </c>
       <c r="D128" t="s">
         <v>35</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4515,16 +4512,16 @@
         <v>8809685627067</v>
       </c>
       <c r="B129" t="s">
+        <v>300</v>
+      </c>
+      <c r="C129" t="s">
         <v>301</v>
       </c>
-      <c r="C129" t="s">
-        <v>302</v>
-      </c>
       <c r="D129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E129">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4532,16 +4529,16 @@
         <v>8809685627081</v>
       </c>
       <c r="B130" t="s">
+        <v>302</v>
+      </c>
+      <c r="C130" t="s">
         <v>303</v>
       </c>
-      <c r="C130" t="s">
-        <v>304</v>
-      </c>
       <c r="D130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E130">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4549,16 +4546,16 @@
         <v>8809685629344</v>
       </c>
       <c r="B131" t="s">
+        <v>304</v>
+      </c>
+      <c r="C131" t="s">
         <v>305</v>
-      </c>
-      <c r="C131" t="s">
-        <v>306</v>
       </c>
       <c r="D131" t="s">
         <v>24</v>
       </c>
       <c r="E131">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4566,13 +4563,13 @@
         <v>8809688890093</v>
       </c>
       <c r="B132" t="s">
+        <v>306</v>
+      </c>
+      <c r="C132" t="s">
         <v>307</v>
       </c>
-      <c r="C132" t="s">
-        <v>308</v>
-      </c>
       <c r="D132" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E132">
         <v>39</v>
@@ -4583,16 +4580,16 @@
         <v>8809688890123</v>
       </c>
       <c r="B133" t="s">
+        <v>308</v>
+      </c>
+      <c r="C133" t="s">
         <v>309</v>
       </c>
-      <c r="C133" t="s">
-        <v>310</v>
-      </c>
       <c r="D133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E133">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4600,16 +4597,16 @@
         <v>8809688891106</v>
       </c>
       <c r="B134" t="s">
+        <v>310</v>
+      </c>
+      <c r="C134" t="s">
         <v>311</v>
       </c>
-      <c r="C134" t="s">
-        <v>312</v>
-      </c>
       <c r="D134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E134">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4617,13 +4614,13 @@
         <v>8809688891137</v>
       </c>
       <c r="B135" t="s">
+        <v>312</v>
+      </c>
+      <c r="C135" t="s">
         <v>313</v>
       </c>
-      <c r="C135" t="s">
-        <v>314</v>
-      </c>
       <c r="D135" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E135">
         <v>44</v>
@@ -4634,10 +4631,10 @@
         <v>8809688891229</v>
       </c>
       <c r="B136" t="s">
+        <v>314</v>
+      </c>
+      <c r="C136" t="s">
         <v>315</v>
-      </c>
-      <c r="C136" t="s">
-        <v>316</v>
       </c>
       <c r="D136" t="s">
         <v>53</v>
@@ -4651,16 +4648,16 @@
         <v>8809688891557</v>
       </c>
       <c r="B137" t="s">
+        <v>316</v>
+      </c>
+      <c r="C137" t="s">
         <v>317</v>
       </c>
-      <c r="C137" t="s">
-        <v>318</v>
-      </c>
       <c r="D137" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E137">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4668,16 +4665,16 @@
         <v>8809688891977</v>
       </c>
       <c r="B138" t="s">
+        <v>318</v>
+      </c>
+      <c r="C138" t="s">
         <v>319</v>
-      </c>
-      <c r="C138" t="s">
-        <v>320</v>
       </c>
       <c r="D138" t="s">
         <v>32</v>
       </c>
       <c r="E138">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4685,13 +4682,13 @@
         <v>8809688892066</v>
       </c>
       <c r="B139" t="s">
+        <v>320</v>
+      </c>
+      <c r="C139" t="s">
         <v>321</v>
       </c>
-      <c r="C139" t="s">
-        <v>322</v>
-      </c>
       <c r="D139" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E139">
         <v>20</v>
@@ -4702,16 +4699,16 @@
         <v>8809688892295</v>
       </c>
       <c r="B140" t="s">
+        <v>322</v>
+      </c>
+      <c r="C140" t="s">
         <v>323</v>
       </c>
-      <c r="C140" t="s">
-        <v>324</v>
-      </c>
       <c r="D140" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E140">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4719,13 +4716,13 @@
         <v>8809688893018</v>
       </c>
       <c r="B141" t="s">
+        <v>324</v>
+      </c>
+      <c r="C141" t="s">
         <v>325</v>
       </c>
-      <c r="C141" t="s">
-        <v>326</v>
-      </c>
       <c r="D141" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E141">
         <v>15</v>
@@ -4736,16 +4733,16 @@
         <v>8809688893049</v>
       </c>
       <c r="B142" t="s">
+        <v>326</v>
+      </c>
+      <c r="C142" t="s">
         <v>327</v>
       </c>
-      <c r="C142" t="s">
-        <v>328</v>
-      </c>
       <c r="D142" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E142">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4753,13 +4750,13 @@
         <v>8809688893070</v>
       </c>
       <c r="B143" t="s">
+        <v>328</v>
+      </c>
+      <c r="C143" t="s">
         <v>329</v>
       </c>
-      <c r="C143" t="s">
-        <v>330</v>
-      </c>
       <c r="D143" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E143">
         <v>42</v>
@@ -4770,13 +4767,13 @@
         <v>8809688893100</v>
       </c>
       <c r="B144" t="s">
+        <v>330</v>
+      </c>
+      <c r="C144" t="s">
         <v>331</v>
       </c>
-      <c r="C144" t="s">
-        <v>332</v>
-      </c>
       <c r="D144" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E144">
         <v>20</v>
@@ -4787,13 +4784,13 @@
         <v>8809688893131</v>
       </c>
       <c r="B145" t="s">
+        <v>332</v>
+      </c>
+      <c r="C145" t="s">
         <v>333</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>334</v>
-      </c>
-      <c r="D145" t="s">
-        <v>335</v>
       </c>
       <c r="E145">
         <v>20</v>
@@ -4804,10 +4801,10 @@
         <v>8809688893162</v>
       </c>
       <c r="B146" t="s">
+        <v>335</v>
+      </c>
+      <c r="C146" t="s">
         <v>336</v>
-      </c>
-      <c r="C146" t="s">
-        <v>337</v>
       </c>
       <c r="D146" t="s">
         <v>45</v>
@@ -4821,10 +4818,10 @@
         <v>8809688893193</v>
       </c>
       <c r="B147" t="s">
+        <v>337</v>
+      </c>
+      <c r="C147" t="s">
         <v>338</v>
-      </c>
-      <c r="C147" t="s">
-        <v>339</v>
       </c>
       <c r="D147" t="s">
         <v>95</v>
@@ -4838,16 +4835,16 @@
         <v>8809688893513</v>
       </c>
       <c r="B148" t="s">
+        <v>339</v>
+      </c>
+      <c r="C148" t="s">
         <v>340</v>
       </c>
-      <c r="C148" t="s">
-        <v>341</v>
-      </c>
       <c r="D148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E148">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4855,16 +4852,16 @@
         <v>8809688893568</v>
       </c>
       <c r="B149" t="s">
+        <v>341</v>
+      </c>
+      <c r="C149" t="s">
         <v>342</v>
       </c>
-      <c r="C149" t="s">
-        <v>343</v>
-      </c>
       <c r="D149" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4872,16 +4869,16 @@
         <v>8809688893698</v>
       </c>
       <c r="B150" t="s">
+        <v>343</v>
+      </c>
+      <c r="C150" t="s">
         <v>344</v>
-      </c>
-      <c r="C150" t="s">
-        <v>345</v>
       </c>
       <c r="D150" t="s">
         <v>42</v>
       </c>
       <c r="E150">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4889,16 +4886,16 @@
         <v>8809688893728</v>
       </c>
       <c r="B151" t="s">
+        <v>345</v>
+      </c>
+      <c r="C151" t="s">
         <v>346</v>
       </c>
-      <c r="C151" t="s">
-        <v>347</v>
-      </c>
       <c r="D151" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E151">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4906,16 +4903,16 @@
         <v>8809688893759</v>
       </c>
       <c r="B152" t="s">
+        <v>347</v>
+      </c>
+      <c r="C152" t="s">
         <v>348</v>
       </c>
-      <c r="C152" t="s">
-        <v>349</v>
-      </c>
       <c r="D152" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E152">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4923,13 +4920,13 @@
         <v>8809688893780</v>
       </c>
       <c r="B153" t="s">
+        <v>349</v>
+      </c>
+      <c r="C153" t="s">
         <v>350</v>
       </c>
-      <c r="C153" t="s">
-        <v>351</v>
-      </c>
       <c r="D153" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E153">
         <v>30</v>
@@ -4940,13 +4937,13 @@
         <v>8809688894046</v>
       </c>
       <c r="B154" t="s">
+        <v>351</v>
+      </c>
+      <c r="C154" t="s">
         <v>352</v>
       </c>
-      <c r="C154" t="s">
-        <v>353</v>
-      </c>
       <c r="D154" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E154">
         <v>21</v>
@@ -4957,13 +4954,13 @@
         <v>8809688894077</v>
       </c>
       <c r="B155" t="s">
+        <v>353</v>
+      </c>
+      <c r="C155" t="s">
         <v>354</v>
       </c>
-      <c r="C155" t="s">
-        <v>355</v>
-      </c>
       <c r="D155" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -4974,13 +4971,13 @@
         <v>8809688894107</v>
       </c>
       <c r="B156" t="s">
+        <v>355</v>
+      </c>
+      <c r="C156" t="s">
         <v>356</v>
       </c>
-      <c r="C156" t="s">
-        <v>357</v>
-      </c>
       <c r="D156" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E156">
         <v>20</v>
@@ -4991,16 +4988,16 @@
         <v>8809688894138</v>
       </c>
       <c r="B157" t="s">
+        <v>357</v>
+      </c>
+      <c r="C157" t="s">
         <v>358</v>
       </c>
-      <c r="C157" t="s">
-        <v>359</v>
-      </c>
       <c r="D157" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E157">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5008,10 +5005,10 @@
         <v>8809688894152</v>
       </c>
       <c r="B158" t="s">
+        <v>359</v>
+      </c>
+      <c r="C158" t="s">
         <v>360</v>
-      </c>
-      <c r="C158" t="s">
-        <v>361</v>
       </c>
       <c r="D158" t="s">
         <v>68</v>
@@ -5025,13 +5022,13 @@
         <v>8809688894183</v>
       </c>
       <c r="B159" t="s">
+        <v>361</v>
+      </c>
+      <c r="C159" t="s">
         <v>362</v>
       </c>
-      <c r="C159" t="s">
-        <v>363</v>
-      </c>
       <c r="D159" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E159">
         <v>19</v>
@@ -5042,10 +5039,10 @@
         <v>8809688894213</v>
       </c>
       <c r="B160" t="s">
+        <v>363</v>
+      </c>
+      <c r="C160" t="s">
         <v>364</v>
-      </c>
-      <c r="C160" t="s">
-        <v>365</v>
       </c>
       <c r="D160" t="s">
         <v>29</v>
@@ -5059,10 +5056,10 @@
         <v>8809688894244</v>
       </c>
       <c r="B161" t="s">
+        <v>365</v>
+      </c>
+      <c r="C161" t="s">
         <v>366</v>
-      </c>
-      <c r="C161" t="s">
-        <v>367</v>
       </c>
       <c r="D161" t="s">
         <v>24</v>
@@ -5076,13 +5073,13 @@
         <v>8809688894466</v>
       </c>
       <c r="B162" t="s">
+        <v>367</v>
+      </c>
+      <c r="C162" t="s">
         <v>368</v>
       </c>
-      <c r="C162" t="s">
-        <v>369</v>
-      </c>
       <c r="D162" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E162">
         <v>11</v>
@@ -5093,13 +5090,13 @@
         <v>8809688894558</v>
       </c>
       <c r="B163" t="s">
+        <v>369</v>
+      </c>
+      <c r="C163" t="s">
         <v>370</v>
       </c>
-      <c r="C163" t="s">
-        <v>371</v>
-      </c>
       <c r="D163" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E163">
         <v>18</v>
@@ -5110,16 +5107,16 @@
         <v>8809688894640</v>
       </c>
       <c r="B164" t="s">
+        <v>371</v>
+      </c>
+      <c r="C164" t="s">
         <v>372</v>
       </c>
-      <c r="C164" t="s">
-        <v>373</v>
-      </c>
       <c r="D164" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E164">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5127,16 +5124,16 @@
         <v>8809688895388</v>
       </c>
       <c r="B165" t="s">
+        <v>373</v>
+      </c>
+      <c r="C165" t="s">
         <v>374</v>
       </c>
-      <c r="C165" t="s">
-        <v>375</v>
-      </c>
       <c r="D165" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E165">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5144,13 +5141,13 @@
         <v>8809688896583</v>
       </c>
       <c r="B166" t="s">
+        <v>375</v>
+      </c>
+      <c r="C166" t="s">
         <v>376</v>
       </c>
-      <c r="C166" t="s">
-        <v>377</v>
-      </c>
       <c r="D166" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E166">
         <v>32</v>
@@ -5161,13 +5158,13 @@
         <v>8809688896590</v>
       </c>
       <c r="B167" t="s">
+        <v>377</v>
+      </c>
+      <c r="C167" t="s">
         <v>378</v>
       </c>
-      <c r="C167" t="s">
-        <v>379</v>
-      </c>
       <c r="D167" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E167">
         <v>15</v>
@@ -5178,10 +5175,10 @@
         <v>8809688896606</v>
       </c>
       <c r="B168" t="s">
+        <v>379</v>
+      </c>
+      <c r="C168" t="s">
         <v>380</v>
-      </c>
-      <c r="C168" t="s">
-        <v>381</v>
       </c>
       <c r="D168" t="s">
         <v>90</v>
@@ -5195,13 +5192,13 @@
         <v>8809688896613</v>
       </c>
       <c r="B169" t="s">
+        <v>381</v>
+      </c>
+      <c r="C169" t="s">
         <v>382</v>
       </c>
-      <c r="C169" t="s">
-        <v>383</v>
-      </c>
       <c r="D169" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E169">
         <v>13</v>
@@ -5212,10 +5209,10 @@
         <v>8809688896620</v>
       </c>
       <c r="B170" t="s">
+        <v>383</v>
+      </c>
+      <c r="C170" t="s">
         <v>384</v>
-      </c>
-      <c r="C170" t="s">
-        <v>385</v>
       </c>
       <c r="D170" t="s">
         <v>32</v>
@@ -5229,10 +5226,10 @@
         <v>8809688896637</v>
       </c>
       <c r="B171" t="s">
+        <v>385</v>
+      </c>
+      <c r="C171" t="s">
         <v>386</v>
-      </c>
-      <c r="C171" t="s">
-        <v>387</v>
       </c>
       <c r="D171" t="s">
         <v>48</v>
@@ -5246,13 +5243,13 @@
         <v>8809688896644</v>
       </c>
       <c r="B172" t="s">
+        <v>387</v>
+      </c>
+      <c r="C172" t="s">
         <v>388</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>389</v>
-      </c>
-      <c r="D172" t="s">
-        <v>390</v>
       </c>
       <c r="E172">
         <v>30</v>
@@ -5263,13 +5260,13 @@
         <v>8809688896675</v>
       </c>
       <c r="B173" t="s">
+        <v>390</v>
+      </c>
+      <c r="C173" t="s">
         <v>391</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>392</v>
-      </c>
-      <c r="D173" t="s">
-        <v>393</v>
       </c>
       <c r="E173">
         <v>15</v>
@@ -5280,13 +5277,13 @@
         <v>8809688896736</v>
       </c>
       <c r="B174" t="s">
+        <v>393</v>
+      </c>
+      <c r="C174" t="s">
         <v>394</v>
       </c>
-      <c r="C174" t="s">
-        <v>395</v>
-      </c>
       <c r="D174" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E174">
         <v>28</v>
@@ -5297,13 +5294,13 @@
         <v>8809688896804</v>
       </c>
       <c r="B175" t="s">
+        <v>395</v>
+      </c>
+      <c r="C175" t="s">
         <v>396</v>
       </c>
-      <c r="C175" t="s">
-        <v>397</v>
-      </c>
       <c r="D175" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E175">
         <v>50</v>
@@ -5314,16 +5311,16 @@
         <v>8809688896835</v>
       </c>
       <c r="B176" t="s">
+        <v>397</v>
+      </c>
+      <c r="C176" t="s">
         <v>398</v>
       </c>
-      <c r="C176" t="s">
-        <v>399</v>
-      </c>
       <c r="D176" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E176">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5331,13 +5328,13 @@
         <v>8809688896866</v>
       </c>
       <c r="B177" t="s">
+        <v>399</v>
+      </c>
+      <c r="C177" t="s">
         <v>400</v>
       </c>
-      <c r="C177" t="s">
-        <v>401</v>
-      </c>
       <c r="D177" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E177">
         <v>19</v>
@@ -5348,13 +5345,13 @@
         <v>8809688896897</v>
       </c>
       <c r="B178" t="s">
+        <v>401</v>
+      </c>
+      <c r="C178" t="s">
         <v>402</v>
       </c>
-      <c r="C178" t="s">
-        <v>403</v>
-      </c>
       <c r="D178" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E178">
         <v>20</v>
@@ -5365,13 +5362,13 @@
         <v>8809688896910</v>
       </c>
       <c r="B179" t="s">
+        <v>403</v>
+      </c>
+      <c r="C179" t="s">
         <v>404</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>405</v>
-      </c>
-      <c r="D179" t="s">
-        <v>406</v>
       </c>
       <c r="E179">
         <v>50</v>
@@ -5382,13 +5379,13 @@
         <v>8809688896941</v>
       </c>
       <c r="B180" t="s">
+        <v>406</v>
+      </c>
+      <c r="C180" t="s">
         <v>407</v>
       </c>
-      <c r="C180" t="s">
-        <v>408</v>
-      </c>
       <c r="D180" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E180">
         <v>16</v>
@@ -5399,10 +5396,10 @@
         <v>8809688896972</v>
       </c>
       <c r="B181" t="s">
+        <v>408</v>
+      </c>
+      <c r="C181" t="s">
         <v>409</v>
-      </c>
-      <c r="C181" t="s">
-        <v>410</v>
       </c>
       <c r="D181" t="s">
         <v>53</v>
@@ -5416,16 +5413,16 @@
         <v>8809688897009</v>
       </c>
       <c r="B182" t="s">
+        <v>410</v>
+      </c>
+      <c r="C182" t="s">
         <v>411</v>
-      </c>
-      <c r="C182" t="s">
-        <v>412</v>
       </c>
       <c r="D182" t="s">
         <v>68</v>
       </c>
       <c r="E182">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5433,10 +5430,10 @@
         <v>8809688897016</v>
       </c>
       <c r="B183" t="s">
+        <v>412</v>
+      </c>
+      <c r="C183" t="s">
         <v>413</v>
-      </c>
-      <c r="C183" t="s">
-        <v>414</v>
       </c>
       <c r="D183" t="s">
         <v>32</v>
@@ -5450,16 +5447,16 @@
         <v>8809688897344</v>
       </c>
       <c r="B184" t="s">
+        <v>414</v>
+      </c>
+      <c r="C184" t="s">
         <v>415</v>
       </c>
-      <c r="C184" t="s">
-        <v>416</v>
-      </c>
       <c r="D184" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E184">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5467,13 +5464,13 @@
         <v>8809688897368</v>
       </c>
       <c r="B185" t="s">
+        <v>416</v>
+      </c>
+      <c r="C185" t="s">
         <v>417</v>
       </c>
-      <c r="C185" t="s">
-        <v>418</v>
-      </c>
       <c r="D185" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E185">
         <v>15</v>
@@ -5484,16 +5481,16 @@
         <v>8809688897382</v>
       </c>
       <c r="B186" t="s">
+        <v>418</v>
+      </c>
+      <c r="C186" t="s">
         <v>419</v>
-      </c>
-      <c r="C186" t="s">
-        <v>420</v>
       </c>
       <c r="D186" t="s">
         <v>56</v>
       </c>
       <c r="E186">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5501,16 +5498,16 @@
         <v>8809688897412</v>
       </c>
       <c r="B187" t="s">
+        <v>420</v>
+      </c>
+      <c r="C187" t="s">
         <v>421</v>
       </c>
-      <c r="C187" t="s">
-        <v>422</v>
-      </c>
       <c r="D187" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E187">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5518,16 +5515,16 @@
         <v>8809688897504</v>
       </c>
       <c r="B188" t="s">
+        <v>422</v>
+      </c>
+      <c r="C188" t="s">
         <v>423</v>
       </c>
-      <c r="C188" t="s">
-        <v>424</v>
-      </c>
       <c r="D188" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5535,16 +5532,16 @@
         <v>8809688897535</v>
       </c>
       <c r="B189" t="s">
+        <v>424</v>
+      </c>
+      <c r="C189" t="s">
         <v>425</v>
       </c>
-      <c r="C189" t="s">
-        <v>426</v>
-      </c>
       <c r="D189" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E189">
-        <v>-2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5552,16 +5549,16 @@
         <v>8809688897566</v>
       </c>
       <c r="B190" t="s">
+        <v>426</v>
+      </c>
+      <c r="C190" t="s">
         <v>427</v>
       </c>
-      <c r="C190" t="s">
-        <v>428</v>
-      </c>
       <c r="D190" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E190">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5569,16 +5566,16 @@
         <v>8809688897658</v>
       </c>
       <c r="B191" t="s">
+        <v>428</v>
+      </c>
+      <c r="C191" t="s">
         <v>429</v>
       </c>
-      <c r="C191" t="s">
-        <v>430</v>
-      </c>
       <c r="D191" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E191">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5586,16 +5583,16 @@
         <v>8809688897733</v>
       </c>
       <c r="B192" t="s">
+        <v>430</v>
+      </c>
+      <c r="C192" t="s">
         <v>431</v>
       </c>
-      <c r="C192" t="s">
-        <v>432</v>
-      </c>
       <c r="D192" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E192">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5603,16 +5600,16 @@
         <v>8809688897764</v>
       </c>
       <c r="B193" t="s">
+        <v>432</v>
+      </c>
+      <c r="C193" t="s">
         <v>433</v>
       </c>
-      <c r="C193" t="s">
-        <v>434</v>
-      </c>
       <c r="D193" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E193">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5620,13 +5617,13 @@
         <v>8809688897795</v>
       </c>
       <c r="B194" t="s">
+        <v>434</v>
+      </c>
+      <c r="C194" t="s">
         <v>435</v>
       </c>
-      <c r="C194" t="s">
-        <v>436</v>
-      </c>
       <c r="D194" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E194">
         <v>16</v>
@@ -5637,13 +5634,13 @@
         <v>8809688897887</v>
       </c>
       <c r="B195" t="s">
+        <v>436</v>
+      </c>
+      <c r="C195" t="s">
         <v>437</v>
       </c>
-      <c r="C195" t="s">
-        <v>438</v>
-      </c>
       <c r="D195" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E195">
         <v>20</v>
@@ -5654,16 +5651,16 @@
         <v>8809688897962</v>
       </c>
       <c r="B196" t="s">
+        <v>438</v>
+      </c>
+      <c r="C196" t="s">
         <v>439</v>
       </c>
-      <c r="C196" t="s">
-        <v>440</v>
-      </c>
       <c r="D196" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E196">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5671,16 +5668,16 @@
         <v>8809688897993</v>
       </c>
       <c r="B197" t="s">
+        <v>440</v>
+      </c>
+      <c r="C197" t="s">
         <v>441</v>
-      </c>
-      <c r="C197" t="s">
-        <v>442</v>
       </c>
       <c r="D197" t="s">
         <v>24</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5688,10 +5685,10 @@
         <v>8809688898020</v>
       </c>
       <c r="B198" t="s">
+        <v>442</v>
+      </c>
+      <c r="C198" t="s">
         <v>443</v>
-      </c>
-      <c r="C198" t="s">
-        <v>444</v>
       </c>
       <c r="D198" t="s">
         <v>90</v>
@@ -5705,13 +5702,13 @@
         <v>8809688898112</v>
       </c>
       <c r="B199" t="s">
+        <v>444</v>
+      </c>
+      <c r="C199" t="s">
         <v>445</v>
       </c>
-      <c r="C199" t="s">
-        <v>446</v>
-      </c>
       <c r="D199" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E199">
         <v>50</v>
@@ -5722,13 +5719,13 @@
         <v>8809688898402</v>
       </c>
       <c r="B200" t="s">
+        <v>446</v>
+      </c>
+      <c r="C200" t="s">
         <v>447</v>
       </c>
-      <c r="C200" t="s">
-        <v>448</v>
-      </c>
       <c r="D200" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E200">
         <v>20</v>
@@ -5739,10 +5736,10 @@
         <v>8809688898433</v>
       </c>
       <c r="B201" t="s">
+        <v>448</v>
+      </c>
+      <c r="C201" t="s">
         <v>449</v>
-      </c>
-      <c r="C201" t="s">
-        <v>450</v>
       </c>
       <c r="D201" t="s">
         <v>74</v>
@@ -5756,10 +5753,10 @@
         <v>8809688898464</v>
       </c>
       <c r="B202" t="s">
+        <v>450</v>
+      </c>
+      <c r="C202" t="s">
         <v>451</v>
-      </c>
-      <c r="C202" t="s">
-        <v>452</v>
       </c>
       <c r="D202" t="s">
         <v>82</v>
@@ -5773,13 +5770,13 @@
         <v>8809688898495</v>
       </c>
       <c r="B203" t="s">
+        <v>452</v>
+      </c>
+      <c r="C203" t="s">
         <v>453</v>
       </c>
-      <c r="C203" t="s">
-        <v>454</v>
-      </c>
       <c r="D203" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E203">
         <v>30</v>
@@ -5790,16 +5787,16 @@
         <v>8809688898525</v>
       </c>
       <c r="B204" t="s">
+        <v>454</v>
+      </c>
+      <c r="C204" t="s">
         <v>455</v>
       </c>
-      <c r="C204" t="s">
-        <v>456</v>
-      </c>
       <c r="D204" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E204">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5807,10 +5804,10 @@
         <v>8809688899430</v>
       </c>
       <c r="B205" t="s">
+        <v>456</v>
+      </c>
+      <c r="C205" t="s">
         <v>457</v>
-      </c>
-      <c r="C205" t="s">
-        <v>458</v>
       </c>
       <c r="D205" t="s">
         <v>82</v>
@@ -5824,16 +5821,16 @@
         <v>8809688899461</v>
       </c>
       <c r="B206" t="s">
+        <v>458</v>
+      </c>
+      <c r="C206" t="s">
         <v>459</v>
       </c>
-      <c r="C206" t="s">
-        <v>460</v>
-      </c>
       <c r="D206" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E206">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5841,13 +5838,13 @@
         <v>8809688899492</v>
       </c>
       <c r="B207" t="s">
+        <v>460</v>
+      </c>
+      <c r="C207" t="s">
         <v>461</v>
       </c>
-      <c r="C207" t="s">
-        <v>462</v>
-      </c>
       <c r="D207" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E207">
         <v>37</v>
@@ -5858,16 +5855,16 @@
         <v>8809688899522</v>
       </c>
       <c r="B208" t="s">
+        <v>462</v>
+      </c>
+      <c r="C208" t="s">
         <v>463</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>464</v>
       </c>
-      <c r="D208" t="s">
-        <v>465</v>
-      </c>
       <c r="E208">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5875,16 +5872,16 @@
         <v>8809688899553</v>
       </c>
       <c r="B209" t="s">
+        <v>465</v>
+      </c>
+      <c r="C209" t="s">
         <v>466</v>
       </c>
-      <c r="C209" t="s">
-        <v>467</v>
-      </c>
       <c r="D209" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E209">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5892,16 +5889,16 @@
         <v>8809688899584</v>
       </c>
       <c r="B210" t="s">
+        <v>467</v>
+      </c>
+      <c r="C210" t="s">
         <v>468</v>
       </c>
-      <c r="C210" t="s">
-        <v>469</v>
-      </c>
       <c r="D210" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E210">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5909,10 +5906,10 @@
         <v>8809688899669</v>
       </c>
       <c r="B211" t="s">
+        <v>469</v>
+      </c>
+      <c r="C211" t="s">
         <v>470</v>
-      </c>
-      <c r="C211" t="s">
-        <v>471</v>
       </c>
       <c r="D211" t="s">
         <v>87</v>
@@ -5926,16 +5923,16 @@
         <v>8809688899690</v>
       </c>
       <c r="B212" t="s">
+        <v>471</v>
+      </c>
+      <c r="C212" t="s">
         <v>472</v>
-      </c>
-      <c r="C212" t="s">
-        <v>473</v>
       </c>
       <c r="D212" t="s">
         <v>87</v>
       </c>
       <c r="E212">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5943,16 +5940,16 @@
         <v>8809710751002</v>
       </c>
       <c r="B213" t="s">
+        <v>473</v>
+      </c>
+      <c r="C213" t="s">
         <v>474</v>
       </c>
-      <c r="C213" t="s">
-        <v>475</v>
-      </c>
       <c r="D213" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E213">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5960,13 +5957,13 @@
         <v>8809716070022</v>
       </c>
       <c r="B214" t="s">
+        <v>475</v>
+      </c>
+      <c r="C214" t="s">
         <v>476</v>
       </c>
-      <c r="C214" t="s">
-        <v>477</v>
-      </c>
       <c r="D214" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E214">
         <v>25</v>
@@ -5977,13 +5974,13 @@
         <v>8809716070039</v>
       </c>
       <c r="B215" t="s">
+        <v>477</v>
+      </c>
+      <c r="C215" t="s">
         <v>478</v>
       </c>
-      <c r="C215" t="s">
-        <v>479</v>
-      </c>
       <c r="D215" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E215">
         <v>10</v>
@@ -5994,10 +5991,10 @@
         <v>8809716070046</v>
       </c>
       <c r="B216" t="s">
+        <v>479</v>
+      </c>
+      <c r="C216" t="s">
         <v>480</v>
-      </c>
-      <c r="C216" t="s">
-        <v>481</v>
       </c>
       <c r="D216" t="s">
         <v>53</v>
@@ -6011,16 +6008,16 @@
         <v>8809716070053</v>
       </c>
       <c r="B217" t="s">
+        <v>481</v>
+      </c>
+      <c r="C217" t="s">
         <v>482</v>
       </c>
-      <c r="C217" t="s">
-        <v>483</v>
-      </c>
       <c r="D217" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E217">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6028,13 +6025,13 @@
         <v>8809716070060</v>
       </c>
       <c r="B218" t="s">
+        <v>483</v>
+      </c>
+      <c r="C218" t="s">
         <v>484</v>
       </c>
-      <c r="C218" t="s">
-        <v>485</v>
-      </c>
       <c r="D218" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E218">
         <v>25</v>
@@ -6045,10 +6042,10 @@
         <v>8809716070503</v>
       </c>
       <c r="B219" t="s">
+        <v>485</v>
+      </c>
+      <c r="C219" t="s">
         <v>486</v>
-      </c>
-      <c r="C219" t="s">
-        <v>487</v>
       </c>
       <c r="D219" t="s">
         <v>29</v>
@@ -6062,10 +6059,10 @@
         <v>8809716070527</v>
       </c>
       <c r="B220" t="s">
+        <v>487</v>
+      </c>
+      <c r="C220" t="s">
         <v>488</v>
-      </c>
-      <c r="C220" t="s">
-        <v>489</v>
       </c>
       <c r="D220" t="s">
         <v>87</v>
@@ -6079,16 +6076,16 @@
         <v>8809716070541</v>
       </c>
       <c r="B221" t="s">
+        <v>489</v>
+      </c>
+      <c r="C221" t="s">
         <v>490</v>
       </c>
-      <c r="C221" t="s">
-        <v>491</v>
-      </c>
       <c r="D221" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E221">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6096,16 +6093,16 @@
         <v>8809716070565</v>
       </c>
       <c r="B222" t="s">
+        <v>491</v>
+      </c>
+      <c r="C222" t="s">
         <v>492</v>
       </c>
-      <c r="C222" t="s">
-        <v>493</v>
-      </c>
       <c r="D222" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E222">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6113,10 +6110,10 @@
         <v>8809716070657</v>
       </c>
       <c r="B223" t="s">
+        <v>493</v>
+      </c>
+      <c r="C223" t="s">
         <v>494</v>
-      </c>
-      <c r="C223" t="s">
-        <v>495</v>
       </c>
       <c r="D223" t="s">
         <v>42</v>
@@ -6130,13 +6127,13 @@
         <v>8809716070671</v>
       </c>
       <c r="B224" t="s">
+        <v>495</v>
+      </c>
+      <c r="C224" t="s">
         <v>496</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>497</v>
-      </c>
-      <c r="D224" t="s">
-        <v>498</v>
       </c>
       <c r="E224">
         <v>19</v>
@@ -6147,10 +6144,10 @@
         <v>8809716070909</v>
       </c>
       <c r="B225" t="s">
+        <v>498</v>
+      </c>
+      <c r="C225" t="s">
         <v>499</v>
-      </c>
-      <c r="C225" t="s">
-        <v>500</v>
       </c>
       <c r="D225" t="s">
         <v>74</v>
@@ -6164,10 +6161,10 @@
         <v>8809716070930</v>
       </c>
       <c r="B226" t="s">
+        <v>500</v>
+      </c>
+      <c r="C226" t="s">
         <v>501</v>
-      </c>
-      <c r="C226" t="s">
-        <v>502</v>
       </c>
       <c r="D226" t="s">
         <v>56</v>
@@ -6181,13 +6178,13 @@
         <v>8809716070961</v>
       </c>
       <c r="B227" t="s">
+        <v>502</v>
+      </c>
+      <c r="C227" t="s">
         <v>503</v>
       </c>
-      <c r="C227" t="s">
-        <v>504</v>
-      </c>
       <c r="D227" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E227">
         <v>30</v>
@@ -6198,16 +6195,16 @@
         <v>8809716071067</v>
       </c>
       <c r="B228" t="s">
+        <v>504</v>
+      </c>
+      <c r="C228" t="s">
         <v>505</v>
       </c>
-      <c r="C228" t="s">
-        <v>506</v>
-      </c>
       <c r="D228" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E228">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6215,16 +6212,16 @@
         <v>8809716071098</v>
       </c>
       <c r="B229" t="s">
+        <v>506</v>
+      </c>
+      <c r="C229" t="s">
         <v>507</v>
       </c>
-      <c r="C229" t="s">
-        <v>508</v>
-      </c>
       <c r="D229" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E229">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6232,16 +6229,16 @@
         <v>8809716071128</v>
       </c>
       <c r="B230" t="s">
+        <v>508</v>
+      </c>
+      <c r="C230" t="s">
         <v>509</v>
-      </c>
-      <c r="C230" t="s">
-        <v>510</v>
       </c>
       <c r="D230" t="s">
         <v>95</v>
       </c>
       <c r="E230">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6249,16 +6246,16 @@
         <v>8809716071159</v>
       </c>
       <c r="B231" t="s">
+        <v>510</v>
+      </c>
+      <c r="C231" t="s">
         <v>511</v>
-      </c>
-      <c r="C231" t="s">
-        <v>512</v>
       </c>
       <c r="D231" t="s">
         <v>56</v>
       </c>
       <c r="E231">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6266,13 +6263,13 @@
         <v>8809716071289</v>
       </c>
       <c r="B232" t="s">
+        <v>512</v>
+      </c>
+      <c r="C232" t="s">
         <v>513</v>
       </c>
-      <c r="C232" t="s">
-        <v>514</v>
-      </c>
       <c r="D232" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E232">
         <v>20</v>
@@ -6283,10 +6280,10 @@
         <v>8809716071319</v>
       </c>
       <c r="B233" t="s">
+        <v>514</v>
+      </c>
+      <c r="C233" t="s">
         <v>515</v>
-      </c>
-      <c r="C233" t="s">
-        <v>516</v>
       </c>
       <c r="D233" t="s">
         <v>87</v>
@@ -6300,13 +6297,13 @@
         <v>8809716071340</v>
       </c>
       <c r="B234" t="s">
+        <v>516</v>
+      </c>
+      <c r="C234" t="s">
         <v>517</v>
       </c>
-      <c r="C234" t="s">
-        <v>518</v>
-      </c>
       <c r="D234" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E234">
         <v>40</v>
@@ -6317,13 +6314,13 @@
         <v>8809716071371</v>
       </c>
       <c r="B235" t="s">
+        <v>518</v>
+      </c>
+      <c r="C235" t="s">
         <v>519</v>
       </c>
-      <c r="C235" t="s">
-        <v>520</v>
-      </c>
       <c r="D235" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E235">
         <v>50</v>
@@ -6334,10 +6331,10 @@
         <v>8809716071913</v>
       </c>
       <c r="B236" t="s">
+        <v>520</v>
+      </c>
+      <c r="C236" t="s">
         <v>521</v>
-      </c>
-      <c r="C236" t="s">
-        <v>522</v>
       </c>
       <c r="D236" t="s">
         <v>19</v>
@@ -6351,10 +6348,10 @@
         <v>8809716071937</v>
       </c>
       <c r="B237" t="s">
+        <v>522</v>
+      </c>
+      <c r="C237" t="s">
         <v>523</v>
-      </c>
-      <c r="C237" t="s">
-        <v>524</v>
       </c>
       <c r="D237" t="s">
         <v>45</v>
@@ -6368,13 +6365,13 @@
         <v>8809716071951</v>
       </c>
       <c r="B238" t="s">
+        <v>524</v>
+      </c>
+      <c r="C238" t="s">
         <v>525</v>
       </c>
-      <c r="C238" t="s">
-        <v>526</v>
-      </c>
       <c r="D238" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E238">
         <v>20</v>
@@ -6385,16 +6382,16 @@
         <v>8809716072422</v>
       </c>
       <c r="B239" t="s">
+        <v>526</v>
+      </c>
+      <c r="C239" t="s">
         <v>527</v>
-      </c>
-      <c r="C239" t="s">
-        <v>528</v>
       </c>
       <c r="D239" t="s">
         <v>95</v>
       </c>
       <c r="E239">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6402,16 +6399,16 @@
         <v>8809716072446</v>
       </c>
       <c r="B240" t="s">
+        <v>528</v>
+      </c>
+      <c r="C240" t="s">
         <v>529</v>
-      </c>
-      <c r="C240" t="s">
-        <v>530</v>
       </c>
       <c r="D240" t="s">
         <v>56</v>
       </c>
       <c r="E240">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6419,16 +6416,16 @@
         <v>8809716072477</v>
       </c>
       <c r="B241" t="s">
+        <v>530</v>
+      </c>
+      <c r="C241" t="s">
         <v>531</v>
       </c>
-      <c r="C241" t="s">
-        <v>532</v>
-      </c>
       <c r="D241" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E241">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6436,13 +6433,13 @@
         <v>8809716072507</v>
       </c>
       <c r="B242" t="s">
+        <v>532</v>
+      </c>
+      <c r="C242" t="s">
         <v>533</v>
       </c>
-      <c r="C242" t="s">
-        <v>534</v>
-      </c>
       <c r="D242" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E242">
         <v>10</v>
@@ -6453,16 +6450,16 @@
         <v>8809716072538</v>
       </c>
       <c r="B243" t="s">
+        <v>534</v>
+      </c>
+      <c r="C243" t="s">
         <v>535</v>
-      </c>
-      <c r="C243" t="s">
-        <v>536</v>
       </c>
       <c r="D243" t="s">
         <v>95</v>
       </c>
       <c r="E243">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6470,10 +6467,10 @@
         <v>8809716072613</v>
       </c>
       <c r="B244" t="s">
+        <v>536</v>
+      </c>
+      <c r="C244" t="s">
         <v>537</v>
-      </c>
-      <c r="C244" t="s">
-        <v>538</v>
       </c>
       <c r="D244" t="s">
         <v>11</v>
@@ -6487,10 +6484,10 @@
         <v>8809716072637</v>
       </c>
       <c r="B245" t="s">
+        <v>538</v>
+      </c>
+      <c r="C245" t="s">
         <v>539</v>
-      </c>
-      <c r="C245" t="s">
-        <v>540</v>
       </c>
       <c r="D245" t="s">
         <v>32</v>
@@ -6504,10 +6501,10 @@
         <v>8809716072651</v>
       </c>
       <c r="B246" t="s">
+        <v>540</v>
+      </c>
+      <c r="C246" t="s">
         <v>541</v>
-      </c>
-      <c r="C246" t="s">
-        <v>542</v>
       </c>
       <c r="D246" t="s">
         <v>87</v>
@@ -6521,13 +6518,13 @@
         <v>8809716072743</v>
       </c>
       <c r="B247" t="s">
+        <v>542</v>
+      </c>
+      <c r="C247" t="s">
         <v>543</v>
       </c>
-      <c r="C247" t="s">
-        <v>544</v>
-      </c>
       <c r="D247" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E247">
         <v>37</v>
@@ -6538,16 +6535,16 @@
         <v>8809716072835</v>
       </c>
       <c r="B248" t="s">
+        <v>544</v>
+      </c>
+      <c r="C248" t="s">
         <v>545</v>
-      </c>
-      <c r="C248" t="s">
-        <v>546</v>
       </c>
       <c r="D248" t="s">
         <v>90</v>
       </c>
       <c r="E248">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6555,10 +6552,10 @@
         <v>8809716072958</v>
       </c>
       <c r="B249" t="s">
+        <v>546</v>
+      </c>
+      <c r="C249" t="s">
         <v>547</v>
-      </c>
-      <c r="C249" t="s">
-        <v>548</v>
       </c>
       <c r="D249" t="s">
         <v>11</v>
@@ -6572,13 +6569,13 @@
         <v>8809716072989</v>
       </c>
       <c r="B250" t="s">
+        <v>548</v>
+      </c>
+      <c r="C250" t="s">
         <v>549</v>
       </c>
-      <c r="C250" t="s">
-        <v>550</v>
-      </c>
       <c r="D250" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E250">
         <v>40</v>
@@ -6589,16 +6586,16 @@
         <v>8809716073016</v>
       </c>
       <c r="B251" t="s">
+        <v>550</v>
+      </c>
+      <c r="C251" t="s">
         <v>551</v>
       </c>
-      <c r="C251" t="s">
-        <v>552</v>
-      </c>
       <c r="D251" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E251">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6606,16 +6603,16 @@
         <v>8809716073047</v>
       </c>
       <c r="B252" t="s">
+        <v>552</v>
+      </c>
+      <c r="C252" t="s">
         <v>553</v>
       </c>
-      <c r="C252" t="s">
-        <v>554</v>
-      </c>
       <c r="D252" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E252">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6623,16 +6620,16 @@
         <v>8809716073078</v>
       </c>
       <c r="B253" t="s">
+        <v>554</v>
+      </c>
+      <c r="C253" t="s">
         <v>555</v>
-      </c>
-      <c r="C253" t="s">
-        <v>556</v>
       </c>
       <c r="D253" t="s">
         <v>87</v>
       </c>
       <c r="E253">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6640,10 +6637,10 @@
         <v>8809716073542</v>
       </c>
       <c r="B254" t="s">
+        <v>556</v>
+      </c>
+      <c r="C254" t="s">
         <v>557</v>
-      </c>
-      <c r="C254" t="s">
-        <v>558</v>
       </c>
       <c r="D254" t="s">
         <v>42</v>
@@ -6657,10 +6654,10 @@
         <v>8809716075003</v>
       </c>
       <c r="B255" t="s">
+        <v>558</v>
+      </c>
+      <c r="C255" t="s">
         <v>559</v>
-      </c>
-      <c r="C255" t="s">
-        <v>560</v>
       </c>
       <c r="D255" t="s">
         <v>87</v>
@@ -6674,13 +6671,13 @@
         <v>8809716075034</v>
       </c>
       <c r="B256" t="s">
+        <v>560</v>
+      </c>
+      <c r="C256" t="s">
         <v>561</v>
       </c>
-      <c r="C256" t="s">
-        <v>562</v>
-      </c>
       <c r="D256" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E256">
         <v>10</v>
@@ -6691,13 +6688,13 @@
         <v>8809716075065</v>
       </c>
       <c r="B257" t="s">
+        <v>562</v>
+      </c>
+      <c r="C257" t="s">
         <v>563</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>564</v>
-      </c>
-      <c r="D257" t="s">
-        <v>565</v>
       </c>
       <c r="E257">
         <v>30</v>
@@ -6708,16 +6705,16 @@
         <v>8809716075096</v>
       </c>
       <c r="B258" t="s">
+        <v>565</v>
+      </c>
+      <c r="C258" t="s">
         <v>566</v>
       </c>
-      <c r="C258" t="s">
-        <v>567</v>
-      </c>
       <c r="D258" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E258">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6725,13 +6722,13 @@
         <v>8809716075577</v>
       </c>
       <c r="B259" t="s">
+        <v>567</v>
+      </c>
+      <c r="C259" t="s">
         <v>568</v>
       </c>
-      <c r="C259" t="s">
-        <v>569</v>
-      </c>
       <c r="D259" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E259">
         <v>30</v>
@@ -6742,10 +6739,10 @@
         <v>8809716075591</v>
       </c>
       <c r="B260" t="s">
+        <v>569</v>
+      </c>
+      <c r="C260" t="s">
         <v>570</v>
-      </c>
-      <c r="C260" t="s">
-        <v>571</v>
       </c>
       <c r="D260" t="s">
         <v>82</v>
@@ -6759,16 +6756,16 @@
         <v>8809716075669</v>
       </c>
       <c r="B261" t="s">
+        <v>571</v>
+      </c>
+      <c r="C261" t="s">
         <v>572</v>
-      </c>
-      <c r="C261" t="s">
-        <v>573</v>
       </c>
       <c r="D261" t="s">
         <v>48</v>
       </c>
       <c r="E261">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6776,16 +6773,16 @@
         <v>8809716075690</v>
       </c>
       <c r="B262" t="s">
+        <v>573</v>
+      </c>
+      <c r="C262" t="s">
         <v>574</v>
-      </c>
-      <c r="C262" t="s">
-        <v>575</v>
       </c>
       <c r="D262" t="s">
         <v>68</v>
       </c>
       <c r="E262">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6793,16 +6790,16 @@
         <v>8809716075720</v>
       </c>
       <c r="B263" t="s">
+        <v>575</v>
+      </c>
+      <c r="C263" t="s">
         <v>576</v>
-      </c>
-      <c r="C263" t="s">
-        <v>577</v>
       </c>
       <c r="D263" t="s">
         <v>8</v>
       </c>
       <c r="E263">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6810,10 +6807,10 @@
         <v>8809716075751</v>
       </c>
       <c r="B264" t="s">
+        <v>577</v>
+      </c>
+      <c r="C264" t="s">
         <v>578</v>
-      </c>
-      <c r="C264" t="s">
-        <v>579</v>
       </c>
       <c r="D264" t="s">
         <v>35</v>
@@ -6827,10 +6824,10 @@
         <v>887276344379</v>
       </c>
       <c r="B265" t="s">
+        <v>579</v>
+      </c>
+      <c r="C265" t="s">
         <v>580</v>
-      </c>
-      <c r="C265" t="s">
-        <v>581</v>
       </c>
       <c r="D265" t="s">
         <v>53</v>
@@ -6844,10 +6841,10 @@
         <v>887276360331</v>
       </c>
       <c r="B266" t="s">
+        <v>581</v>
+      </c>
+      <c r="C266" t="s">
         <v>582</v>
-      </c>
-      <c r="C266" t="s">
-        <v>583</v>
       </c>
       <c r="D266" t="s">
         <v>40</v>
@@ -6861,10 +6858,10 @@
         <v>887276360409</v>
       </c>
       <c r="B267" t="s">
+        <v>583</v>
+      </c>
+      <c r="C267" t="s">
         <v>584</v>
-      </c>
-      <c r="C267" t="s">
-        <v>585</v>
       </c>
       <c r="D267" t="s">
         <v>90</v>
@@ -6878,10 +6875,10 @@
         <v>887276361574</v>
       </c>
       <c r="B268" t="s">
+        <v>585</v>
+      </c>
+      <c r="C268" t="s">
         <v>586</v>
-      </c>
-      <c r="C268" t="s">
-        <v>587</v>
       </c>
       <c r="D268" t="s">
         <v>40</v>
@@ -6895,10 +6892,10 @@
         <v>887276363875</v>
       </c>
       <c r="B269" t="s">
+        <v>587</v>
+      </c>
+      <c r="C269" t="s">
         <v>588</v>
-      </c>
-      <c r="C269" t="s">
-        <v>589</v>
       </c>
       <c r="D269" t="s">
         <v>42</v>
@@ -6912,13 +6909,13 @@
         <v>887276363882</v>
       </c>
       <c r="B270" t="s">
+        <v>589</v>
+      </c>
+      <c r="C270" t="s">
         <v>590</v>
       </c>
-      <c r="C270" t="s">
-        <v>591</v>
-      </c>
       <c r="D270" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E270">
         <v>10</v>
@@ -6929,16 +6926,16 @@
         <v>887276373492</v>
       </c>
       <c r="B271" t="s">
+        <v>591</v>
+      </c>
+      <c r="C271" t="s">
         <v>592</v>
       </c>
-      <c r="C271" t="s">
-        <v>593</v>
-      </c>
       <c r="D271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E271">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6946,13 +6943,13 @@
         <v>887276391830</v>
       </c>
       <c r="B272" t="s">
+        <v>593</v>
+      </c>
+      <c r="C272" t="s">
         <v>594</v>
       </c>
-      <c r="C272" t="s">
-        <v>595</v>
-      </c>
       <c r="D272" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E272">
         <v>17</v>
@@ -6963,13 +6960,13 @@
         <v>887276391861</v>
       </c>
       <c r="B273" t="s">
+        <v>595</v>
+      </c>
+      <c r="C273" t="s">
         <v>596</v>
       </c>
-      <c r="C273" t="s">
-        <v>597</v>
-      </c>
       <c r="D273" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E273">
         <v>11</v>
@@ -6980,16 +6977,16 @@
         <v>887276391915</v>
       </c>
       <c r="B274" t="s">
+        <v>597</v>
+      </c>
+      <c r="C274" t="s">
         <v>598</v>
       </c>
-      <c r="C274" t="s">
-        <v>599</v>
-      </c>
       <c r="D274" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E274">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6997,13 +6994,13 @@
         <v>887276392479</v>
       </c>
       <c r="B275" t="s">
+        <v>599</v>
+      </c>
+      <c r="C275" t="s">
         <v>600</v>
       </c>
-      <c r="C275" t="s">
-        <v>601</v>
-      </c>
       <c r="D275" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E275">
         <v>38</v>
@@ -7014,13 +7011,13 @@
         <v>887276392516</v>
       </c>
       <c r="B276" t="s">
+        <v>601</v>
+      </c>
+      <c r="C276" t="s">
         <v>602</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>603</v>
-      </c>
-      <c r="D276" t="s">
-        <v>604</v>
       </c>
       <c r="E276">
         <v>21</v>
@@ -7031,13 +7028,13 @@
         <v>887276392561</v>
       </c>
       <c r="B277" t="s">
+        <v>604</v>
+      </c>
+      <c r="C277" t="s">
         <v>605</v>
       </c>
-      <c r="C277" t="s">
-        <v>606</v>
-      </c>
       <c r="D277" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E277">
         <v>20</v>
@@ -7048,16 +7045,16 @@
         <v>887276435336</v>
       </c>
       <c r="B278" t="s">
+        <v>606</v>
+      </c>
+      <c r="C278" t="s">
         <v>607</v>
       </c>
-      <c r="C278" t="s">
-        <v>608</v>
-      </c>
       <c r="D278" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E278">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7065,30 +7062,30 @@
         <v>887276435558</v>
       </c>
       <c r="B279" t="s">
+        <v>608</v>
+      </c>
+      <c r="C279" t="s">
         <v>609</v>
       </c>
-      <c r="C279" t="s">
+      <c r="D279" t="s">
         <v>610</v>
       </c>
-      <c r="D279" t="s">
-        <v>611</v>
-      </c>
       <c r="E279">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B280" t="s">
+        <v>611</v>
+      </c>
+      <c r="C280" t="s">
         <v>612</v>
       </c>
-      <c r="B280" t="s">
-        <v>612</v>
-      </c>
-      <c r="C280" t="s">
-        <v>613</v>
-      </c>
       <c r="D280" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E280">
         <v>25</v>
@@ -7096,33 +7093,33 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B281" t="s">
+        <v>613</v>
+      </c>
+      <c r="C281" t="s">
         <v>614</v>
-      </c>
-      <c r="B281" t="s">
-        <v>614</v>
-      </c>
-      <c r="C281" t="s">
-        <v>615</v>
       </c>
       <c r="D281" t="s">
         <v>8</v>
       </c>
       <c r="E281">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B282" t="s">
+        <v>615</v>
+      </c>
+      <c r="C282" t="s">
         <v>616</v>
       </c>
-      <c r="B282" t="s">
-        <v>616</v>
-      </c>
-      <c r="C282" t="s">
-        <v>617</v>
-      </c>
       <c r="D282" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E282">
         <v>16</v>
@@ -7130,33 +7127,33 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B283" t="s">
+        <v>617</v>
+      </c>
+      <c r="C283" t="s">
         <v>618</v>
-      </c>
-      <c r="B283" t="s">
-        <v>618</v>
-      </c>
-      <c r="C283" t="s">
-        <v>619</v>
       </c>
       <c r="D283" t="s">
         <v>8</v>
       </c>
       <c r="E283">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B284" t="s">
+        <v>619</v>
+      </c>
+      <c r="C284" t="s">
         <v>620</v>
       </c>
-      <c r="B284" t="s">
-        <v>620</v>
-      </c>
-      <c r="C284" t="s">
-        <v>621</v>
-      </c>
       <c r="D284" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E284">
         <v>40</v>
@@ -7164,64 +7161,64 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B285" t="s">
+        <v>621</v>
+      </c>
+      <c r="C285" t="s">
         <v>622</v>
       </c>
-      <c r="B285" t="s">
-        <v>622</v>
-      </c>
-      <c r="C285" t="s">
-        <v>623</v>
-      </c>
       <c r="D285" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E285">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B286" t="s">
+        <v>623</v>
+      </c>
+      <c r="C286" t="s">
         <v>624</v>
       </c>
-      <c r="B286" t="s">
-        <v>624</v>
-      </c>
-      <c r="C286" t="s">
-        <v>625</v>
-      </c>
       <c r="D286" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E286">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B287" t="s">
+        <v>625</v>
+      </c>
+      <c r="C287" t="s">
         <v>626</v>
       </c>
-      <c r="B287" t="s">
-        <v>626</v>
-      </c>
-      <c r="C287" t="s">
-        <v>627</v>
-      </c>
       <c r="D287" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E287">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B288" t="s">
+        <v>627</v>
+      </c>
+      <c r="C288" t="s">
         <v>628</v>
-      </c>
-      <c r="B288" t="s">
-        <v>628</v>
-      </c>
-      <c r="C288" t="s">
-        <v>629</v>
       </c>
       <c r="D288" t="s">
         <v>42</v>
@@ -7232,13 +7229,13 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B289" t="s">
+        <v>629</v>
+      </c>
+      <c r="C289" t="s">
         <v>630</v>
-      </c>
-      <c r="B289" t="s">
-        <v>630</v>
-      </c>
-      <c r="C289" t="s">
-        <v>631</v>
       </c>
       <c r="D289" t="s">
         <v>29</v>
@@ -7249,16 +7246,16 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B290" t="s">
+        <v>631</v>
+      </c>
+      <c r="C290" t="s">
         <v>632</v>
       </c>
-      <c r="B290" t="s">
-        <v>632</v>
-      </c>
-      <c r="C290" t="s">
-        <v>633</v>
-      </c>
       <c r="D290" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E290">
         <v>50</v>

--- a/Files/Reporte_Stock_adm/900987412_3/Reporte_Stock_MAS LOGISTICA_1.xlsx
+++ b/Files/Reporte_Stock_adm/900987412_3/Reporte_Stock_MAS LOGISTICA_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="908">
   <si>
     <t>REPORTE STOCK CLIENTE MAS LOGISTICA
 SUC. IMPORTACIONES LANCH</t>
@@ -45,6 +45,84 @@
     <t>2C</t>
   </si>
   <si>
+    <t>064CS24872</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Liquid Air Apple iPhone XR - Negro</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>XDSG0016</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Apple iPhone XR - Camo</t>
+  </si>
+  <si>
+    <t>9D</t>
+  </si>
+  <si>
+    <t>DWSG0002</t>
+  </si>
+  <si>
+    <t>Vidrio Templado Flexible Ringke Dual Easy Wing Samsung Galaxy A71 - (1+1)</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>FUSG0041</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Samsung Galaxy S20 - Negro</t>
+  </si>
+  <si>
+    <t>9E</t>
+  </si>
+  <si>
+    <t>ASD01117</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Rugged Armor Apple Airpods 1/2 - Negro</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>FUSG0062</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Samsung Galaxy Note 20 Ultra - Negro</t>
+  </si>
+  <si>
+    <t>XDSG0034</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Samsung Galaxy A21S - Camo</t>
+  </si>
+  <si>
+    <t>7D</t>
+  </si>
+  <si>
+    <t>EP-DA705BWEGWW</t>
+  </si>
+  <si>
+    <t>Cable USB C a UBC C Samsung 60W - Blanco</t>
+  </si>
+  <si>
+    <t>1G</t>
+  </si>
+  <si>
+    <t>EP-DA705BBEGWW</t>
+  </si>
+  <si>
+    <t>Cable de datos USB C a USB C - Negro - Retail</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
     <t>042GL20423</t>
   </si>
   <si>
@@ -87,6 +165,15 @@
     <t>1D</t>
   </si>
   <si>
+    <t>571CS21119</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Crystal Shell Samsung Galaxy S8 Plus</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
     <t>565CS21631</t>
   </si>
   <si>
@@ -111,6 +198,15 @@
     <t>10F</t>
   </si>
   <si>
+    <t>ACWC0001</t>
+  </si>
+  <si>
+    <t>Cargador Inalámbrico Ringke Carga Rápida 10W</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
     <t>057CS22123</t>
   </si>
   <si>
@@ -129,6 +225,15 @@
     <t>3A</t>
   </si>
   <si>
+    <t>057GL22586</t>
+  </si>
+  <si>
+    <t>Vidrio Templado Spigen Glas. tR Slim Apple iPhone 11 Pro / iPhone XS / iPhone X</t>
+  </si>
+  <si>
+    <t>1F</t>
+  </si>
+  <si>
     <t>Estuche VRS Crystal Chrome Apple iPhone XR - Claro</t>
   </si>
   <si>
@@ -150,6 +255,12 @@
     <t>0C</t>
   </si>
   <si>
+    <t>FSSG0031</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion Samsung Galaxy A8 2018 - Claro</t>
+  </si>
+  <si>
     <t>ACFI0008</t>
   </si>
   <si>
@@ -168,15 +279,27 @@
     <t>6B</t>
   </si>
   <si>
+    <t>FXHW0002</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Huawei P20 Pro - Negro</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>FUAP0001</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Apple Iphone 7/ iPhone 8 - Negro</t>
+  </si>
+  <si>
     <t>FUSG0001</t>
   </si>
   <si>
     <t>Estuche Ringke Fusion X Samsung Galaxy S9 Plus - Negro</t>
   </si>
   <si>
-    <t>9D</t>
-  </si>
-  <si>
     <t>FUSG0003</t>
   </si>
   <si>
@@ -186,13 +309,25 @@
     <t>5C</t>
   </si>
   <si>
+    <t>062CS24469</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Rugged Armor Apple Watch 5 4 44mm - Negro</t>
+  </si>
+  <si>
     <t>062CS24470</t>
   </si>
   <si>
     <t>Estuche Spigen Rugged Armor Apple Watch 5 4 44mm - Rose Gold</t>
   </si>
   <si>
-    <t>5B</t>
+    <t>064GL24527</t>
+  </si>
+  <si>
+    <t>Vidrio Templado Spigen Glass. tR SLIM HD Apple iPhone 11 / XR</t>
+  </si>
+  <si>
+    <t>3G</t>
   </si>
   <si>
     <t>065GL24540</t>
@@ -207,24 +342,12 @@
     <t>Estuche Spigen Silicone Case Apple Airpods 1/2 - Negro</t>
   </si>
   <si>
-    <t>3C</t>
-  </si>
-  <si>
     <t>066CS24810</t>
   </si>
   <si>
     <t>Estuche Spigen Silicone Case Apple Airpods 1/2 - Rosa</t>
   </si>
   <si>
-    <t>1F</t>
-  </si>
-  <si>
-    <t>064CS24872</t>
-  </si>
-  <si>
-    <t>Estuche Spigen Liquid Air Apple iPhone XR - Negro</t>
-  </si>
-  <si>
     <t>065CS25126</t>
   </si>
   <si>
@@ -252,9 +375,6 @@
     <t>Estuche Ringke Fusion X Apple Iphone Xs Max - Negro</t>
   </si>
   <si>
-    <t>9E</t>
-  </si>
-  <si>
     <t>FUAP0007</t>
   </si>
   <si>
@@ -300,15 +420,27 @@
     <t>Vidrio Flexible Ringke Dual Easy Full Samsung Galaxy S9</t>
   </si>
   <si>
-    <t>0A</t>
-  </si>
-  <si>
     <t>ESXI0001</t>
   </si>
   <si>
     <t>Vidrio Templado Flexible Ringke Dual Easy Full Xiaomi Pocophone F1 - (1+1)</t>
   </si>
   <si>
+    <t>IGSG0011</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>ACRI0005</t>
+  </si>
+  <si>
+    <t>Anillo Soporte Ringke Prisma Combo Negro/Claro</t>
+  </si>
+  <si>
+    <t>0F</t>
+  </si>
+  <si>
     <t>FXXI0001</t>
   </si>
   <si>
@@ -342,12 +474,36 @@
     <t>3F</t>
   </si>
   <si>
+    <t>ACCM0010</t>
+  </si>
+  <si>
+    <t>Soporte de Carro Magnético Ringke Power Clip Wing - Negro</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>ESSG0007</t>
+  </si>
+  <si>
+    <t>Vidrio Templado Flexible Ringke Dual Easy Full Samsung Galaxy A7 2018 - (1+1)</t>
+  </si>
+  <si>
     <t>ESHW0001</t>
   </si>
   <si>
     <t>Vidrio Flexible Ringke Dual Easy Full Huawei Mate 20 Lite</t>
   </si>
   <si>
+    <t>FXHW0009</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Huawei Mate 20 - Negro</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
     <t>FXHW0007</t>
   </si>
   <si>
@@ -372,15 +528,21 @@
     <t>4A</t>
   </si>
   <si>
+    <t>GLAP0003</t>
+  </si>
+  <si>
+    <t>Vidrio Templado Ringke Idfullgl* Apple Iphone Xr/11 - BASIC</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
     <t>FSSG0055</t>
   </si>
   <si>
     <t>Estuche Ringke Fusion Samsung Galaxy S10 - Claro</t>
   </si>
   <si>
-    <t>3G</t>
-  </si>
-  <si>
     <t>FUSG0008</t>
   </si>
   <si>
@@ -396,6 +558,24 @@
     <t>Vidrio Templado Flexible Dual Easy Full Samsung Galaxy S10 - (1+1)</t>
   </si>
   <si>
+    <t>FSSG0058</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion Samsung Galaxy S10 Plus - Claro</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>FUSG0010</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Samsung Galaxy S10 Plus- Negro</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
     <t>ESSG0009</t>
   </si>
   <si>
@@ -405,15 +585,21 @@
     <t>1E</t>
   </si>
   <si>
+    <t>FSSG0061</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion Samsung Galaxy S10E - Claro</t>
+  </si>
+  <si>
+    <t>0D</t>
+  </si>
+  <si>
     <t>FUSG0012</t>
   </si>
   <si>
     <t>Estuche Ringke Fusion X Samsung Galaxy S10E - Negro</t>
   </si>
   <si>
-    <t>7B</t>
-  </si>
-  <si>
     <t>FUSG0014</t>
   </si>
   <si>
@@ -423,6 +609,12 @@
     <t>2H</t>
   </si>
   <si>
+    <t>FUSG0015</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Samsung Galaxy S10 Plus - Azul</t>
+  </si>
+  <si>
     <t>000CP25597</t>
   </si>
   <si>
@@ -435,7 +627,10 @@
     <t>Cable de datos USB C a USB C Spigen C11C1 (1.5m/60W/480Mbps) - Negro</t>
   </si>
   <si>
-    <t>1B</t>
+    <t>605CS25799</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Liquid Air Samsung Galaxy S10 - Negro</t>
   </si>
   <si>
     <t>000CA27021</t>
@@ -468,9 +663,6 @@
     <t>Estuche Ringke Fusion X Huawei P30 - Negro</t>
   </si>
   <si>
-    <t>4E</t>
-  </si>
-  <si>
     <t>FXHW0014</t>
   </si>
   <si>
@@ -492,9 +684,6 @@
     <t>Estuche Ringke Fusion X Huawei P30 Pro - Negro</t>
   </si>
   <si>
-    <t>8B</t>
-  </si>
-  <si>
     <t>FXHW0016</t>
   </si>
   <si>
@@ -507,18 +696,21 @@
     <t>Estuche Ringke Fusion X Samsung Galaxy S10 - Camo</t>
   </si>
   <si>
+    <t>XDSG0006</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Samsung Galaxy S10 Plus - Camo</t>
+  </si>
+  <si>
+    <t>10D</t>
+  </si>
+  <si>
     <t>XDSG0011</t>
   </si>
   <si>
     <t>Estuche Ringke Fusion X Samsung Galaxy S10E - Camo</t>
   </si>
   <si>
-    <t>XDSG0016</t>
-  </si>
-  <si>
-    <t>Estuche Ringke Fusion X Apple iPhone XR - Camo</t>
-  </si>
-  <si>
     <t>FUSG0019</t>
   </si>
   <si>
@@ -555,6 +747,12 @@
     <t>Estuche Ringke Fusion Samsung Galaxy S10 5G - Claro</t>
   </si>
   <si>
+    <t>RGAP0012</t>
+  </si>
+  <si>
+    <t>Borde Protector Ringke Bezel Styling Apple Watch 5 - 4 - 44mm - 44mm - AW4-44-03 (StainlessSteel)</t>
+  </si>
+  <si>
     <t>FXHW0017</t>
   </si>
   <si>
@@ -585,16 +783,16 @@
     <t>Estuche Ringke Fusion X Samsung Galaxy A70 - Negro</t>
   </si>
   <si>
-    <t>1G</t>
-  </si>
-  <si>
     <t>FUSG0026</t>
   </si>
   <si>
     <t>Estuche Ringke Fusion X Samsung Galaxy A70 - Azul</t>
   </si>
   <si>
-    <t>9C</t>
+    <t>XDSG0018</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Design Samsung Galaxy A70 - Camo Negro</t>
   </si>
   <si>
     <t>XDSG0017</t>
@@ -621,6 +819,18 @@
     <t>11E</t>
   </si>
   <si>
+    <t>FXXI0007</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Xiaomi Redmi Note 7 - Azul</t>
+  </si>
+  <si>
+    <t>FXXI0003</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Xiaomi K20/K20Pro(Mi9T/Mi9Tpro) - Negro</t>
+  </si>
+  <si>
     <t>FXXI0005</t>
   </si>
   <si>
@@ -636,15 +846,18 @@
     <t>Estuche Ringke Fusion X Xiaomi K20/K20Pro(Mi9T/Mi9Tpro) - Azul</t>
   </si>
   <si>
+    <t>XDAP0001</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Apple Iphone 7/8 - Camo</t>
+  </si>
+  <si>
     <t>FUSG0031</t>
   </si>
   <si>
     <t>Estuche Ringke Fusion X Samsung Galaxy S10 5G - Negro</t>
   </si>
   <si>
-    <t>2B</t>
-  </si>
-  <si>
     <t>ACSG0001</t>
   </si>
   <si>
@@ -693,6 +906,12 @@
     <t>Estuche Ringke Onyx Samsung Galaxy Note 10 Plus - Negro</t>
   </si>
   <si>
+    <t>ACEC0006</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Apple Airpods - Negro</t>
+  </si>
+  <si>
     <t>ACEC0007</t>
   </si>
   <si>
@@ -705,27 +924,60 @@
     <t>Estuche Ringke Apple Airpods - Rosa</t>
   </si>
   <si>
+    <t>ACEC0009</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Apple Airpods - Azul</t>
+  </si>
+  <si>
     <t>ACEC0010</t>
   </si>
   <si>
     <t>Estuche Ringke Apple Airpods - Mostaza</t>
   </si>
   <si>
+    <t>ACEC0002</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Samsung Galaxy Buds Plus / Galaxy Buds - Blanco</t>
+  </si>
+  <si>
+    <t>ACEC0003</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Samsung Galaxy Buds Plus / Galaxy Buds - Rosa</t>
+  </si>
+  <si>
+    <t>IGSG0014</t>
+  </si>
+  <si>
+    <t>Vidrio Templado Lente Cámara Ringke Idglcamera* Samsung Galaxy Note 10 / Note 10 Plus - 3pack</t>
+  </si>
+  <si>
+    <t>RGSG0043</t>
+  </si>
+  <si>
+    <t>Borde Protector Ringke Bezel Styling Samsung Galaxy Gear S3 - S3 Classic - 46mm - GW-46-60 (StainlessSteel)</t>
+  </si>
+  <si>
     <t>076CS27179</t>
   </si>
   <si>
     <t>Estuche Spigen Liquid Crystal Apple iPhone 11 - Claro</t>
   </si>
   <si>
+    <t>076CS27184</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Liquid Air Apple iPhone 11 - Negro</t>
+  </si>
+  <si>
     <t>077CS27232</t>
   </si>
   <si>
     <t>Estuche Spigen Liquid Air Apple iPhone 11 Pro - Negro</t>
   </si>
   <si>
-    <t>10D</t>
-  </si>
-  <si>
     <t>ACS00217</t>
   </si>
   <si>
@@ -849,6 +1101,12 @@
     <t>Estuche Spigen Liquid Air Samsung Galaxy S20 - Negro</t>
   </si>
   <si>
+    <t>ASD00839</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Apple Airpods Pro Spigen Silicone Fit - Negro</t>
+  </si>
+  <si>
     <t>ASD00840</t>
   </si>
   <si>
@@ -861,15 +1119,18 @@
     <t>Estuche Spigen Silicone Fit Apple Airpods Pro - Rosa</t>
   </si>
   <si>
+    <t>ACS00972</t>
+  </si>
+  <si>
+    <t>Estuche Spigen Liquid Air Huawei P40 Lite - Negro</t>
+  </si>
+  <si>
     <t>ACS00974</t>
   </si>
   <si>
     <t>Estuche Spigen Rugged Armor Samsung Galaxy A21S - Negro</t>
   </si>
   <si>
-    <t>10A</t>
-  </si>
-  <si>
     <t>ACS00975</t>
   </si>
   <si>
@@ -891,6 +1152,12 @@
     <t>Estuche Spigen Rugged Armor Samsung Galaxy Buds Plus / Buds - Negro</t>
   </si>
   <si>
+    <t>XDXI0001</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Design Xiaomi K20/K20Pro(Mi9T/Mi9Tpro) - Camo Negro</t>
+  </si>
+  <si>
     <t>XDXI0002</t>
   </si>
   <si>
@@ -909,6 +1176,15 @@
     <t>Estuche Ringke Fusion X Apple Iphone 11 - Rojo</t>
   </si>
   <si>
+    <t>XDAP0002</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Design Apple Iphone 11 - Camo</t>
+  </si>
+  <si>
+    <t>6D</t>
+  </si>
+  <si>
     <t>OXAP0017</t>
   </si>
   <si>
@@ -924,9 +1200,6 @@
     <t>Estuche Ringke Air S Apple iPhone 11 - Coral</t>
   </si>
   <si>
-    <t>7D</t>
-  </si>
-  <si>
     <t>ADAP0008</t>
   </si>
   <si>
@@ -945,18 +1218,12 @@
     <t>Estuche Ringke Air S Apple iPhone 11 - Arena</t>
   </si>
   <si>
-    <t>2F</t>
-  </si>
-  <si>
     <t>XDAP0003</t>
   </si>
   <si>
     <t>Estuche Ringke Fusion X Design Apple Iphone 11 Pro - Camo Negro</t>
   </si>
   <si>
-    <t>3D</t>
-  </si>
-  <si>
     <t>OXAP0018</t>
   </si>
   <si>
@@ -981,13 +1248,31 @@
     <t>Estuche Ringke Air S Apple iPhone 11 Pro Max - Rosa</t>
   </si>
   <si>
+    <t>EMSG0002</t>
+  </si>
+  <si>
+    <t>Vidrio Templado Flexible Ringke Dual Easy Matte Samsung Galaxy Note 10 Plus - (1+1)</t>
+  </si>
+  <si>
     <t>FMSG0001</t>
   </si>
   <si>
     <t>Estuche Ringke Fusion Matte Samsung Galaxy Note 10 Plus - Claro</t>
   </si>
   <si>
-    <t>0D</t>
+    <t>FMAP0001</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion Matte Apple Iphone 11 - Claro</t>
+  </si>
+  <si>
+    <t>XMAP0001</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Matte Apple Iphone 11 - Negro</t>
+  </si>
+  <si>
+    <t>5D</t>
   </si>
   <si>
     <t>FMAP0002</t>
@@ -1017,6 +1302,24 @@
     <t>Estuche Ringke Fusion X Matte Apple Iphone 11 Pro Max - Negro</t>
   </si>
   <si>
+    <t>RGSG0049</t>
+  </si>
+  <si>
+    <t>Borde Protector Ringke Bezel Styling Samsung Galaxy Active 2 - 44mm - GWA2-44-01 (StainlessSteel)</t>
+  </si>
+  <si>
+    <t>RGSG0051</t>
+  </si>
+  <si>
+    <t>Borde Protector Ringke Bezel Styling Samsung Galaxy Active 2 - 44mm - GWA2-44-03 (StainlessSteel)</t>
+  </si>
+  <si>
+    <t>FXHW0019</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Huawei Mate 30 Pro - Negro</t>
+  </si>
+  <si>
     <t>FXHW0020</t>
   </si>
   <si>
@@ -1062,9 +1365,6 @@
     <t>Estuche Ringke Fusion X Xiaomi Redmi Note 8 - Camo</t>
   </si>
   <si>
-    <t>5D</t>
-  </si>
-  <si>
     <t>ESXI0002</t>
   </si>
   <si>
@@ -1107,6 +1407,12 @@
     <t>Estuche Ringke Fusion X Apple iPhone 11 - Verde</t>
   </si>
   <si>
+    <t>XMAP0005</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Matte Apple Iphone 11 Pro - Verde</t>
+  </si>
+  <si>
     <t>XMAP0006</t>
   </si>
   <si>
@@ -1131,6 +1437,24 @@
     <t>Estuche Ringke Fusion Mate Apple iPhone XR - Claro</t>
   </si>
   <si>
+    <t>ACCS0001</t>
+  </si>
+  <si>
+    <t>Protector de lente de cámara Ringke Camera Styling Apple iPhone 11 - Negro</t>
+  </si>
+  <si>
+    <t>ACCS0002</t>
+  </si>
+  <si>
+    <t>Protector de lente de cámara Ringke Camera Styling Apple iPhone 11 - Plata</t>
+  </si>
+  <si>
+    <t>ACCS0003</t>
+  </si>
+  <si>
+    <t>Protector Lente Cámaras Ringke Camera Styling Apple iPhone 11 Pro - 11 Pro Max - Negro</t>
+  </si>
+  <si>
     <t>ACCS0004</t>
   </si>
   <si>
@@ -1200,19 +1524,31 @@
     <t>Vidrio Templado Flexible Ringke Dual Easy Wing Samsung Galaxy A51 - (1+1)</t>
   </si>
   <si>
+    <t>FUSG0039</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Samsung Galaxy A71 - Negro</t>
+  </si>
+  <si>
+    <t>6C</t>
+  </si>
+  <si>
+    <t>FUSG0040</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Samsung Galaxy A71 - Azul</t>
+  </si>
+  <si>
     <t>XDSG0024</t>
   </si>
   <si>
     <t>Estuche Ringke Fusion X Samsung Galaxy A71 - Camo</t>
   </si>
   <si>
-    <t>0F</t>
-  </si>
-  <si>
-    <t>DWSG0002</t>
-  </si>
-  <si>
-    <t>Vidrio Templado Flexible Ringke Dual Easy Wing Samsung Galaxy A71 - (1+1)</t>
+    <t>ACEC0014</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Apple Airpods Pro Layered Case - Rosa</t>
   </si>
   <si>
     <t>FXXI0016</t>
@@ -1221,10 +1557,22 @@
     <t>Estuche Ringke Fusion X Xiaomi Mi Note 10/Note 10 Pro/Cc9 Pro - Verde</t>
   </si>
   <si>
-    <t>FUSG0041</t>
-  </si>
-  <si>
-    <t>Estuche Ringke Fusion X Samsung Galaxy S20 - Negro</t>
+    <t>ACEC0015</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Apple Airpods Pro - Negro/Naranja</t>
+  </si>
+  <si>
+    <t>FMAP0006</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Matte Apple Iphone 11 - Hielo</t>
+  </si>
+  <si>
+    <t>FMAP0007</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion Side Matte Apple Iphone 11 - Negro</t>
   </si>
   <si>
     <t>FUSG0044</t>
@@ -1266,15 +1614,18 @@
     <t>Estuche Ringke Fusion X Design Samsung Galaxy S20 Plus - Camo Negro</t>
   </si>
   <si>
+    <t>DWSG0004</t>
+  </si>
+  <si>
+    <t>Vidrio Flexible Ringke DualEasyWingFULL Samsung Galaxy S20 Plus - (1+1)</t>
+  </si>
+  <si>
     <t>FUSG0043</t>
   </si>
   <si>
     <t>Estuche Ringke Fusion X Samsung Galaxy S20 Ultra - Negro</t>
   </si>
   <si>
-    <t>6D</t>
-  </si>
-  <si>
     <t>FUSG0046</t>
   </si>
   <si>
@@ -1374,15 +1725,18 @@
     <t>Estuche Ringke Fusion X Xiaomi Redmi Note 8 Pro - Verde</t>
   </si>
   <si>
-    <t>4F</t>
-  </si>
-  <si>
     <t>IGSG0015</t>
   </si>
   <si>
     <t>Vidrio Templado Lente Cámara Ringke Idglcamera* Samsung Galaxy A51 - 3pack</t>
   </si>
   <si>
+    <t>FUSG0047</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Samsung Galaxy Note 10 Lite - Negro</t>
+  </si>
+  <si>
     <t>FUSG0049</t>
   </si>
   <si>
@@ -1425,12 +1779,6 @@
     <t>Estuche Ringke Fusion Samsung Galaxy A51 - Claro</t>
   </si>
   <si>
-    <t>ASD01117</t>
-  </si>
-  <si>
-    <t>Estuche Spigen Rugged Armor Apple Airpods 1/2 - Negro</t>
-  </si>
-  <si>
     <t>ACS01190</t>
   </si>
   <si>
@@ -1521,6 +1869,39 @@
     <t>Cargador Spigen PowerArc ArStation Pro iPhone 12 20W PE2009UJ</t>
   </si>
   <si>
+    <t>ACEC0016</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Samsung Galaxy Buds - Negro</t>
+  </si>
+  <si>
+    <t>RWSP034</t>
+  </si>
+  <si>
+    <t>Correa de mano Ringke - Negra</t>
+  </si>
+  <si>
+    <t>RWSP035</t>
+  </si>
+  <si>
+    <t>Correa de mano Ringke - Naranja Neón</t>
+  </si>
+  <si>
+    <t>RWSP036</t>
+  </si>
+  <si>
+    <t>Correa de hombro Ringke - Negra</t>
+  </si>
+  <si>
+    <t>RWSP037</t>
+  </si>
+  <si>
+    <t>Correa de hombro Ringke - Naranja Neón</t>
+  </si>
+  <si>
+    <t>0I</t>
+  </si>
+  <si>
     <t>ADSG0018</t>
   </si>
   <si>
@@ -1545,12 +1926,39 @@
     <t>Estuche Ringke Air S Samsung Galaxy S20 Ultra - Rojo</t>
   </si>
   <si>
+    <t>ACEC0019</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Samsung Galaxy Buds - Rojo</t>
+  </si>
+  <si>
+    <t>DWSG0006</t>
+  </si>
+  <si>
+    <t>Vidrio Flexible Ringke DualEasyWingFULL Samsung Galaxy Note 10 Lite - (1+1)</t>
+  </si>
+  <si>
     <t>DWSG0007</t>
   </si>
   <si>
     <t>Vidrio Flexible Ringke DualEasyWingFULL Samsung Galaxy S10 Lite - (1+1)</t>
   </si>
   <si>
+    <t>SLSG0043</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Slim Samsung Galaxy Z Flip - Claro</t>
+  </si>
+  <si>
+    <t>SLSG0044</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Slim Samsung Galaxy Z Flip - Negro</t>
+  </si>
+  <si>
+    <t>0H</t>
+  </si>
+  <si>
     <t>ASSG0002</t>
   </si>
   <si>
@@ -1563,6 +1971,12 @@
     <t>Estuche Ringke Air Sports Samsung Galaxy Active 2 44mm - Claro</t>
   </si>
   <si>
+    <t>SLSG0046</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Slim Samsung Galaxy Z Flip - Claro Mate</t>
+  </si>
+  <si>
     <t>FUSG0051</t>
   </si>
   <si>
@@ -1659,15 +2073,18 @@
     <t>Vidrio Templado Cámara Ringke IDGLCamera Samsung Galaxy S20 - 3pack</t>
   </si>
   <si>
+    <t>IGSG0017</t>
+  </si>
+  <si>
+    <t>Vidrio Templado Cámara Ringke IDGLCamera Samsung Galaxy S20 Plus - 3pack</t>
+  </si>
+  <si>
     <t>IGSG0018</t>
   </si>
   <si>
     <t>Vidrio Templado Cámara Ringke IDGLCamera Samsung Galaxy S20 Ultra - 3pack</t>
   </si>
   <si>
-    <t>0H</t>
-  </si>
-  <si>
     <t>DWSG0008</t>
   </si>
   <si>
@@ -1716,6 +2133,18 @@
     <t>Estuche Ringke Fusion X Apple iPhone SE 2020 / iPhone 8 - Camo</t>
   </si>
   <si>
+    <t>ACEC0017</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Samsung Galaxy Buds - Azul Cielo</t>
+  </si>
+  <si>
+    <t>ACEC0018</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Samsung Galaxy Buds - Azul</t>
+  </si>
+  <si>
     <t>XDAP0009</t>
   </si>
   <si>
@@ -1740,9 +2169,6 @@
     <t>Estuche Ringke Air S Apple iPhone SE 2020 / iPhone 8 - Lavanda</t>
   </si>
   <si>
-    <t>6C</t>
-  </si>
-  <si>
     <t>ADAP0024</t>
   </si>
   <si>
@@ -1779,6 +2205,12 @@
     <t>Estuche Ringke Fusion X Xiaomi Redmi Note 9S - Verde</t>
   </si>
   <si>
+    <t>XDXI0008</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Xiaomi Redmi Note 9S - Camo</t>
+  </si>
+  <si>
     <t>ESXI0005</t>
   </si>
   <si>
@@ -1845,6 +2277,12 @@
     <t>Vidrio Flexible Ringke Dual Easy Full Xiaomi Poco F2 Pro (1+1)</t>
   </si>
   <si>
+    <t>FSSG0078</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion Samsung Galaxy Tab S6 Lite - Claro</t>
+  </si>
+  <si>
     <t>RWSP038</t>
   </si>
   <si>
@@ -1950,6 +2388,12 @@
     <t>Estuche Ringke Air S Samsung Galaxy Note 20 - Negro</t>
   </si>
   <si>
+    <t>FSSG0082</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion Samsung Galaxy Note 20 Ultra - Claro</t>
+  </si>
+  <si>
     <t>FSSG0083</t>
   </si>
   <si>
@@ -1962,12 +2406,6 @@
     <t>Estuche Ringke Fusion Mate Samsung Galaxy Note 20 Ultra - Claro</t>
   </si>
   <si>
-    <t>FUSG0062</t>
-  </si>
-  <si>
-    <t>Estuche Ringke Fusion X Samsung Galaxy Note 20 Ultra - Negro</t>
-  </si>
-  <si>
     <t>XDSG0036</t>
   </si>
   <si>
@@ -2010,10 +2448,10 @@
     <t>Estuche Ringke Fusion X Samsung Galaxy A21S - Negro</t>
   </si>
   <si>
-    <t>XDSG0034</t>
-  </si>
-  <si>
-    <t>Estuche Ringke Fusion X Samsung Galaxy A21S - Camo</t>
+    <t>FUSG0060</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion X Samsung Galaxy A21S - Azul</t>
   </si>
   <si>
     <t>DWSG0012</t>
@@ -2040,6 +2478,12 @@
     <t>Vidrio de Cámara Ringke IDGlass Samsung Galaxy Note 20 Ultra (3 pack)</t>
   </si>
   <si>
+    <t>ACEC0021</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Slim X Samsung Galaxy Buds Live - Claro</t>
+  </si>
+  <si>
     <t>ACS02159</t>
   </si>
   <si>
@@ -2076,6 +2520,12 @@
     <t>Vidrio Flexible Ringke Dual Easy Wing Xiaomi Redmi Note 9 (1 + 1)</t>
   </si>
   <si>
+    <t>ACEC0023</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Slim X Samsung Galaxy Buds Live - Negro</t>
+  </si>
+  <si>
     <t>ACEC0024</t>
   </si>
   <si>
@@ -2094,6 +2544,12 @@
     <t>Combo Estuche Ringke Air Sports + Bezel Samsung Galaxy Watch 3 45mm Combo Pack - Negro</t>
   </si>
   <si>
+    <t>FSSG0088</t>
+  </si>
+  <si>
+    <t>Estuche Ringke Fusion Samsung Galaxy S20 FE - Claro</t>
+  </si>
+  <si>
     <t>DWSG0014</t>
   </si>
   <si>
@@ -2124,6 +2580,60 @@
     <t>Vidrio Flexible Ringke Dual Easy Wing Xiaomi Poco X3 NFC (1+1)</t>
   </si>
   <si>
+    <t>EP-TA20JBEUGUS</t>
+  </si>
+  <si>
+    <t>Cargador Samsung Carga Rápida 15W Caja - Negro</t>
+  </si>
+  <si>
+    <t>EB-U1200CSELUS</t>
+  </si>
+  <si>
+    <t>Cargador Portátil Power Bank Samsung Carga Inalámbrica 10000mAh - Plata</t>
+  </si>
+  <si>
+    <t>EP-P3105TBEGUS</t>
+  </si>
+  <si>
+    <t>Cargador Inalámbrico Samsung 15W + Cargador de pared</t>
+  </si>
+  <si>
+    <t>EF-ZN975CBEGUS</t>
+  </si>
+  <si>
+    <t>Estuche Clear View Cover Samsung Galaxy Note 10 Plus - Negro</t>
+  </si>
+  <si>
+    <t>EF-ZN975CLEGUS</t>
+  </si>
+  <si>
+    <t>Estuche Clear View Cover Samsung Galaxy Note 10 Plus - Azul</t>
+  </si>
+  <si>
+    <t>EP-TA800XWEGUS</t>
+  </si>
+  <si>
+    <t>Cargador Samsung Carga Rápida 25W USB C USB C- Blanco</t>
+  </si>
+  <si>
+    <t>EP-TA845XWEGCA</t>
+  </si>
+  <si>
+    <t>Cargador de pared Samsung 45W - Blanco</t>
+  </si>
+  <si>
+    <t>EP-TA845XBEGCA</t>
+  </si>
+  <si>
+    <t>Cargador de pared Samsung 45W - Negro</t>
+  </si>
+  <si>
+    <t>EP-TA800XBEGUS</t>
+  </si>
+  <si>
+    <t>Cargador Samsung Carga Rápida 25W USB C USB C- Negro</t>
+  </si>
+  <si>
     <t>EF-RG988CBEGUS</t>
   </si>
   <si>
@@ -2160,6 +2670,12 @@
     <t>Estuche Clear View Cover Samsung Galaxy S20 - Negro</t>
   </si>
   <si>
+    <t>EB-P3300XJEGUS</t>
+  </si>
+  <si>
+    <t>Cargador Power Bank Samsung 10000 25W</t>
+  </si>
+  <si>
     <t>EF-ZN985CBEGUS</t>
   </si>
   <si>
@@ -2170,6 +2686,60 @@
   </si>
   <si>
     <t>Estuche Clear View Cover Samsung Galaxy Note 20 - Negro</t>
+  </si>
+  <si>
+    <t>EO-IC100BBE-BULK</t>
+  </si>
+  <si>
+    <t>Audifonos Samsung AKG conector USB-C - Negro</t>
+  </si>
+  <si>
+    <t>EO-IC100BWE-BULK</t>
+  </si>
+  <si>
+    <t>Audifonos Samsung AKG conector USB-C - Blanco</t>
+  </si>
+  <si>
+    <t>EP-DG950CBE-BULK</t>
+  </si>
+  <si>
+    <t>Cable de datos USB C a USB A - Negro - Bulk</t>
+  </si>
+  <si>
+    <t>OU90-BLANCO</t>
+  </si>
+  <si>
+    <t>Cargador Samsung microUSB 1A - Blanco</t>
+  </si>
+  <si>
+    <t>TA20MICRO-BLANCO</t>
+  </si>
+  <si>
+    <t>Cargador Samsung Carga Rápida 15W microUSB - Blanco</t>
+  </si>
+  <si>
+    <t>TA20USBC-BLANCO</t>
+  </si>
+  <si>
+    <t>Cargador Samsung Carga Rápida 15W USB C - Blanco</t>
+  </si>
+  <si>
+    <t>TA20USBC-NEGRO</t>
+  </si>
+  <si>
+    <t>Cargador Samsung Carga Rápida 15W USB C - Negro</t>
+  </si>
+  <si>
+    <t>TA50-BLANCO</t>
+  </si>
+  <si>
+    <t>Cargador Samsung microUSB 1.55A - Blanco</t>
+  </si>
+  <si>
+    <t>TA800-NEGRO-BULK</t>
+  </si>
+  <si>
+    <t>Cargador Samsung Carga Rápida 25W - Negro - Bulk</t>
   </si>
 </sst>
 </file>
@@ -2579,7 +3149,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E321"/>
+  <dimension ref="A1:E416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2634,12 +3204,12 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4">
-        <v>8809466645396</v>
+        <v>8809613763935</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2651,12 +3221,12 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4">
-        <v>8809466646270</v>
+        <v>8809659043152</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -2668,12 +3238,12 @@
         <v>14</v>
       </c>
       <c r="E5">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4">
-        <v>8809466646416</v>
+        <v>8809688897009</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -2685,12 +3255,12 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4">
-        <v>8809466648939</v>
+        <v>8809688897504</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -2699,49 +3269,49 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4">
-        <v>8809478829722</v>
+        <v>8809710750487</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4">
-        <v>8809522195773</v>
+        <v>8809716076963</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4">
-        <v>8809522196299</v>
+        <v>8809716077335</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -2750,279 +3320,279 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4">
-        <v>8809522197333</v>
+        <v>8801643993542</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4">
-        <v>8809565300202</v>
+        <v>8801643993566</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4">
-        <v>8809565300950</v>
+        <v>8809466645396</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4">
-        <v>8809582393928</v>
-      </c>
-      <c r="B14">
-        <v>905669</v>
+        <v>8809466646270</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4">
-        <v>8809582396028</v>
-      </c>
-      <c r="B15">
-        <v>905879</v>
+        <v>8809466646416</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4">
-        <v>8809582396172</v>
+        <v>8809466648939</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4">
-        <v>8809583849523</v>
+        <v>8809478829722</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4">
-        <v>8809583849530</v>
+        <v>8809522191454</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4">
-        <v>8809611508972</v>
+        <v>8809522195773</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4">
-        <v>8809611509580</v>
+        <v>8809522196299</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4">
-        <v>8809613760361</v>
+        <v>8809522197333</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4">
-        <v>8809613760910</v>
+        <v>8809550349483</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4">
-        <v>8809613763294</v>
+        <v>8809565300202</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E23">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4">
-        <v>8809613763317</v>
+        <v>8809565300950</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E24">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4">
-        <v>8809613763935</v>
+        <v>8809565303371</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4">
-        <v>8809613766202</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
+        <v>8809582393928</v>
+      </c>
+      <c r="B26">
+        <v>905669</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3030,245 +3600,245 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4">
-        <v>8809613768060</v>
-      </c>
-      <c r="B27" t="s">
-        <v>71</v>
+        <v>8809582396028</v>
+      </c>
+      <c r="B27">
+        <v>905879</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E27">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4">
-        <v>8809628560956</v>
+        <v>8809582396172</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E28">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4">
-        <v>8809628561014</v>
+        <v>8809583842364</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4">
-        <v>8809628562318</v>
+        <v>8809583849523</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4">
-        <v>8809628564138</v>
+        <v>8809583849530</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E31">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4">
-        <v>8809628564145</v>
+        <v>8809611500815</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E32">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4">
-        <v>8809628564152</v>
+        <v>8809611502468</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4">
-        <v>8809628564169</v>
+        <v>8809611508972</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E34">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4">
-        <v>8809628564176</v>
+        <v>8809611509580</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E35">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4">
-        <v>8809628564213</v>
+        <v>8809612338060</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
         <v>43</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4">
-        <v>8809628566590</v>
+        <v>8809613760361</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4">
-        <v>8809628566903</v>
+        <v>8809613760781</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4">
-        <v>8809628566910</v>
+        <v>8809613760910</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4">
-        <v>8809628566927</v>
+        <v>8809613763294</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4">
-        <v>8809628567276</v>
+        <v>8809613763317</v>
       </c>
       <c r="B41" t="s">
         <v>108</v>
@@ -3277,15 +3847,15 @@
         <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E41">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4">
-        <v>8809628567375</v>
+        <v>8809613766202</v>
       </c>
       <c r="B42" t="s">
         <v>110</v>
@@ -3294,32 +3864,32 @@
         <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="E42">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4">
-        <v>8809628567450</v>
+        <v>8809613768060</v>
       </c>
       <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
         <v>113</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>114</v>
       </c>
-      <c r="D43" t="s">
-        <v>40</v>
-      </c>
       <c r="E43">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4">
-        <v>8809628567474</v>
+        <v>8809628560956</v>
       </c>
       <c r="B44" t="s">
         <v>115</v>
@@ -3328,389 +3898,389 @@
         <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4">
-        <v>8809628568648</v>
+        <v>8809628561014</v>
       </c>
       <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
         <v>118</v>
       </c>
-      <c r="C45" t="s">
-        <v>119</v>
-      </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4">
-        <v>8809628568730</v>
+        <v>8809628562318</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="E46">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="4">
-        <v>8809628568853</v>
+        <v>8809628564138</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E47">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="4">
-        <v>8809628569089</v>
+        <v>8809628564145</v>
       </c>
       <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" t="s">
         <v>126</v>
       </c>
-      <c r="C48" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" t="s">
-        <v>128</v>
-      </c>
       <c r="E48">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="4">
-        <v>8809628569195</v>
+        <v>8809628564152</v>
       </c>
       <c r="B49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" t="s">
         <v>129</v>
       </c>
-      <c r="C49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" t="s">
-        <v>131</v>
-      </c>
       <c r="E49">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="4">
-        <v>8809628569928</v>
+        <v>8809628564169</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="E50">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="4">
-        <v>8809640250392</v>
+        <v>8809628564176</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="4">
-        <v>8809640251320</v>
+        <v>8809628564213</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="E52">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="4">
-        <v>8809640258718</v>
+        <v>8809628565333</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="4">
-        <v>8809640259739</v>
+        <v>8809628566316</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="E54">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="4">
-        <v>8809640259784</v>
+        <v>8809628566590</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E55">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="4">
-        <v>8809659042018</v>
+        <v>8809628566903</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="4">
-        <v>8809659042049</v>
+        <v>8809628566910</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="E57">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="4">
-        <v>8809659042070</v>
+        <v>8809628566927</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E58">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4">
-        <v>8809659042131</v>
+        <v>8809628567122</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="4">
-        <v>8809659042162</v>
+        <v>8809628567207</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" t="s">
-        <v>128</v>
+        <v>156</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="4">
-        <v>8809659042636</v>
+        <v>8809628567276</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="E61">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="4">
-        <v>8809659042810</v>
+        <v>8809628567290</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4">
-        <v>8809659043152</v>
+        <v>8809628567375</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D63" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="E63">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4">
-        <v>8809659044012</v>
+        <v>8809628567450</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="E64">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4">
-        <v>8809659044043</v>
+        <v>8809628567474</v>
       </c>
       <c r="B65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" t="s">
         <v>169</v>
       </c>
-      <c r="C65" t="s">
-        <v>170</v>
-      </c>
-      <c r="D65" t="s">
-        <v>139</v>
-      </c>
       <c r="E65">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4">
-        <v>8809659044098</v>
+        <v>8809628567498</v>
       </c>
       <c r="B66" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" t="s">
         <v>171</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>172</v>
       </c>
-      <c r="D66" t="s">
-        <v>55</v>
-      </c>
       <c r="E66">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="4">
-        <v>8809659044128</v>
+        <v>8809628568648</v>
       </c>
       <c r="B67" t="s">
         <v>173</v>
@@ -3719,15 +4289,15 @@
         <v>174</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E67">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="4">
-        <v>8809659044159</v>
+        <v>8809628568730</v>
       </c>
       <c r="B68" t="s">
         <v>175</v>
@@ -3736,168 +4306,168 @@
         <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="E68">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="4">
-        <v>8809659044258</v>
+        <v>8809628568853</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="4">
-        <v>8809659045507</v>
+        <v>8809628568877</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="E70">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="4">
-        <v>8809659045538</v>
+        <v>8809628568969</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E71">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="4">
-        <v>8809659045668</v>
+        <v>8809628569089</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D72" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="4">
-        <v>8809659045828</v>
+        <v>8809628569102</v>
       </c>
       <c r="B73" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D73" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="4">
-        <v>8809659045859</v>
+        <v>8809628569195</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C74" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D74" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="E74">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="4">
-        <v>8809659046139</v>
+        <v>8809628569928</v>
       </c>
       <c r="B75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E75">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="4">
-        <v>8809659047228</v>
+        <v>8809628569959</v>
       </c>
       <c r="B76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="E76">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="4">
-        <v>8809659047488</v>
+        <v>8809640250392</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D77" t="s">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="E77">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="4">
-        <v>8809659047631</v>
+        <v>8809640251320</v>
       </c>
       <c r="B78" t="s">
         <v>201</v>
@@ -3906,83 +4476,83 @@
         <v>202</v>
       </c>
       <c r="D78" t="s">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="4">
-        <v>8809659047662</v>
+        <v>8809640252266</v>
       </c>
       <c r="B79" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" t="s">
         <v>204</v>
       </c>
-      <c r="C79" t="s">
-        <v>205</v>
-      </c>
-      <c r="D79" t="s">
-        <v>203</v>
+      <c r="D79">
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="4">
-        <v>8809659047778</v>
+        <v>8809640258718</v>
       </c>
       <c r="B80" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" t="s">
         <v>206</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>207</v>
       </c>
-      <c r="D80" t="s">
-        <v>208</v>
-      </c>
       <c r="E80">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="4">
-        <v>8809659047884</v>
+        <v>8809640259739</v>
       </c>
       <c r="B81" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" t="s">
         <v>209</v>
       </c>
-      <c r="C81" t="s">
-        <v>210</v>
-      </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="4">
-        <v>8809659048027</v>
+        <v>8809640259784</v>
       </c>
       <c r="B82" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" t="s">
         <v>211</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>212</v>
       </c>
-      <c r="D82" t="s">
-        <v>192</v>
-      </c>
       <c r="E82">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="4">
-        <v>8809659048089</v>
+        <v>8809659042018</v>
       </c>
       <c r="B83" t="s">
         <v>213</v>
@@ -3991,15 +4561,15 @@
         <v>214</v>
       </c>
       <c r="D83" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="4">
-        <v>8809659048263</v>
+        <v>8809659042049</v>
       </c>
       <c r="B84" t="s">
         <v>215</v>
@@ -4008,15 +4578,15 @@
         <v>216</v>
       </c>
       <c r="D84" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4">
-        <v>8809659048348</v>
+        <v>8809659042070</v>
       </c>
       <c r="B85" t="s">
         <v>217</v>
@@ -4025,7 +4595,7 @@
         <v>218</v>
       </c>
       <c r="D85" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="E85">
         <v>19</v>
@@ -4033,160 +4603,160 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="4">
-        <v>8809659048379</v>
+        <v>8809659042131</v>
       </c>
       <c r="B86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D86" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="E86">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="4">
-        <v>8809659048409</v>
+        <v>8809659042162</v>
       </c>
       <c r="B87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D87" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="E87">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="4">
-        <v>8809659048553</v>
+        <v>8809659042636</v>
       </c>
       <c r="B88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D88" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="4">
-        <v>8809659048607</v>
+        <v>8809659042728</v>
       </c>
       <c r="B89" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C89" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D89" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="E89">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="4">
-        <v>8809659048614</v>
+        <v>8809659042810</v>
       </c>
       <c r="B90" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C90" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D90" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="4">
-        <v>8809659048638</v>
+        <v>8809659044012</v>
       </c>
       <c r="B91" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C91" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D91" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="E91">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="4">
-        <v>8809671010248</v>
+        <v>8809659044043</v>
       </c>
       <c r="B92" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C92" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D92" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E92">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="4">
-        <v>8809671010774</v>
+        <v>8809659044098</v>
       </c>
       <c r="B93" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C93" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D93" t="s">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c r="E93">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4">
-        <v>8809685620440</v>
+        <v>8809659044128</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C94" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D94" t="s">
-        <v>238</v>
+        <v>129</v>
       </c>
       <c r="E94">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4">
-        <v>8809685620457</v>
+        <v>8809659044159</v>
       </c>
       <c r="B95" t="s">
         <v>239</v>
@@ -4195,15 +4765,15 @@
         <v>240</v>
       </c>
       <c r="D95" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="E95">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4">
-        <v>8809685620754</v>
+        <v>8809659044258</v>
       </c>
       <c r="B96" t="s">
         <v>241</v>
@@ -4212,15 +4782,15 @@
         <v>242</v>
       </c>
       <c r="D96" t="s">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="E96">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4">
-        <v>8809685622925</v>
+        <v>8809659044418</v>
       </c>
       <c r="B97" t="s">
         <v>243</v>
@@ -4229,15 +4799,15 @@
         <v>244</v>
       </c>
       <c r="D97" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="E97">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4">
-        <v>8809685622932</v>
+        <v>8809659045507</v>
       </c>
       <c r="B98" t="s">
         <v>245</v>
@@ -4246,15 +4816,15 @@
         <v>246</v>
       </c>
       <c r="D98" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="E98">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4">
-        <v>8809685623038</v>
+        <v>8809659045538</v>
       </c>
       <c r="B99" t="s">
         <v>247</v>
@@ -4266,12 +4836,12 @@
         <v>249</v>
       </c>
       <c r="E99">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="4">
-        <v>8809685623045</v>
+        <v>8809659045668</v>
       </c>
       <c r="B100" t="s">
         <v>250</v>
@@ -4280,66 +4850,66 @@
         <v>251</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="E100">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="4">
-        <v>8809685623991</v>
+        <v>8809659045828</v>
       </c>
       <c r="B101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C101" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D101" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="E101">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="4">
-        <v>8809685624028</v>
+        <v>8809659045859</v>
       </c>
       <c r="B102" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C102" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D102" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="E102">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="4">
-        <v>8809685624035</v>
+        <v>8809659045880</v>
       </c>
       <c r="B103" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C103" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D103" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="E103">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="4">
-        <v>8809685624042</v>
+        <v>8809659046139</v>
       </c>
       <c r="B104" t="s">
         <v>259</v>
@@ -4348,321 +4918,321 @@
         <v>260</v>
       </c>
       <c r="D104" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="E104">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="4">
-        <v>8809685624660</v>
+        <v>8809659047228</v>
       </c>
       <c r="B105" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C105" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D105" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="E105">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="4">
-        <v>8809685624721</v>
+        <v>8809659047488</v>
       </c>
       <c r="B106" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C106" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D106" t="s">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="E106">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="4">
-        <v>8809685624745</v>
+        <v>8809659047549</v>
       </c>
       <c r="B107" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C107" t="s">
-        <v>266</v>
-      </c>
-      <c r="D107" t="s">
-        <v>36</v>
+        <v>268</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="4">
-        <v>8809685625001</v>
+        <v>8809659047600</v>
       </c>
       <c r="B108" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C108" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="E108">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="4">
-        <v>8809685625469</v>
+        <v>8809659047631</v>
       </c>
       <c r="B109" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C109" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D109" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
       <c r="E109">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="4">
-        <v>8809685625759</v>
+        <v>8809659047662</v>
       </c>
       <c r="B110" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C110" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D110" t="s">
-        <v>142</v>
+        <v>273</v>
       </c>
       <c r="E110">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="4">
-        <v>8809685626176</v>
+        <v>8809659047747</v>
       </c>
       <c r="B111" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C111" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D111" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="E111">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="4">
-        <v>8809685626558</v>
+        <v>8809659047778</v>
       </c>
       <c r="B112" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C112" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D112" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="E112">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="4">
-        <v>8809685627074</v>
+        <v>8809659047884</v>
       </c>
       <c r="B113" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C113" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D113" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="E113">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="4">
-        <v>8809685627081</v>
+        <v>8809659048027</v>
       </c>
       <c r="B114" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C114" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D114" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E114">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="4">
-        <v>8809685629269</v>
+        <v>8809659048089</v>
       </c>
       <c r="B115" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C115" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D115" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="E115">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="4">
-        <v>8809685629276</v>
+        <v>8809659048263</v>
       </c>
       <c r="B116" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C116" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D116" t="s">
-        <v>286</v>
+        <v>31</v>
       </c>
       <c r="E116">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="4">
-        <v>8809685629344</v>
+        <v>8809659048348</v>
       </c>
       <c r="B117" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C117" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D117" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E117">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="4">
-        <v>8809685629399</v>
+        <v>8809659048379</v>
       </c>
       <c r="B118" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C118" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D118" t="s">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="E118">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="4">
-        <v>8809688890123</v>
+        <v>8809659048409</v>
       </c>
       <c r="B119" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C119" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="E119">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="4">
-        <v>8809688891045</v>
+        <v>8809659048553</v>
       </c>
       <c r="B120" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C120" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D120" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="E120">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="4">
-        <v>8809688891106</v>
+        <v>8809659048591</v>
       </c>
       <c r="B121" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C121" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D121" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="E121">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="4">
-        <v>8809688891229</v>
+        <v>8809659048607</v>
       </c>
       <c r="B122" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C122" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D122" t="s">
-        <v>299</v>
+        <v>86</v>
       </c>
       <c r="E122">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="4">
-        <v>8809688891281</v>
+        <v>8809659048614</v>
       </c>
       <c r="B123" t="s">
         <v>300</v>
@@ -4671,364 +5241,364 @@
         <v>301</v>
       </c>
       <c r="D123" t="s">
-        <v>302</v>
+        <v>212</v>
       </c>
       <c r="E123">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="4">
-        <v>8809688891311</v>
+        <v>8809659048621</v>
       </c>
       <c r="B124" t="s">
+        <v>302</v>
+      </c>
+      <c r="C124" t="s">
         <v>303</v>
       </c>
-      <c r="C124" t="s">
-        <v>304</v>
-      </c>
       <c r="D124" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="E124">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="4">
-        <v>8809688891342</v>
+        <v>8809659048638</v>
       </c>
       <c r="B125" t="s">
+        <v>304</v>
+      </c>
+      <c r="C125" t="s">
         <v>305</v>
       </c>
-      <c r="C125" t="s">
-        <v>306</v>
-      </c>
       <c r="D125" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="E125">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="4">
-        <v>8809688891373</v>
+        <v>8809659048652</v>
       </c>
       <c r="B126" t="s">
+        <v>306</v>
+      </c>
+      <c r="C126" t="s">
         <v>307</v>
       </c>
-      <c r="C126" t="s">
-        <v>308</v>
-      </c>
       <c r="D126" t="s">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="E126">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="4">
-        <v>8809688891557</v>
+        <v>8809659048669</v>
       </c>
       <c r="B127" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C127" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D127" t="s">
-        <v>312</v>
+        <v>219</v>
       </c>
       <c r="E127">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="4">
-        <v>8809688891649</v>
+        <v>8809659049901</v>
       </c>
       <c r="B128" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C128" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D128" t="s">
-        <v>312</v>
+        <v>137</v>
       </c>
       <c r="E128">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="4">
-        <v>8809688891977</v>
+        <v>8809659049987</v>
       </c>
       <c r="B129" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C129" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D129" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="E129">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="4">
-        <v>8809688892066</v>
+        <v>8809671010248</v>
       </c>
       <c r="B130" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C130" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D130" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E130">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="4">
-        <v>8809688892158</v>
+        <v>8809671010293</v>
       </c>
       <c r="B131" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C131" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D131" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E131">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="4">
-        <v>8809688893018</v>
+        <v>8809671010774</v>
       </c>
       <c r="B132" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C132" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D132" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="4">
-        <v>8809688893100</v>
+        <v>8809685620440</v>
       </c>
       <c r="B133" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C133" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D133" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E133">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="4">
-        <v>8809688893131</v>
+        <v>8809685620457</v>
       </c>
       <c r="B134" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C134" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D134" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E134">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="4">
-        <v>8809688893162</v>
+        <v>8809685620754</v>
       </c>
       <c r="B135" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C135" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D135" t="s">
-        <v>299</v>
+        <v>62</v>
       </c>
       <c r="E135">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="4">
-        <v>8809688893193</v>
+        <v>8809685622925</v>
       </c>
       <c r="B136" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C136" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D136" t="s">
-        <v>195</v>
+        <v>322</v>
       </c>
       <c r="E136">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="4">
-        <v>8809688893728</v>
+        <v>8809685622932</v>
       </c>
       <c r="B137" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C137" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D137" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
       <c r="E137">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="4">
-        <v>8809688893759</v>
+        <v>8809685623038</v>
       </c>
       <c r="B138" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C138" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D138" t="s">
-        <v>120</v>
+        <v>333</v>
       </c>
       <c r="E138">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="4">
-        <v>8809688893780</v>
+        <v>8809685623045</v>
       </c>
       <c r="B139" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C139" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D139" t="s">
-        <v>339</v>
+        <v>40</v>
       </c>
       <c r="E139">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="4">
-        <v>8809688894046</v>
+        <v>8809685623991</v>
       </c>
       <c r="B140" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C140" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D140" t="s">
-        <v>342</v>
+        <v>137</v>
       </c>
       <c r="E140">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="4">
-        <v>8809688894077</v>
+        <v>8809685624028</v>
       </c>
       <c r="B141" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C141" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D141" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E141">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="4">
-        <v>8809688894107</v>
+        <v>8809685624035</v>
       </c>
       <c r="B142" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C142" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D142" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E142">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="4">
-        <v>8809688894138</v>
+        <v>8809685624042</v>
       </c>
       <c r="B143" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C143" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D143" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="E143">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="4">
-        <v>8809688894152</v>
+        <v>8809685624660</v>
       </c>
       <c r="B144" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C144" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D144" t="s">
-        <v>353</v>
+        <v>65</v>
       </c>
       <c r="E144">
         <v>32</v>
@@ -5036,220 +5606,220 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="4">
-        <v>8809688894183</v>
+        <v>8809685624721</v>
       </c>
       <c r="B145" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C145" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D145" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="E145">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="4">
-        <v>8809688894213</v>
+        <v>8809685624745</v>
       </c>
       <c r="B146" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C146" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D146" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="E146">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="4">
-        <v>8809688894244</v>
+        <v>8809685625001</v>
       </c>
       <c r="B147" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C147" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D147" t="s">
-        <v>360</v>
+        <v>169</v>
       </c>
       <c r="E147">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="4">
-        <v>8809688894466</v>
+        <v>8809685625469</v>
       </c>
       <c r="B148" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C148" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D148" t="s">
-        <v>353</v>
+        <v>62</v>
       </c>
       <c r="E148">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="4">
-        <v>8809688894640</v>
+        <v>8809685625759</v>
       </c>
       <c r="B149" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C149" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D149" t="s">
-        <v>299</v>
+        <v>207</v>
       </c>
       <c r="E149">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="4">
-        <v>8809688895388</v>
+        <v>8809685626176</v>
       </c>
       <c r="B150" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C150" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D150" t="s">
-        <v>309</v>
+        <v>137</v>
       </c>
       <c r="E150">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="4">
-        <v>8809688896132</v>
+        <v>8809685626558</v>
       </c>
       <c r="B151" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C151" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D151" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="E151">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="4">
-        <v>8809688896163</v>
+        <v>8809685627067</v>
       </c>
       <c r="B152" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C152" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D152" t="s">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="E152">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="4">
-        <v>8809688896613</v>
+        <v>8809685627074</v>
       </c>
       <c r="B153" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C153" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D153" t="s">
-        <v>323</v>
+        <v>23</v>
       </c>
       <c r="E153">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="4">
-        <v>8809688896620</v>
+        <v>8809685627081</v>
       </c>
       <c r="B154" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C154" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D154" t="s">
-        <v>49</v>
+        <v>252</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="4">
-        <v>8809688896637</v>
+        <v>8809685629245</v>
       </c>
       <c r="B155" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C155" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D155" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E155">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="4">
-        <v>8809688896644</v>
+        <v>8809685629269</v>
       </c>
       <c r="B156" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C156" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D156" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="E156">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="4">
-        <v>8809688896675</v>
+        <v>8809685629276</v>
       </c>
       <c r="B157" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C157" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D157" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E157">
         <v>49</v>
@@ -5257,2790 +5827,4405 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="4">
-        <v>8809688896705</v>
+        <v>8809685629344</v>
       </c>
       <c r="B158" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C158" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D158" t="s">
-        <v>345</v>
+        <v>65</v>
       </c>
       <c r="E158">
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="4">
-        <v>8809688896736</v>
+        <v>8809685629399</v>
       </c>
       <c r="B159" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C159" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D159" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E159">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="4">
-        <v>8809688896804</v>
+        <v>8809688890093</v>
       </c>
       <c r="B160" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C160" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D160" t="s">
-        <v>326</v>
+        <v>17</v>
       </c>
       <c r="E160">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="4">
-        <v>8809688896835</v>
+        <v>8809688890123</v>
       </c>
       <c r="B161" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C161" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D161" t="s">
-        <v>326</v>
+        <v>40</v>
       </c>
       <c r="E161">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="4">
-        <v>8809688896866</v>
+        <v>8809688891045</v>
       </c>
       <c r="B162" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C162" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D162" t="s">
-        <v>99</v>
+        <v>261</v>
       </c>
       <c r="E162">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="4">
-        <v>8809688896897</v>
+        <v>8809688891106</v>
       </c>
       <c r="B163" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C163" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D163" t="s">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="E163">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="4">
-        <v>8809688896972</v>
+        <v>8809688891137</v>
       </c>
       <c r="B164" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C164" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D164" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="4">
-        <v>8809688897009</v>
+        <v>8809688891229</v>
       </c>
       <c r="B165" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C165" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D165" t="s">
-        <v>150</v>
+        <v>391</v>
       </c>
       <c r="E165">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="4">
-        <v>8809688897344</v>
+        <v>8809688891281</v>
       </c>
       <c r="B166" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C166" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D166" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="E166">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="4">
-        <v>8809688897504</v>
+        <v>8809688891311</v>
       </c>
       <c r="B167" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C167" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D167" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="E167">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="4">
-        <v>8809688897535</v>
+        <v>8809688891342</v>
       </c>
       <c r="B168" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C168" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D168" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="E168">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="4">
-        <v>8809688897566</v>
+        <v>8809688891373</v>
       </c>
       <c r="B169" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C169" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D169" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="E169">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="4">
-        <v>8809688897658</v>
+        <v>8809688891557</v>
       </c>
       <c r="B170" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C170" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D170" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="E170">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="4">
-        <v>8809688897733</v>
+        <v>8809688891649</v>
       </c>
       <c r="B171" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C171" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D171" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="E171">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="4">
-        <v>8809688897764</v>
+        <v>8809688891977</v>
       </c>
       <c r="B172" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C172" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D172" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="E172">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="4">
-        <v>8809688897795</v>
+        <v>8809688892066</v>
       </c>
       <c r="B173" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C173" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D173" t="s">
-        <v>413</v>
+        <v>48</v>
       </c>
       <c r="E173">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="4">
-        <v>8809688897962</v>
+        <v>8809688892158</v>
       </c>
       <c r="B174" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C174" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D174" t="s">
-        <v>418</v>
+        <v>14</v>
       </c>
       <c r="E174">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="4">
-        <v>8809688897993</v>
+        <v>8809688892295</v>
       </c>
       <c r="B175" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C175" t="s">
-        <v>420</v>
-      </c>
-      <c r="D175" t="s">
-        <v>55</v>
+        <v>411</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="4">
-        <v>8809688898020</v>
+        <v>8809688893018</v>
       </c>
       <c r="B176" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C176" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D176" t="s">
-        <v>348</v>
+        <v>191</v>
       </c>
       <c r="E176">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="4">
-        <v>8809688898112</v>
+        <v>8809688893049</v>
       </c>
       <c r="B177" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C177" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D177" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="E177">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="4">
-        <v>8809688898136</v>
+        <v>8809688893070</v>
       </c>
       <c r="B178" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C178" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D178" t="s">
-        <v>155</v>
+        <v>418</v>
       </c>
       <c r="E178">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="4">
-        <v>8809688898167</v>
+        <v>8809688893100</v>
       </c>
       <c r="B179" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C179" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D179" t="s">
-        <v>158</v>
+        <v>421</v>
       </c>
       <c r="E179">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="4">
-        <v>8809688898198</v>
+        <v>8809688893131</v>
       </c>
       <c r="B180" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C180" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D180" t="s">
-        <v>99</v>
+        <v>421</v>
       </c>
       <c r="E180">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="4">
-        <v>8809688898228</v>
+        <v>8809688893162</v>
       </c>
       <c r="B181" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C181" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D181" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="E181">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="4">
-        <v>8809688898259</v>
+        <v>8809688893193</v>
       </c>
       <c r="B182" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C182" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D182" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="E182">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="4">
-        <v>8809688898280</v>
+        <v>8809688893513</v>
       </c>
       <c r="B183" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C183" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D183" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E183">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="4">
-        <v>8809688898310</v>
+        <v>8809688893568</v>
       </c>
       <c r="B184" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C184" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D184" t="s">
-        <v>439</v>
+        <v>137</v>
       </c>
       <c r="E184">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="4">
-        <v>8809688898341</v>
+        <v>8809688893698</v>
       </c>
       <c r="B185" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C185" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D185" t="s">
-        <v>381</v>
+        <v>182</v>
       </c>
       <c r="E185">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="4">
-        <v>8809688898372</v>
+        <v>8809688893728</v>
       </c>
       <c r="B186" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C186" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D186" t="s">
-        <v>134</v>
+        <v>342</v>
       </c>
       <c r="E186">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="4">
-        <v>8809688898402</v>
+        <v>8809688893759</v>
       </c>
       <c r="B187" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C187" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D187" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="E187">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="4">
-        <v>8809688898433</v>
+        <v>8809688893780</v>
       </c>
       <c r="B188" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C188" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D188" t="s">
-        <v>86</v>
+        <v>440</v>
       </c>
       <c r="E188">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="4">
-        <v>8809688898464</v>
+        <v>8809688894046</v>
       </c>
       <c r="B189" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C189" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D189" t="s">
-        <v>112</v>
+        <v>443</v>
       </c>
       <c r="E189">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="4">
-        <v>8809688898495</v>
+        <v>8809688894077</v>
       </c>
       <c r="B190" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C190" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D190" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E190">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="4">
-        <v>8809688898525</v>
+        <v>8809688894107</v>
       </c>
       <c r="B191" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C191" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D191" t="s">
-        <v>43</v>
+        <v>418</v>
       </c>
       <c r="E191">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="4">
-        <v>8809688899461</v>
+        <v>8809688894138</v>
       </c>
       <c r="B192" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C192" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D192" t="s">
-        <v>381</v>
+        <v>219</v>
       </c>
       <c r="E192">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="4">
-        <v>8809688899492</v>
+        <v>8809688894152</v>
       </c>
       <c r="B193" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C193" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D193" t="s">
-        <v>158</v>
+        <v>453</v>
       </c>
       <c r="E193">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="4">
-        <v>8809688899522</v>
+        <v>8809688894183</v>
       </c>
       <c r="B194" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C194" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D194" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="E194">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="4">
-        <v>8809688899553</v>
+        <v>8809688894213</v>
       </c>
       <c r="B195" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C195" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D195" t="s">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c r="E195">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="4">
-        <v>8809688899584</v>
+        <v>8809688894244</v>
       </c>
       <c r="B196" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C196" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D196" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="E196">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="4">
-        <v>8809688899669</v>
+        <v>8809688894466</v>
       </c>
       <c r="B197" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C197" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D197" t="s">
-        <v>183</v>
+        <v>453</v>
       </c>
       <c r="E197">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="4">
-        <v>8809688899690</v>
+        <v>8809688894558</v>
       </c>
       <c r="B198" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C198" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D198" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="4">
-        <v>8809710750487</v>
+        <v>8809688894640</v>
       </c>
       <c r="B199" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C199" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D199" t="s">
-        <v>139</v>
+        <v>391</v>
       </c>
       <c r="E199">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="4">
-        <v>8809710751002</v>
+        <v>8809688895388</v>
       </c>
       <c r="B200" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C200" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D200" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="E200">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="4">
-        <v>8809710751019</v>
+        <v>8809688896132</v>
       </c>
       <c r="B201" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C201" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D201" t="s">
         <v>14</v>
       </c>
       <c r="E201">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="4">
-        <v>8809710751026</v>
+        <v>8809688896163</v>
       </c>
       <c r="B202" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C202" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D202" t="s">
-        <v>283</v>
+        <v>14</v>
       </c>
       <c r="E202">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="4">
-        <v>8809710751798</v>
+        <v>8809688896583</v>
       </c>
       <c r="B203" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C203" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D203" t="s">
-        <v>235</v>
+        <v>460</v>
       </c>
       <c r="E203">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="4">
-        <v>8809710751804</v>
+        <v>8809688896590</v>
       </c>
       <c r="B204" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C204" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D204" t="s">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="E204">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="4">
-        <v>8809710752849</v>
+        <v>8809688896606</v>
       </c>
       <c r="B205" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C205" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D205" t="s">
-        <v>286</v>
+        <v>73</v>
       </c>
       <c r="E205">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="4">
-        <v>8809710753099</v>
+        <v>8809688896613</v>
       </c>
       <c r="B206" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C206" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D206" t="s">
-        <v>286</v>
+        <v>191</v>
       </c>
       <c r="E206">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="4">
-        <v>8809710753983</v>
+        <v>8809688896620</v>
       </c>
       <c r="B207" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C207" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D207" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="E207">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="4">
-        <v>8809710754485</v>
+        <v>8809688896637</v>
       </c>
       <c r="B208" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C208" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D208" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="E208">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="4">
-        <v>8809710754928</v>
+        <v>8809688896644</v>
       </c>
       <c r="B209" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C209" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D209" t="s">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="E209">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="4">
-        <v>8809710755147</v>
+        <v>8809688896675</v>
       </c>
       <c r="B210" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C210" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D210" t="s">
-        <v>25</v>
+        <v>489</v>
       </c>
       <c r="E210">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="4">
-        <v>8809710755413</v>
+        <v>8809688896705</v>
       </c>
       <c r="B211" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C211" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D211" t="s">
-        <v>238</v>
+        <v>446</v>
       </c>
       <c r="E211">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="4">
-        <v>8809710755529</v>
+        <v>8809688896736</v>
       </c>
       <c r="B212" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C212" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D212" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="E212">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="4">
-        <v>8809710755727</v>
+        <v>8809688896804</v>
       </c>
       <c r="B213" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C213" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D213" t="s">
-        <v>25</v>
+        <v>421</v>
       </c>
       <c r="E213">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="4">
-        <v>8809710759046</v>
+        <v>8809688896835</v>
       </c>
       <c r="B214" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C214" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D214" t="s">
-        <v>200</v>
+        <v>421</v>
       </c>
       <c r="E214">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="4">
-        <v>8809716070381</v>
+        <v>8809688896866</v>
       </c>
       <c r="B215" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C215" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D215" t="s">
-        <v>339</v>
+        <v>143</v>
       </c>
       <c r="E215">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="4">
-        <v>8809716070411</v>
+        <v>8809688896897</v>
       </c>
       <c r="B216" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C216" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D216" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="E216">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="4">
-        <v>8809716070442</v>
+        <v>8809688896910</v>
       </c>
       <c r="B217" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C217" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D217" t="s">
-        <v>396</v>
+        <v>504</v>
       </c>
       <c r="E217">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="4">
-        <v>8809716070473</v>
+        <v>8809688896941</v>
       </c>
       <c r="B218" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C218" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D218" t="s">
-        <v>339</v>
+        <v>123</v>
       </c>
       <c r="E218">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="4">
-        <v>8809716070541</v>
+        <v>8809688896972</v>
       </c>
       <c r="B219" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C219" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D219" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E219">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="4">
-        <v>8809716070657</v>
+        <v>8809688897016</v>
       </c>
       <c r="B220" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C220" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D220" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="E220">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="4">
-        <v>8809716070671</v>
+        <v>8809688897344</v>
       </c>
       <c r="B221" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C221" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D221" t="s">
-        <v>63</v>
+        <v>249</v>
       </c>
       <c r="E221">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="4">
-        <v>8809716070909</v>
+        <v>8809688897368</v>
       </c>
       <c r="B222" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C222" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D222" t="s">
-        <v>348</v>
+        <v>83</v>
       </c>
       <c r="E222">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="4">
-        <v>8809716070930</v>
+        <v>8809688897382</v>
       </c>
       <c r="B223" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C223" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D223" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E223">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="4">
-        <v>8809716070961</v>
+        <v>8809688897412</v>
       </c>
       <c r="B224" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C224" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D224" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="E224">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="4">
-        <v>8809716071067</v>
+        <v>8809688897535</v>
       </c>
       <c r="B225" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C225" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D225" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="E225">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="4">
-        <v>8809716071098</v>
+        <v>8809688897566</v>
       </c>
       <c r="B226" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C226" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D226" t="s">
-        <v>452</v>
+        <v>20</v>
       </c>
       <c r="E226">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="4">
-        <v>8809716071128</v>
+        <v>8809688897658</v>
       </c>
       <c r="B227" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C227" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D227" t="s">
-        <v>452</v>
+        <v>37</v>
       </c>
       <c r="E227">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="4">
-        <v>8809716071159</v>
+        <v>8809688897733</v>
       </c>
       <c r="B228" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C228" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D228" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E228">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="4">
-        <v>8809716071173</v>
+        <v>8809688897764</v>
       </c>
       <c r="B229" t="s">
+        <v>527</v>
+      </c>
+      <c r="C229" t="s">
+        <v>528</v>
+      </c>
+      <c r="D229" t="s">
         <v>529</v>
       </c>
-      <c r="C229" t="s">
-        <v>530</v>
-      </c>
-      <c r="D229" t="s">
-        <v>83</v>
-      </c>
       <c r="E229">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="4">
-        <v>8809716071203</v>
+        <v>8809688897795</v>
       </c>
       <c r="B230" t="s">
+        <v>530</v>
+      </c>
+      <c r="C230" t="s">
         <v>531</v>
       </c>
-      <c r="C230" t="s">
-        <v>532</v>
-      </c>
       <c r="D230" t="s">
-        <v>208</v>
+        <v>529</v>
       </c>
       <c r="E230">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="4">
-        <v>8809716071234</v>
+        <v>8809688897887</v>
       </c>
       <c r="B231" t="s">
+        <v>532</v>
+      </c>
+      <c r="C231" t="s">
         <v>533</v>
       </c>
-      <c r="C231" t="s">
-        <v>534</v>
-      </c>
       <c r="D231" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="E231">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="4">
-        <v>8809716071265</v>
+        <v>8809688897962</v>
       </c>
       <c r="B232" t="s">
+        <v>534</v>
+      </c>
+      <c r="C232" t="s">
         <v>535</v>
       </c>
-      <c r="C232" t="s">
-        <v>536</v>
-      </c>
       <c r="D232" t="s">
-        <v>323</v>
+        <v>388</v>
       </c>
       <c r="E232">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="4">
-        <v>8809716071289</v>
+        <v>8809688897993</v>
       </c>
       <c r="B233" t="s">
+        <v>536</v>
+      </c>
+      <c r="C233" t="s">
         <v>537</v>
       </c>
-      <c r="C233" t="s">
-        <v>538</v>
-      </c>
       <c r="D233" t="s">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="E233">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="4">
-        <v>8809716071319</v>
+        <v>8809688898020</v>
       </c>
       <c r="B234" t="s">
+        <v>538</v>
+      </c>
+      <c r="C234" t="s">
         <v>539</v>
       </c>
-      <c r="C234" t="s">
-        <v>540</v>
-      </c>
       <c r="D234" t="s">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="E234">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="4">
-        <v>8809716071340</v>
+        <v>8809688898112</v>
       </c>
       <c r="B235" t="s">
+        <v>540</v>
+      </c>
+      <c r="C235" t="s">
         <v>541</v>
       </c>
-      <c r="C235" t="s">
-        <v>542</v>
-      </c>
       <c r="D235" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="E235">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="4">
-        <v>8809716071371</v>
+        <v>8809688898136</v>
       </c>
       <c r="B236" t="s">
+        <v>542</v>
+      </c>
+      <c r="C236" t="s">
         <v>543</v>
       </c>
-      <c r="C236" t="s">
-        <v>544</v>
-      </c>
       <c r="D236" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="E236">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="4">
-        <v>8809716071913</v>
+        <v>8809688898167</v>
       </c>
       <c r="B237" t="s">
+        <v>544</v>
+      </c>
+      <c r="C237" t="s">
         <v>545</v>
       </c>
-      <c r="C237" t="s">
-        <v>546</v>
-      </c>
       <c r="D237" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="4">
-        <v>8809716071951</v>
+        <v>8809688898198</v>
       </c>
       <c r="B238" t="s">
+        <v>546</v>
+      </c>
+      <c r="C238" t="s">
         <v>547</v>
       </c>
-      <c r="C238" t="s">
-        <v>548</v>
-      </c>
       <c r="D238" t="s">
-        <v>549</v>
+        <v>143</v>
       </c>
       <c r="E238">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="4">
-        <v>8809716072422</v>
+        <v>8809688898228</v>
       </c>
       <c r="B239" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C239" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D239" t="s">
-        <v>89</v>
+        <v>529</v>
       </c>
       <c r="E239">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="4">
-        <v>8809716072446</v>
+        <v>8809688898259</v>
       </c>
       <c r="B240" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C240" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D240" t="s">
-        <v>348</v>
+        <v>161</v>
       </c>
       <c r="E240">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="4">
-        <v>8809716072477</v>
+        <v>8809688898280</v>
       </c>
       <c r="B241" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C241" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D241" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="E241">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="4">
-        <v>8809716072507</v>
+        <v>8809688898310</v>
       </c>
       <c r="B242" t="s">
+        <v>554</v>
+      </c>
+      <c r="C242" t="s">
+        <v>555</v>
+      </c>
+      <c r="D242" t="s">
         <v>556</v>
       </c>
-      <c r="C242" t="s">
-        <v>557</v>
-      </c>
-      <c r="D242" t="s">
-        <v>86</v>
-      </c>
       <c r="E242">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="4">
-        <v>8809716072538</v>
+        <v>8809688898341</v>
       </c>
       <c r="B243" t="s">
+        <v>557</v>
+      </c>
+      <c r="C243" t="s">
         <v>558</v>
       </c>
-      <c r="C243" t="s">
-        <v>559</v>
-      </c>
       <c r="D243" t="s">
-        <v>66</v>
+        <v>489</v>
       </c>
       <c r="E243">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="4">
-        <v>8809716072613</v>
+        <v>8809688898372</v>
       </c>
       <c r="B244" t="s">
+        <v>559</v>
+      </c>
+      <c r="C244" t="s">
         <v>560</v>
       </c>
-      <c r="C244" t="s">
-        <v>561</v>
-      </c>
       <c r="D244" t="s">
-        <v>302</v>
+        <v>196</v>
       </c>
       <c r="E244">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="4">
-        <v>8809716072637</v>
+        <v>8809688898402</v>
       </c>
       <c r="B245" t="s">
+        <v>561</v>
+      </c>
+      <c r="C245" t="s">
         <v>562</v>
       </c>
-      <c r="C245" t="s">
-        <v>563</v>
-      </c>
       <c r="D245" t="s">
-        <v>326</v>
+        <v>14</v>
       </c>
       <c r="E245">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="4">
-        <v>8809716072651</v>
+        <v>8809688898433</v>
       </c>
       <c r="B246" t="s">
+        <v>563</v>
+      </c>
+      <c r="C246" t="s">
         <v>564</v>
       </c>
-      <c r="C246" t="s">
-        <v>565</v>
-      </c>
       <c r="D246" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="E246">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="4">
-        <v>8809716072958</v>
+        <v>8809688898464</v>
       </c>
       <c r="B247" t="s">
+        <v>565</v>
+      </c>
+      <c r="C247" t="s">
         <v>566</v>
       </c>
-      <c r="C247" t="s">
-        <v>567</v>
-      </c>
       <c r="D247" t="s">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="E247">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="4">
-        <v>8809716072989</v>
+        <v>8809688898495</v>
       </c>
       <c r="B248" t="s">
+        <v>567</v>
+      </c>
+      <c r="C248" t="s">
         <v>568</v>
       </c>
-      <c r="C248" t="s">
-        <v>569</v>
-      </c>
       <c r="D248" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E248">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="4">
-        <v>8809716073016</v>
+        <v>8809688898525</v>
       </c>
       <c r="B249" t="s">
+        <v>569</v>
+      </c>
+      <c r="C249" t="s">
         <v>570</v>
       </c>
-      <c r="C249" t="s">
-        <v>571</v>
-      </c>
       <c r="D249" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="E249">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="4">
-        <v>8809716073047</v>
+        <v>8809688899430</v>
       </c>
       <c r="B250" t="s">
+        <v>571</v>
+      </c>
+      <c r="C250" t="s">
         <v>572</v>
       </c>
-      <c r="C250" t="s">
-        <v>573</v>
-      </c>
       <c r="D250" t="s">
-        <v>574</v>
+        <v>11</v>
       </c>
       <c r="E250">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="4">
-        <v>8809716073078</v>
+        <v>8809688899461</v>
       </c>
       <c r="B251" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C251" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D251" t="s">
-        <v>63</v>
+        <v>489</v>
       </c>
       <c r="E251">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="4">
-        <v>8809716073542</v>
+        <v>8809688899492</v>
       </c>
       <c r="B252" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C252" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D252" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="E252">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="4">
-        <v>8809716074150</v>
+        <v>8809688899522</v>
       </c>
       <c r="B253" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C253" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D253" t="s">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="E253">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="4">
-        <v>8809716074181</v>
+        <v>8809688899553</v>
       </c>
       <c r="B254" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C254" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D254" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="E254">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="4">
-        <v>8809716075003</v>
+        <v>8809688899584</v>
       </c>
       <c r="B255" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C255" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D255" t="s">
-        <v>203</v>
+        <v>529</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="4">
-        <v>8809716075034</v>
+        <v>8809688899669</v>
       </c>
       <c r="B256" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C256" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D256" t="s">
-        <v>439</v>
+        <v>249</v>
       </c>
       <c r="E256">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="4">
-        <v>8809716075096</v>
+        <v>8809688899690</v>
       </c>
       <c r="B257" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C257" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D257" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="E257">
-        <v>113</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="4">
-        <v>8809716075492</v>
+        <v>8809710751002</v>
       </c>
       <c r="B258" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C258" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D258" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="E258">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="4">
-        <v>8809716075515</v>
+        <v>8809710751019</v>
       </c>
       <c r="B259" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C259" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D259" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="E259">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="4">
-        <v>8809716075539</v>
+        <v>8809710751026</v>
       </c>
       <c r="B260" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C260" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D260" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E260">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="4">
-        <v>8809716075553</v>
+        <v>8809710751798</v>
       </c>
       <c r="B261" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C261" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D261" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="E261">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="4">
-        <v>8809716075577</v>
+        <v>8809710751804</v>
       </c>
       <c r="B262" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C262" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D262" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="E262">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="4">
-        <v>8809716075591</v>
+        <v>8809710752849</v>
       </c>
       <c r="B263" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C263" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D263" t="s">
-        <v>299</v>
+        <v>373</v>
       </c>
       <c r="E263">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="4">
-        <v>8809716075669</v>
+        <v>8809710753099</v>
       </c>
       <c r="B264" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C264" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D264" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="E264">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="4">
-        <v>8809716075690</v>
+        <v>8809710753983</v>
       </c>
       <c r="B265" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C265" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D265" t="s">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="E265">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="4">
-        <v>8809716075720</v>
+        <v>8809710754485</v>
       </c>
       <c r="B266" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C266" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D266" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="E266">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="4">
-        <v>8809716075751</v>
+        <v>8809710754928</v>
       </c>
       <c r="B267" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C267" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D267" t="s">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="E267">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="4">
-        <v>8809716075782</v>
+        <v>8809710755147</v>
       </c>
       <c r="B268" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C268" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D268" t="s">
-        <v>549</v>
+        <v>54</v>
       </c>
       <c r="E268">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="4">
-        <v>8809716075799</v>
+        <v>8809710755413</v>
       </c>
       <c r="B269" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C269" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D269" t="s">
-        <v>613</v>
+        <v>322</v>
       </c>
       <c r="E269">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="4">
-        <v>8809716075805</v>
+        <v>8809710755529</v>
       </c>
       <c r="B270" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C270" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D270" t="s">
-        <v>613</v>
+        <v>37</v>
       </c>
       <c r="E270">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="4">
-        <v>8809716075812</v>
+        <v>8809710755727</v>
       </c>
       <c r="B271" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C271" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D271" t="s">
-        <v>613</v>
+        <v>54</v>
       </c>
       <c r="E271">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="4">
-        <v>8809716075829</v>
+        <v>8809710759046</v>
       </c>
       <c r="B272" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C272" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D272" t="s">
-        <v>613</v>
+        <v>266</v>
       </c>
       <c r="E272">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="4">
-        <v>8809716075836</v>
+        <v>8809716070022</v>
       </c>
       <c r="B273" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C273" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D273" t="s">
-        <v>613</v>
+        <v>154</v>
       </c>
       <c r="E273">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="4">
-        <v>8809716075843</v>
+        <v>8809716070039</v>
       </c>
       <c r="B274" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C274" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D274" t="s">
-        <v>613</v>
+        <v>73</v>
       </c>
       <c r="E274">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="4">
-        <v>8809716075850</v>
+        <v>8809716070046</v>
       </c>
       <c r="B275" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C275" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D275" t="s">
-        <v>613</v>
+        <v>191</v>
       </c>
       <c r="E275">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="4">
-        <v>8809716075867</v>
+        <v>8809716070053</v>
       </c>
       <c r="B276" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C276" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D276" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="E276">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="4">
-        <v>8809716075874</v>
+        <v>8809716070060</v>
       </c>
       <c r="B277" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C277" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D277" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="E277">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="4">
-        <v>8809716075898</v>
+        <v>8809716070381</v>
       </c>
       <c r="B278" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C278" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D278" t="s">
-        <v>40</v>
+        <v>440</v>
       </c>
       <c r="E278">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="4">
-        <v>8809716076161</v>
+        <v>8809716070411</v>
       </c>
       <c r="B279" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C279" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D279" t="s">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="E279">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="4">
-        <v>8809716076536</v>
+        <v>8809716070442</v>
       </c>
       <c r="B280" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C280" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D280" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="E280">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="4">
-        <v>8809716076567</v>
+        <v>8809716070473</v>
       </c>
       <c r="B281" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C281" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D281" t="s">
-        <v>235</v>
+        <v>440</v>
       </c>
       <c r="E281">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="4">
-        <v>8809716076628</v>
+        <v>8809716070503</v>
       </c>
       <c r="B282" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C282" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D282" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="E282">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="4">
-        <v>8809716076659</v>
+        <v>8809716070527</v>
       </c>
       <c r="B283" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C283" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D283" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="E283">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="4">
-        <v>8809716076741</v>
+        <v>8809716070541</v>
       </c>
       <c r="B284" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C284" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D284" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="E284">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="4">
-        <v>8809716076901</v>
+        <v>8809716070565</v>
       </c>
       <c r="B285" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C285" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D285" t="s">
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="E285">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="4">
-        <v>8809716076932</v>
+        <v>8809716070596</v>
       </c>
       <c r="B286" t="s">
+        <v>644</v>
+      </c>
+      <c r="C286" t="s">
+        <v>645</v>
+      </c>
+      <c r="D286" t="s">
         <v>646</v>
       </c>
-      <c r="C286" t="s">
-        <v>647</v>
-      </c>
-      <c r="D286" t="s">
-        <v>155</v>
-      </c>
       <c r="E286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="4">
-        <v>8809716076963</v>
+        <v>8809716070657</v>
       </c>
       <c r="B287" t="s">
+        <v>647</v>
+      </c>
+      <c r="C287" t="s">
         <v>648</v>
       </c>
-      <c r="C287" t="s">
-        <v>649</v>
-      </c>
       <c r="D287" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E287">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="4">
-        <v>8809716076994</v>
+        <v>8809716070671</v>
       </c>
       <c r="B288" t="s">
+        <v>649</v>
+      </c>
+      <c r="C288" t="s">
         <v>650</v>
       </c>
-      <c r="C288" t="s">
-        <v>651</v>
-      </c>
       <c r="D288" t="s">
-        <v>418</v>
+        <v>11</v>
       </c>
       <c r="E288">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="4">
-        <v>8809716077083</v>
+        <v>8809716070879</v>
       </c>
       <c r="B289" t="s">
+        <v>651</v>
+      </c>
+      <c r="C289" t="s">
         <v>652</v>
       </c>
-      <c r="C289" t="s">
-        <v>653</v>
-      </c>
       <c r="D289" t="s">
-        <v>574</v>
+        <v>83</v>
       </c>
       <c r="E289">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="4">
-        <v>8809716077113</v>
+        <v>8809716070909</v>
       </c>
       <c r="B290" t="s">
+        <v>653</v>
+      </c>
+      <c r="C290" t="s">
         <v>654</v>
       </c>
-      <c r="C290" t="s">
-        <v>655</v>
-      </c>
       <c r="D290" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="E290">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="4">
-        <v>8809716077144</v>
+        <v>8809716070930</v>
       </c>
       <c r="B291" t="s">
+        <v>655</v>
+      </c>
+      <c r="C291" t="s">
         <v>656</v>
       </c>
-      <c r="C291" t="s">
-        <v>657</v>
-      </c>
       <c r="D291" t="s">
-        <v>439</v>
+        <v>143</v>
       </c>
       <c r="E291">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="4">
-        <v>8809716077175</v>
+        <v>8809716070961</v>
       </c>
       <c r="B292" t="s">
+        <v>657</v>
+      </c>
+      <c r="C292" t="s">
         <v>658</v>
       </c>
-      <c r="C292" t="s">
-        <v>659</v>
-      </c>
       <c r="D292" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="E292">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="4">
-        <v>8809716077212</v>
+        <v>8809716071067</v>
       </c>
       <c r="B293" t="s">
+        <v>659</v>
+      </c>
+      <c r="C293" t="s">
         <v>660</v>
       </c>
-      <c r="C293" t="s">
-        <v>661</v>
-      </c>
       <c r="D293" t="s">
-        <v>381</v>
+        <v>177</v>
       </c>
       <c r="E293">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="4">
-        <v>8809716077274</v>
+        <v>8809716071098</v>
       </c>
       <c r="B294" t="s">
+        <v>661</v>
+      </c>
+      <c r="C294" t="s">
         <v>662</v>
       </c>
-      <c r="C294" t="s">
-        <v>663</v>
-      </c>
       <c r="D294" t="s">
-        <v>302</v>
+        <v>172</v>
       </c>
       <c r="E294">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="4">
-        <v>8809716077335</v>
+        <v>8809716071128</v>
       </c>
       <c r="B295" t="s">
+        <v>663</v>
+      </c>
+      <c r="C295" t="s">
         <v>664</v>
       </c>
-      <c r="C295" t="s">
-        <v>665</v>
-      </c>
       <c r="D295" t="s">
-        <v>302</v>
+        <v>172</v>
       </c>
       <c r="E295">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="4">
-        <v>8809716077366</v>
+        <v>8809716071159</v>
       </c>
       <c r="B296" t="s">
+        <v>665</v>
+      </c>
+      <c r="C296" t="s">
         <v>666</v>
       </c>
-      <c r="C296" t="s">
-        <v>667</v>
-      </c>
       <c r="D296" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="E296">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="4">
-        <v>8809716078295</v>
+        <v>8809716071173</v>
       </c>
       <c r="B297" t="s">
+        <v>667</v>
+      </c>
+      <c r="C297" t="s">
         <v>668</v>
       </c>
-      <c r="C297" t="s">
-        <v>669</v>
-      </c>
       <c r="D297" t="s">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="E297">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="4">
-        <v>8809716078318</v>
+        <v>8809716071203</v>
       </c>
       <c r="B298" t="s">
+        <v>669</v>
+      </c>
+      <c r="C298" t="s">
         <v>670</v>
       </c>
-      <c r="C298" t="s">
-        <v>671</v>
-      </c>
       <c r="D298" t="s">
-        <v>309</v>
+        <v>154</v>
       </c>
       <c r="E298">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="4">
-        <v>8809716078431</v>
+        <v>8809716071234</v>
       </c>
       <c r="B299" t="s">
+        <v>671</v>
+      </c>
+      <c r="C299" t="s">
         <v>672</v>
       </c>
-      <c r="C299" t="s">
-        <v>673</v>
-      </c>
       <c r="D299" t="s">
-        <v>396</v>
+        <v>182</v>
       </c>
       <c r="E299">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="4">
-        <v>8809756640315</v>
+        <v>8809716071265</v>
       </c>
       <c r="B300" t="s">
+        <v>673</v>
+      </c>
+      <c r="C300" t="s">
         <v>674</v>
       </c>
-      <c r="C300" t="s">
-        <v>675</v>
-      </c>
       <c r="D300" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="E300">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="4">
-        <v>8809756641084</v>
+        <v>8809716071289</v>
       </c>
       <c r="B301" t="s">
+        <v>675</v>
+      </c>
+      <c r="C301" t="s">
         <v>676</v>
       </c>
-      <c r="C301" t="s">
-        <v>677</v>
-      </c>
       <c r="D301" t="s">
-        <v>200</v>
+        <v>342</v>
       </c>
       <c r="E301">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="4">
-        <v>8809758100671</v>
+        <v>8809716071319</v>
       </c>
       <c r="B302" t="s">
+        <v>677</v>
+      </c>
+      <c r="C302" t="s">
         <v>678</v>
       </c>
-      <c r="C302" t="s">
-        <v>679</v>
-      </c>
       <c r="D302" t="s">
-        <v>55</v>
+        <v>440</v>
       </c>
       <c r="E302">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="4">
-        <v>8809758100701</v>
+        <v>8809716071340</v>
       </c>
       <c r="B303" t="s">
+        <v>679</v>
+      </c>
+      <c r="C303" t="s">
         <v>680</v>
       </c>
-      <c r="C303" t="s">
-        <v>681</v>
-      </c>
       <c r="D303" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="E303">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="4">
-        <v>8809758100718</v>
+        <v>8809716071371</v>
       </c>
       <c r="B304" t="s">
+        <v>681</v>
+      </c>
+      <c r="C304" t="s">
         <v>682</v>
       </c>
-      <c r="C304" t="s">
-        <v>683</v>
-      </c>
       <c r="D304" t="s">
-        <v>418</v>
+        <v>8</v>
       </c>
       <c r="E304">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="4">
-        <v>8809758100763</v>
+        <v>8809716071913</v>
       </c>
       <c r="B305" t="s">
+        <v>683</v>
+      </c>
+      <c r="C305" t="s">
         <v>684</v>
       </c>
-      <c r="C305" t="s">
-        <v>685</v>
-      </c>
       <c r="D305" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E305">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="4">
-        <v>8809758101579</v>
+        <v>8809716071937</v>
       </c>
       <c r="B306" t="s">
+        <v>685</v>
+      </c>
+      <c r="C306" t="s">
         <v>686</v>
       </c>
-      <c r="C306" t="s">
-        <v>687</v>
-      </c>
       <c r="D306" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E306">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="4">
-        <v>8809758101739</v>
+        <v>8809716071951</v>
       </c>
       <c r="B307" t="s">
+        <v>687</v>
+      </c>
+      <c r="C307" t="s">
         <v>688</v>
       </c>
-      <c r="C307" t="s">
-        <v>689</v>
-      </c>
       <c r="D307" t="s">
-        <v>58</v>
+        <v>646</v>
       </c>
       <c r="E307">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="4">
-        <v>8809758101753</v>
+        <v>8809716072422</v>
       </c>
       <c r="B308" t="s">
+        <v>689</v>
+      </c>
+      <c r="C308" t="s">
         <v>690</v>
       </c>
-      <c r="C308" t="s">
-        <v>691</v>
-      </c>
       <c r="D308" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="E308">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="4">
-        <v>8809758105881</v>
+        <v>8809716072446</v>
       </c>
       <c r="B309" t="s">
+        <v>691</v>
+      </c>
+      <c r="C309" t="s">
         <v>692</v>
       </c>
-      <c r="C309" t="s">
-        <v>693</v>
-      </c>
       <c r="D309" t="s">
-        <v>22</v>
+        <v>418</v>
       </c>
       <c r="E309">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="4">
-        <v>8809758106802</v>
+        <v>8809716072477</v>
       </c>
       <c r="B310" t="s">
+        <v>693</v>
+      </c>
+      <c r="C310" t="s">
         <v>694</v>
       </c>
-      <c r="C310" t="s">
-        <v>695</v>
-      </c>
       <c r="D310" t="s">
-        <v>353</v>
+        <v>11</v>
       </c>
       <c r="E310">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="4">
-        <v>8809758106833</v>
+        <v>8809716072507</v>
       </c>
       <c r="B311" t="s">
+        <v>695</v>
+      </c>
+      <c r="C311" t="s">
         <v>696</v>
       </c>
-      <c r="C311" t="s">
-        <v>697</v>
-      </c>
       <c r="D311" t="s">
-        <v>574</v>
+        <v>126</v>
       </c>
       <c r="E311">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="4">
-        <v>8809758106864</v>
+        <v>8809716072538</v>
       </c>
       <c r="B312" t="s">
+        <v>697</v>
+      </c>
+      <c r="C312" t="s">
         <v>698</v>
       </c>
-      <c r="C312" t="s">
-        <v>699</v>
-      </c>
       <c r="D312" t="s">
-        <v>342</v>
+        <v>71</v>
       </c>
       <c r="E312">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="4">
-        <v>8809758106895</v>
+        <v>8809716072613</v>
       </c>
       <c r="B313" t="s">
+        <v>699</v>
+      </c>
+      <c r="C313" t="s">
         <v>700</v>
       </c>
-      <c r="C313" t="s">
-        <v>701</v>
-      </c>
       <c r="D313" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E313">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="4">
-        <v>887276391830</v>
+        <v>8809716072637</v>
       </c>
       <c r="B314" t="s">
+        <v>701</v>
+      </c>
+      <c r="C314" t="s">
         <v>702</v>
       </c>
-      <c r="C314" t="s">
-        <v>703</v>
-      </c>
       <c r="D314" t="s">
-        <v>189</v>
+        <v>421</v>
       </c>
       <c r="E314">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="4">
-        <v>887276391861</v>
+        <v>8809716072651</v>
       </c>
       <c r="B315" t="s">
+        <v>703</v>
+      </c>
+      <c r="C315" t="s">
         <v>704</v>
       </c>
-      <c r="C315" t="s">
-        <v>705</v>
-      </c>
       <c r="D315" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E315">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="4">
-        <v>887276391915</v>
+        <v>8809716072743</v>
       </c>
       <c r="B316" t="s">
+        <v>705</v>
+      </c>
+      <c r="C316" t="s">
         <v>706</v>
       </c>
-      <c r="C316" t="s">
-        <v>707</v>
-      </c>
       <c r="D316" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="E316">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="4">
-        <v>887276392479</v>
+        <v>8809716072835</v>
       </c>
       <c r="B317" t="s">
+        <v>707</v>
+      </c>
+      <c r="C317" t="s">
         <v>708</v>
       </c>
-      <c r="C317" t="s">
-        <v>709</v>
-      </c>
       <c r="D317" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E317">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="4">
-        <v>887276392516</v>
+        <v>8809716072958</v>
       </c>
       <c r="B318" t="s">
+        <v>709</v>
+      </c>
+      <c r="C318" t="s">
         <v>710</v>
       </c>
-      <c r="C318" t="s">
-        <v>711</v>
-      </c>
       <c r="D318" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E318">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="4">
-        <v>887276392561</v>
+        <v>8809716072989</v>
       </c>
       <c r="B319" t="s">
+        <v>711</v>
+      </c>
+      <c r="C319" t="s">
         <v>712</v>
       </c>
-      <c r="C319" t="s">
-        <v>713</v>
-      </c>
       <c r="D319" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="E319">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="4">
-        <v>887276435336</v>
+        <v>8809716073016</v>
       </c>
       <c r="B320" t="s">
+        <v>713</v>
+      </c>
+      <c r="C320" t="s">
         <v>714</v>
       </c>
-      <c r="C320" t="s">
-        <v>715</v>
-      </c>
       <c r="D320" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E320">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="4">
+        <v>8809716073047</v>
+      </c>
+      <c r="B321" t="s">
+        <v>715</v>
+      </c>
+      <c r="C321" t="s">
+        <v>716</v>
+      </c>
+      <c r="D321" t="s">
+        <v>504</v>
+      </c>
+      <c r="E321">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="4">
+        <v>8809716073078</v>
+      </c>
+      <c r="B322" t="s">
+        <v>717</v>
+      </c>
+      <c r="C322" t="s">
+        <v>718</v>
+      </c>
+      <c r="D322" t="s">
+        <v>11</v>
+      </c>
+      <c r="E322">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="4">
+        <v>8809716073542</v>
+      </c>
+      <c r="B323" t="s">
+        <v>719</v>
+      </c>
+      <c r="C323" t="s">
+        <v>720</v>
+      </c>
+      <c r="D323" t="s">
+        <v>188</v>
+      </c>
+      <c r="E323">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="4">
+        <v>8809716074150</v>
+      </c>
+      <c r="B324" t="s">
+        <v>721</v>
+      </c>
+      <c r="C324" t="s">
+        <v>722</v>
+      </c>
+      <c r="D324" t="s">
+        <v>266</v>
+      </c>
+      <c r="E324">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="4">
+        <v>8809716074181</v>
+      </c>
+      <c r="B325" t="s">
+        <v>723</v>
+      </c>
+      <c r="C325" t="s">
+        <v>724</v>
+      </c>
+      <c r="D325" t="s">
+        <v>37</v>
+      </c>
+      <c r="E325">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="4">
+        <v>8809716075003</v>
+      </c>
+      <c r="B326" t="s">
+        <v>725</v>
+      </c>
+      <c r="C326" t="s">
+        <v>726</v>
+      </c>
+      <c r="D326" t="s">
+        <v>273</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="4">
+        <v>8809716075034</v>
+      </c>
+      <c r="B327" t="s">
+        <v>727</v>
+      </c>
+      <c r="C327" t="s">
+        <v>728</v>
+      </c>
+      <c r="D327" t="s">
+        <v>556</v>
+      </c>
+      <c r="E327">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="4">
+        <v>8809716075065</v>
+      </c>
+      <c r="B328" t="s">
+        <v>729</v>
+      </c>
+      <c r="C328" t="s">
+        <v>730</v>
+      </c>
+      <c r="D328" t="s">
+        <v>443</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="4">
+        <v>8809716075096</v>
+      </c>
+      <c r="B329" t="s">
+        <v>731</v>
+      </c>
+      <c r="C329" t="s">
+        <v>732</v>
+      </c>
+      <c r="D329" t="s">
+        <v>71</v>
+      </c>
+      <c r="E329">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="4">
+        <v>8809716075492</v>
+      </c>
+      <c r="B330" t="s">
+        <v>733</v>
+      </c>
+      <c r="C330" t="s">
+        <v>734</v>
+      </c>
+      <c r="D330" t="s">
+        <v>154</v>
+      </c>
+      <c r="E330">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="4">
+        <v>8809716075515</v>
+      </c>
+      <c r="B331" t="s">
+        <v>735</v>
+      </c>
+      <c r="C331" t="s">
+        <v>736</v>
+      </c>
+      <c r="D331" t="s">
+        <v>129</v>
+      </c>
+      <c r="E331">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="4">
+        <v>8809716075539</v>
+      </c>
+      <c r="B332" t="s">
+        <v>737</v>
+      </c>
+      <c r="C332" t="s">
+        <v>738</v>
+      </c>
+      <c r="D332" t="s">
+        <v>83</v>
+      </c>
+      <c r="E332">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="4">
+        <v>8809716075553</v>
+      </c>
+      <c r="B333" t="s">
+        <v>739</v>
+      </c>
+      <c r="C333" t="s">
+        <v>740</v>
+      </c>
+      <c r="D333" t="s">
+        <v>48</v>
+      </c>
+      <c r="E333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="4">
+        <v>8809716075577</v>
+      </c>
+      <c r="B334" t="s">
+        <v>741</v>
+      </c>
+      <c r="C334" t="s">
+        <v>742</v>
+      </c>
+      <c r="D334" t="s">
+        <v>151</v>
+      </c>
+      <c r="E334">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="4">
+        <v>8809716075591</v>
+      </c>
+      <c r="B335" t="s">
+        <v>743</v>
+      </c>
+      <c r="C335" t="s">
+        <v>744</v>
+      </c>
+      <c r="D335" t="s">
+        <v>391</v>
+      </c>
+      <c r="E335">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="4">
+        <v>8809716075669</v>
+      </c>
+      <c r="B336" t="s">
+        <v>745</v>
+      </c>
+      <c r="C336" t="s">
+        <v>746</v>
+      </c>
+      <c r="D336" t="s">
+        <v>418</v>
+      </c>
+      <c r="E336">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="4">
+        <v>8809716075690</v>
+      </c>
+      <c r="B337" t="s">
+        <v>747</v>
+      </c>
+      <c r="C337" t="s">
+        <v>748</v>
+      </c>
+      <c r="D337" t="s">
+        <v>421</v>
+      </c>
+      <c r="E337">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="4">
+        <v>8809716075720</v>
+      </c>
+      <c r="B338" t="s">
+        <v>749</v>
+      </c>
+      <c r="C338" t="s">
+        <v>750</v>
+      </c>
+      <c r="D338" t="s">
+        <v>182</v>
+      </c>
+      <c r="E338">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="4">
+        <v>8809716075751</v>
+      </c>
+      <c r="B339" t="s">
+        <v>751</v>
+      </c>
+      <c r="C339" t="s">
+        <v>752</v>
+      </c>
+      <c r="D339" t="s">
+        <v>342</v>
+      </c>
+      <c r="E339">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="4">
+        <v>8809716075768</v>
+      </c>
+      <c r="B340" t="s">
+        <v>753</v>
+      </c>
+      <c r="C340" t="s">
+        <v>754</v>
+      </c>
+      <c r="D340" t="s">
+        <v>75</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="4">
+        <v>8809716075782</v>
+      </c>
+      <c r="B341" t="s">
+        <v>755</v>
+      </c>
+      <c r="C341" t="s">
+        <v>756</v>
+      </c>
+      <c r="D341" t="s">
+        <v>646</v>
+      </c>
+      <c r="E341">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="4">
+        <v>8809716075799</v>
+      </c>
+      <c r="B342" t="s">
+        <v>757</v>
+      </c>
+      <c r="C342" t="s">
+        <v>758</v>
+      </c>
+      <c r="D342" t="s">
+        <v>759</v>
+      </c>
+      <c r="E342">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="4">
+        <v>8809716075805</v>
+      </c>
+      <c r="B343" t="s">
+        <v>760</v>
+      </c>
+      <c r="C343" t="s">
+        <v>761</v>
+      </c>
+      <c r="D343" t="s">
+        <v>759</v>
+      </c>
+      <c r="E343">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="4">
+        <v>8809716075812</v>
+      </c>
+      <c r="B344" t="s">
+        <v>762</v>
+      </c>
+      <c r="C344" t="s">
+        <v>763</v>
+      </c>
+      <c r="D344" t="s">
+        <v>759</v>
+      </c>
+      <c r="E344">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="4">
+        <v>8809716075829</v>
+      </c>
+      <c r="B345" t="s">
+        <v>764</v>
+      </c>
+      <c r="C345" t="s">
+        <v>765</v>
+      </c>
+      <c r="D345" t="s">
+        <v>759</v>
+      </c>
+      <c r="E345">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="4">
+        <v>8809716075836</v>
+      </c>
+      <c r="B346" t="s">
+        <v>766</v>
+      </c>
+      <c r="C346" t="s">
+        <v>767</v>
+      </c>
+      <c r="D346" t="s">
+        <v>759</v>
+      </c>
+      <c r="E346">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="4">
+        <v>8809716075843</v>
+      </c>
+      <c r="B347" t="s">
+        <v>768</v>
+      </c>
+      <c r="C347" t="s">
+        <v>769</v>
+      </c>
+      <c r="D347" t="s">
+        <v>759</v>
+      </c>
+      <c r="E347">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="4">
+        <v>8809716075850</v>
+      </c>
+      <c r="B348" t="s">
+        <v>770</v>
+      </c>
+      <c r="C348" t="s">
+        <v>771</v>
+      </c>
+      <c r="D348" t="s">
+        <v>759</v>
+      </c>
+      <c r="E348">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="4">
+        <v>8809716075867</v>
+      </c>
+      <c r="B349" t="s">
+        <v>772</v>
+      </c>
+      <c r="C349" t="s">
+        <v>773</v>
+      </c>
+      <c r="D349" t="s">
+        <v>73</v>
+      </c>
+      <c r="E349">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="4">
+        <v>8809716075874</v>
+      </c>
+      <c r="B350" t="s">
+        <v>774</v>
+      </c>
+      <c r="C350" t="s">
+        <v>775</v>
+      </c>
+      <c r="D350" t="s">
+        <v>759</v>
+      </c>
+      <c r="E350">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="4">
+        <v>8809716075898</v>
+      </c>
+      <c r="B351" t="s">
+        <v>776</v>
+      </c>
+      <c r="C351" t="s">
+        <v>777</v>
+      </c>
+      <c r="D351" t="s">
+        <v>75</v>
+      </c>
+      <c r="E351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="4">
+        <v>8809716076161</v>
+      </c>
+      <c r="B352" t="s">
+        <v>778</v>
+      </c>
+      <c r="C352" t="s">
+        <v>779</v>
+      </c>
+      <c r="D352" t="s">
+        <v>137</v>
+      </c>
+      <c r="E352">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="4">
+        <v>8809716076536</v>
+      </c>
+      <c r="B353" t="s">
+        <v>780</v>
+      </c>
+      <c r="C353" t="s">
+        <v>781</v>
+      </c>
+      <c r="D353" t="s">
+        <v>388</v>
+      </c>
+      <c r="E353">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="4">
+        <v>8809716076567</v>
+      </c>
+      <c r="B354" t="s">
+        <v>782</v>
+      </c>
+      <c r="C354" t="s">
+        <v>783</v>
+      </c>
+      <c r="D354" t="s">
+        <v>228</v>
+      </c>
+      <c r="E354">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="4">
+        <v>8809716076628</v>
+      </c>
+      <c r="B355" t="s">
+        <v>784</v>
+      </c>
+      <c r="C355" t="s">
+        <v>785</v>
+      </c>
+      <c r="D355" t="s">
+        <v>185</v>
+      </c>
+      <c r="E355">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="4">
+        <v>8809716076659</v>
+      </c>
+      <c r="B356" t="s">
+        <v>786</v>
+      </c>
+      <c r="C356" t="s">
+        <v>787</v>
+      </c>
+      <c r="D356" t="s">
+        <v>103</v>
+      </c>
+      <c r="E356">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="4">
+        <v>8809716076741</v>
+      </c>
+      <c r="B357" t="s">
+        <v>788</v>
+      </c>
+      <c r="C357" t="s">
+        <v>789</v>
+      </c>
+      <c r="D357" t="s">
+        <v>23</v>
+      </c>
+      <c r="E357">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="4">
+        <v>8809716076871</v>
+      </c>
+      <c r="B358" t="s">
+        <v>790</v>
+      </c>
+      <c r="C358" t="s">
+        <v>791</v>
+      </c>
+      <c r="D358" t="s">
+        <v>443</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="4">
+        <v>8809716076901</v>
+      </c>
+      <c r="B359" t="s">
+        <v>792</v>
+      </c>
+      <c r="C359" t="s">
+        <v>793</v>
+      </c>
+      <c r="D359" t="s">
+        <v>261</v>
+      </c>
+      <c r="E359">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="4">
+        <v>8809716076932</v>
+      </c>
+      <c r="B360" t="s">
+        <v>794</v>
+      </c>
+      <c r="C360" t="s">
+        <v>795</v>
+      </c>
+      <c r="D360" t="s">
+        <v>219</v>
+      </c>
+      <c r="E360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="4">
+        <v>8809716076994</v>
+      </c>
+      <c r="B361" t="s">
+        <v>796</v>
+      </c>
+      <c r="C361" t="s">
+        <v>797</v>
+      </c>
+      <c r="D361" t="s">
+        <v>388</v>
+      </c>
+      <c r="E361">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="4">
+        <v>8809716077083</v>
+      </c>
+      <c r="B362" t="s">
+        <v>798</v>
+      </c>
+      <c r="C362" t="s">
+        <v>799</v>
+      </c>
+      <c r="D362" t="s">
+        <v>504</v>
+      </c>
+      <c r="E362">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="4">
+        <v>8809716077113</v>
+      </c>
+      <c r="B363" t="s">
+        <v>800</v>
+      </c>
+      <c r="C363" t="s">
+        <v>801</v>
+      </c>
+      <c r="D363" t="s">
+        <v>556</v>
+      </c>
+      <c r="E363">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="4">
+        <v>8809716077144</v>
+      </c>
+      <c r="B364" t="s">
+        <v>802</v>
+      </c>
+      <c r="C364" t="s">
+        <v>803</v>
+      </c>
+      <c r="D364" t="s">
+        <v>556</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="4">
+        <v>8809716077175</v>
+      </c>
+      <c r="B365" t="s">
+        <v>804</v>
+      </c>
+      <c r="C365" t="s">
+        <v>805</v>
+      </c>
+      <c r="D365" t="s">
+        <v>249</v>
+      </c>
+      <c r="E365">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="4">
+        <v>8809716077212</v>
+      </c>
+      <c r="B366" t="s">
+        <v>806</v>
+      </c>
+      <c r="C366" t="s">
+        <v>807</v>
+      </c>
+      <c r="D366" t="s">
+        <v>489</v>
+      </c>
+      <c r="E366">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="4">
+        <v>8809716077274</v>
+      </c>
+      <c r="B367" t="s">
+        <v>808</v>
+      </c>
+      <c r="C367" t="s">
+        <v>809</v>
+      </c>
+      <c r="D367" t="s">
+        <v>28</v>
+      </c>
+      <c r="E367">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="4">
+        <v>8809716077304</v>
+      </c>
+      <c r="B368" t="s">
+        <v>810</v>
+      </c>
+      <c r="C368" t="s">
+        <v>811</v>
+      </c>
+      <c r="D368" t="s">
+        <v>143</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="4">
+        <v>8809716077366</v>
+      </c>
+      <c r="B369" t="s">
+        <v>812</v>
+      </c>
+      <c r="C369" t="s">
+        <v>813</v>
+      </c>
+      <c r="D369" t="s">
+        <v>123</v>
+      </c>
+      <c r="E369">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="4">
+        <v>8809716078295</v>
+      </c>
+      <c r="B370" t="s">
+        <v>814</v>
+      </c>
+      <c r="C370" t="s">
+        <v>815</v>
+      </c>
+      <c r="D370" t="s">
+        <v>161</v>
+      </c>
+      <c r="E370">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="4">
+        <v>8809716078318</v>
+      </c>
+      <c r="B371" t="s">
+        <v>816</v>
+      </c>
+      <c r="C371" t="s">
+        <v>817</v>
+      </c>
+      <c r="D371" t="s">
+        <v>161</v>
+      </c>
+      <c r="E371">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="4">
+        <v>8809716078431</v>
+      </c>
+      <c r="B372" t="s">
+        <v>818</v>
+      </c>
+      <c r="C372" t="s">
+        <v>819</v>
+      </c>
+      <c r="D372" t="s">
+        <v>140</v>
+      </c>
+      <c r="E372">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="4">
+        <v>8809716078455</v>
+      </c>
+      <c r="B373" t="s">
+        <v>820</v>
+      </c>
+      <c r="C373" t="s">
+        <v>821</v>
+      </c>
+      <c r="D373" t="s">
+        <v>83</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="4">
+        <v>8809756640315</v>
+      </c>
+      <c r="B374" t="s">
+        <v>822</v>
+      </c>
+      <c r="C374" t="s">
+        <v>823</v>
+      </c>
+      <c r="D374" t="s">
+        <v>59</v>
+      </c>
+      <c r="E374">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="4">
+        <v>8809756641084</v>
+      </c>
+      <c r="B375" t="s">
+        <v>824</v>
+      </c>
+      <c r="C375" t="s">
+        <v>825</v>
+      </c>
+      <c r="D375" t="s">
+        <v>266</v>
+      </c>
+      <c r="E375">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="4">
+        <v>8809758100671</v>
+      </c>
+      <c r="B376" t="s">
+        <v>826</v>
+      </c>
+      <c r="C376" t="s">
+        <v>827</v>
+      </c>
+      <c r="D376" t="s">
+        <v>96</v>
+      </c>
+      <c r="E376">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="4">
+        <v>8809758100701</v>
+      </c>
+      <c r="B377" t="s">
+        <v>828</v>
+      </c>
+      <c r="C377" t="s">
+        <v>829</v>
+      </c>
+      <c r="D377" t="s">
+        <v>188</v>
+      </c>
+      <c r="E377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="4">
+        <v>8809758100718</v>
+      </c>
+      <c r="B378" t="s">
+        <v>830</v>
+      </c>
+      <c r="C378" t="s">
+        <v>831</v>
+      </c>
+      <c r="D378" t="s">
+        <v>388</v>
+      </c>
+      <c r="E378">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="4">
+        <v>8809758100763</v>
+      </c>
+      <c r="B379" t="s">
+        <v>832</v>
+      </c>
+      <c r="C379" t="s">
+        <v>833</v>
+      </c>
+      <c r="D379" t="s">
+        <v>48</v>
+      </c>
+      <c r="E379">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="4">
+        <v>8809758101562</v>
+      </c>
+      <c r="B380" t="s">
+        <v>834</v>
+      </c>
+      <c r="C380" t="s">
+        <v>835</v>
+      </c>
+      <c r="D380" t="s">
+        <v>154</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="4">
+        <v>8809758101579</v>
+      </c>
+      <c r="B381" t="s">
+        <v>836</v>
+      </c>
+      <c r="C381" t="s">
+        <v>837</v>
+      </c>
+      <c r="D381" t="s">
+        <v>83</v>
+      </c>
+      <c r="E381">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="4">
+        <v>8809758101739</v>
+      </c>
+      <c r="B382" t="s">
+        <v>838</v>
+      </c>
+      <c r="C382" t="s">
+        <v>839</v>
+      </c>
+      <c r="D382" t="s">
+        <v>62</v>
+      </c>
+      <c r="E382">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="4">
+        <v>8809758101753</v>
+      </c>
+      <c r="B383" t="s">
+        <v>840</v>
+      </c>
+      <c r="C383" t="s">
+        <v>841</v>
+      </c>
+      <c r="D383" t="s">
+        <v>62</v>
+      </c>
+      <c r="E383">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="4">
+        <v>8809758105799</v>
+      </c>
+      <c r="B384" t="s">
+        <v>842</v>
+      </c>
+      <c r="C384" t="s">
+        <v>843</v>
+      </c>
+      <c r="D384" t="s">
+        <v>182</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="4">
+        <v>8809758105881</v>
+      </c>
+      <c r="B385" t="s">
+        <v>844</v>
+      </c>
+      <c r="C385" t="s">
+        <v>845</v>
+      </c>
+      <c r="D385" t="s">
+        <v>48</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="4">
+        <v>8809758106802</v>
+      </c>
+      <c r="B386" t="s">
+        <v>846</v>
+      </c>
+      <c r="C386" t="s">
+        <v>847</v>
+      </c>
+      <c r="D386" t="s">
+        <v>453</v>
+      </c>
+      <c r="E386">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="4">
+        <v>8809758106833</v>
+      </c>
+      <c r="B387" t="s">
+        <v>848</v>
+      </c>
+      <c r="C387" t="s">
+        <v>849</v>
+      </c>
+      <c r="D387" t="s">
+        <v>504</v>
+      </c>
+      <c r="E387">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="4">
+        <v>8809758106864</v>
+      </c>
+      <c r="B388" t="s">
+        <v>850</v>
+      </c>
+      <c r="C388" t="s">
+        <v>851</v>
+      </c>
+      <c r="D388" t="s">
+        <v>443</v>
+      </c>
+      <c r="E388">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="4">
+        <v>8809758106895</v>
+      </c>
+      <c r="B389" t="s">
+        <v>852</v>
+      </c>
+      <c r="C389" t="s">
+        <v>853</v>
+      </c>
+      <c r="D389" t="s">
+        <v>71</v>
+      </c>
+      <c r="E389">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="4">
+        <v>887276222271</v>
+      </c>
+      <c r="B390" t="s">
+        <v>854</v>
+      </c>
+      <c r="C390" t="s">
+        <v>855</v>
+      </c>
+      <c r="D390" t="s">
+        <v>89</v>
+      </c>
+      <c r="E390">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="4">
+        <v>887276344379</v>
+      </c>
+      <c r="B391" t="s">
+        <v>856</v>
+      </c>
+      <c r="C391" t="s">
+        <v>857</v>
+      </c>
+      <c r="D391" t="s">
+        <v>460</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="4">
+        <v>887276360331</v>
+      </c>
+      <c r="B392" t="s">
+        <v>858</v>
+      </c>
+      <c r="C392" t="s">
+        <v>859</v>
+      </c>
+      <c r="D392" t="s">
+        <v>137</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="4">
+        <v>887276360409</v>
+      </c>
+      <c r="B393" t="s">
+        <v>860</v>
+      </c>
+      <c r="C393" t="s">
+        <v>861</v>
+      </c>
+      <c r="D393" t="s">
+        <v>143</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="4">
+        <v>887276361574</v>
+      </c>
+      <c r="B394" t="s">
+        <v>862</v>
+      </c>
+      <c r="C394" t="s">
+        <v>863</v>
+      </c>
+      <c r="D394" t="s">
+        <v>137</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="4">
+        <v>887276363882</v>
+      </c>
+      <c r="B395" t="s">
+        <v>864</v>
+      </c>
+      <c r="C395" t="s">
+        <v>865</v>
+      </c>
+      <c r="D395" t="s">
+        <v>73</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="4">
+        <v>887276373492</v>
+      </c>
+      <c r="B396" t="s">
+        <v>866</v>
+      </c>
+      <c r="C396" t="s">
+        <v>867</v>
+      </c>
+      <c r="D396" t="s">
+        <v>48</v>
+      </c>
+      <c r="E396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="4">
+        <v>887276373515</v>
+      </c>
+      <c r="B397" t="s">
+        <v>868</v>
+      </c>
+      <c r="C397" t="s">
+        <v>869</v>
+      </c>
+      <c r="D397" t="s">
+        <v>114</v>
+      </c>
+      <c r="E397">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="4">
+        <v>887276373560</v>
+      </c>
+      <c r="B398" t="s">
+        <v>870</v>
+      </c>
+      <c r="C398" t="s">
+        <v>871</v>
+      </c>
+      <c r="D398" t="s">
+        <v>114</v>
+      </c>
+      <c r="E398">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="4">
+        <v>887276391830</v>
+      </c>
+      <c r="B399" t="s">
+        <v>872</v>
+      </c>
+      <c r="C399" t="s">
+        <v>873</v>
+      </c>
+      <c r="D399" t="s">
+        <v>31</v>
+      </c>
+      <c r="E399">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="4">
+        <v>887276391861</v>
+      </c>
+      <c r="B400" t="s">
+        <v>874</v>
+      </c>
+      <c r="C400" t="s">
+        <v>875</v>
+      </c>
+      <c r="D400" t="s">
+        <v>48</v>
+      </c>
+      <c r="E400">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="4">
+        <v>887276391915</v>
+      </c>
+      <c r="B401" t="s">
+        <v>876</v>
+      </c>
+      <c r="C401" t="s">
+        <v>877</v>
+      </c>
+      <c r="D401" t="s">
+        <v>23</v>
+      </c>
+      <c r="E401">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="4">
+        <v>887276392479</v>
+      </c>
+      <c r="B402" t="s">
+        <v>878</v>
+      </c>
+      <c r="C402" t="s">
+        <v>879</v>
+      </c>
+      <c r="D402" t="s">
+        <v>137</v>
+      </c>
+      <c r="E402">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="4">
+        <v>887276392516</v>
+      </c>
+      <c r="B403" t="s">
+        <v>880</v>
+      </c>
+      <c r="C403" t="s">
+        <v>881</v>
+      </c>
+      <c r="D403" t="s">
+        <v>83</v>
+      </c>
+      <c r="E403">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="4">
+        <v>887276392561</v>
+      </c>
+      <c r="B404" t="s">
+        <v>882</v>
+      </c>
+      <c r="C404" t="s">
+        <v>883</v>
+      </c>
+      <c r="D404" t="s">
+        <v>252</v>
+      </c>
+      <c r="E404">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="4">
+        <v>887276393698</v>
+      </c>
+      <c r="B405" t="s">
+        <v>884</v>
+      </c>
+      <c r="C405" t="s">
+        <v>885</v>
+      </c>
+      <c r="D405" t="s">
+        <v>114</v>
+      </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="4">
+        <v>887276435336</v>
+      </c>
+      <c r="B406" t="s">
+        <v>886</v>
+      </c>
+      <c r="C406" t="s">
+        <v>887</v>
+      </c>
+      <c r="D406" t="s">
+        <v>207</v>
+      </c>
+      <c r="E406">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="4">
         <v>887276435558</v>
       </c>
-      <c r="B321" t="s">
-        <v>716</v>
-      </c>
-      <c r="C321" t="s">
-        <v>717</v>
-      </c>
-      <c r="D321" t="s">
-        <v>17</v>
-      </c>
-      <c r="E321">
+      <c r="B407" t="s">
+        <v>888</v>
+      </c>
+      <c r="C407" t="s">
+        <v>889</v>
+      </c>
+      <c r="D407" t="s">
+        <v>43</v>
+      </c>
+      <c r="E407">
         <v>24</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="B408" t="s">
+        <v>890</v>
+      </c>
+      <c r="C408" t="s">
+        <v>891</v>
+      </c>
+      <c r="D408" t="s">
+        <v>146</v>
+      </c>
+      <c r="E408">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="B409" t="s">
+        <v>892</v>
+      </c>
+      <c r="C409" t="s">
+        <v>893</v>
+      </c>
+      <c r="D409" t="s">
+        <v>627</v>
+      </c>
+      <c r="E409">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B410" t="s">
+        <v>894</v>
+      </c>
+      <c r="C410" t="s">
+        <v>895</v>
+      </c>
+      <c r="D410" t="s">
+        <v>114</v>
+      </c>
+      <c r="E410">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B411" t="s">
+        <v>896</v>
+      </c>
+      <c r="C411" t="s">
+        <v>897</v>
+      </c>
+      <c r="D411" t="s">
+        <v>86</v>
+      </c>
+      <c r="E411">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="B412" t="s">
+        <v>898</v>
+      </c>
+      <c r="C412" t="s">
+        <v>899</v>
+      </c>
+      <c r="D412" t="s">
+        <v>252</v>
+      </c>
+      <c r="E412">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="B413" t="s">
+        <v>900</v>
+      </c>
+      <c r="C413" t="s">
+        <v>901</v>
+      </c>
+      <c r="D413" t="s">
+        <v>219</v>
+      </c>
+      <c r="E413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="B414" t="s">
+        <v>902</v>
+      </c>
+      <c r="C414" t="s">
+        <v>903</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+      <c r="E414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="B415" t="s">
+        <v>904</v>
+      </c>
+      <c r="C415" t="s">
+        <v>905</v>
+      </c>
+      <c r="D415" t="s">
+        <v>759</v>
+      </c>
+      <c r="E415">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="B416" t="s">
+        <v>906</v>
+      </c>
+      <c r="C416" t="s">
+        <v>907</v>
+      </c>
+      <c r="D416" t="s">
+        <v>71</v>
+      </c>
+      <c r="E416">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
